--- a/Dados BI PTL.xlsx
+++ b/Dados BI PTL.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acswpj2\CW_R\AV_PRSPI\GOF CW\2025\CDD Curitiba\02. Equipe\09. Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A110C3CF-41F3-4693-924B-D90D441A9316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D6DB7-2F1B-43E2-B314-1322DDD1EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Gestao" sheetId="1" r:id="rId1"/>
+    <sheet name="Produtos" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1720,7 +1720,7 @@
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="QUAL O ENDEREÇO? " dataDxfId="3"/>
     <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="Código do produto" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{4D8D8453-8EB6-472A-ACEA-EB928F5D32EC}" name="Coluna1" dataDxfId="1">
-      <calculatedColumnFormula>VLOOKUP(G2,'Sheet1 (2)'!A:B,2,FALSE)</calculatedColumnFormula>
+      <calculatedColumnFormula>VLOOKUP(G2,Produtos!A:B,2,FALSE)</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Tipo incidente " dataDxfId="0"/>
   </tableColumns>
@@ -2027,9 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1070" workbookViewId="0">
-      <selection activeCell="I1109" sqref="I1109"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2087,7 +2085,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3" t="e">
-        <f>VLOOKUP(G2,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G2,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" s="3"/>
@@ -2111,7 +2109,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3" t="e">
-        <f>VLOOKUP(G3,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G3,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I3" s="3"/>
@@ -2135,7 +2133,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3" t="e">
-        <f>VLOOKUP(G4,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G4,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I4" s="3"/>
@@ -2159,7 +2157,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3" t="e">
-        <f>VLOOKUP(G5,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G5,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I5" s="3"/>
@@ -2183,7 +2181,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3" t="e">
-        <f>VLOOKUP(G6,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G6,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I6" s="3"/>
@@ -2207,7 +2205,7 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="e">
-        <f>VLOOKUP(G7,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G7,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I7" s="3"/>
@@ -2231,7 +2229,7 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3" t="e">
-        <f>VLOOKUP(G8,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G8,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I8" s="3"/>
@@ -2255,7 +2253,7 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3" t="e">
-        <f>VLOOKUP(G9,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G9,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I9" s="3"/>
@@ -2279,7 +2277,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3" t="e">
-        <f>VLOOKUP(G10,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G10,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I10" s="3"/>
@@ -2303,7 +2301,7 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3" t="e">
-        <f>VLOOKUP(G11,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G11,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I11" s="3"/>
@@ -2327,7 +2325,7 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3" t="e">
-        <f>VLOOKUP(G12,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G12,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I12" s="3"/>
@@ -2351,7 +2349,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3" t="e">
-        <f>VLOOKUP(G13,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G13,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I13" s="3"/>
@@ -2375,7 +2373,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3" t="e">
-        <f>VLOOKUP(G14,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G14,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I14" s="3"/>
@@ -2399,7 +2397,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="e">
-        <f>VLOOKUP(G15,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G15,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I15" s="3"/>
@@ -2423,7 +2421,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3" t="e">
-        <f>VLOOKUP(G16,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G16,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I16" s="3"/>
@@ -2447,7 +2445,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3" t="e">
-        <f>VLOOKUP(G17,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G17,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I17" s="3"/>
@@ -2471,7 +2469,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3" t="e">
-        <f>VLOOKUP(G18,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G18,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I18" s="3"/>
@@ -2495,7 +2493,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3" t="e">
-        <f>VLOOKUP(G19,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G19,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I19" s="3"/>
@@ -2519,7 +2517,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="3"/>
       <c r="H20" s="3" t="e">
-        <f>VLOOKUP(G20,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G20,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I20" s="3"/>
@@ -2543,7 +2541,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3" t="e">
-        <f>VLOOKUP(G21,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G21,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I21" s="3"/>
@@ -2567,7 +2565,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
       <c r="H22" s="3" t="e">
-        <f>VLOOKUP(G22,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G22,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I22" s="3"/>
@@ -2591,7 +2589,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3" t="e">
-        <f>VLOOKUP(G23,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G23,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I23" s="3"/>
@@ -2615,7 +2613,7 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="e">
-        <f>VLOOKUP(G24,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G24,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I24" s="3"/>
@@ -2639,7 +2637,7 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="e">
-        <f>VLOOKUP(G25,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G25,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I25" s="3"/>
@@ -2663,7 +2661,7 @@
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
       <c r="H26" s="3" t="e">
-        <f>VLOOKUP(G26,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G26,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I26" s="3"/>
@@ -2687,7 +2685,7 @@
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3" t="e">
-        <f>VLOOKUP(G27,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G27,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I27" s="3"/>
@@ -2711,7 +2709,7 @@
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3" t="e">
-        <f>VLOOKUP(G28,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G28,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I28" s="3"/>
@@ -2735,7 +2733,7 @@
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
       <c r="H29" s="3" t="e">
-        <f>VLOOKUP(G29,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G29,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I29" s="3"/>
@@ -2759,7 +2757,7 @@
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3" t="e">
-        <f>VLOOKUP(G30,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G30,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I30" s="3"/>
@@ -2783,7 +2781,7 @@
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
       <c r="H31" s="3" t="e">
-        <f>VLOOKUP(G31,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G31,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I31" s="3"/>
@@ -2807,7 +2805,7 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3" t="e">
-        <f>VLOOKUP(G32,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G32,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I32" s="3"/>
@@ -2831,7 +2829,7 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="e">
-        <f>VLOOKUP(G33,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G33,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I33" s="3"/>
@@ -2855,7 +2853,7 @@
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3" t="e">
-        <f>VLOOKUP(G34,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G34,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I34" s="3"/>
@@ -2879,7 +2877,7 @@
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3" t="e">
-        <f>VLOOKUP(G35,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G35,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I35" s="3"/>
@@ -2903,7 +2901,7 @@
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3" t="e">
-        <f>VLOOKUP(G36,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G36,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I36" s="3"/>
@@ -2927,7 +2925,7 @@
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3" t="e">
-        <f>VLOOKUP(G37,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G37,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I37" s="3"/>
@@ -2951,7 +2949,7 @@
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3" t="e">
-        <f>VLOOKUP(G38,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G38,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I38" s="3"/>
@@ -2975,7 +2973,7 @@
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3" t="e">
-        <f>VLOOKUP(G39,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G39,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I39" s="3"/>
@@ -2999,7 +2997,7 @@
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3" t="e">
-        <f>VLOOKUP(G40,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G40,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I40" s="3"/>
@@ -3023,7 +3021,7 @@
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3" t="e">
-        <f>VLOOKUP(G41,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G41,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I41" s="3"/>
@@ -3047,7 +3045,7 @@
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3" t="e">
-        <f>VLOOKUP(G42,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G42,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I42" s="3"/>
@@ -3071,7 +3069,7 @@
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
       <c r="H43" s="3" t="e">
-        <f>VLOOKUP(G43,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G43,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I43" s="3"/>
@@ -3095,7 +3093,7 @@
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
       <c r="H44" s="3" t="e">
-        <f>VLOOKUP(G44,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G44,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I44" s="3"/>
@@ -3119,7 +3117,7 @@
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
       <c r="H45" s="3" t="e">
-        <f>VLOOKUP(G45,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G45,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I45" s="3"/>
@@ -3143,7 +3141,7 @@
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
       <c r="H46" s="3" t="e">
-        <f>VLOOKUP(G46,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G46,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I46" s="3"/>
@@ -3167,7 +3165,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3" t="e">
-        <f>VLOOKUP(G47,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G47,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I47" s="3"/>
@@ -3191,7 +3189,7 @@
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
       <c r="H48" s="3" t="e">
-        <f>VLOOKUP(G48,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G48,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I48" s="3"/>
@@ -3215,7 +3213,7 @@
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3" t="e">
-        <f>VLOOKUP(G49,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G49,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I49" s="3"/>
@@ -3239,7 +3237,7 @@
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
       <c r="H50" s="3" t="e">
-        <f>VLOOKUP(G50,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G50,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I50" s="3"/>
@@ -3263,7 +3261,7 @@
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
       <c r="H51" s="3" t="e">
-        <f>VLOOKUP(G51,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G51,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I51" s="3"/>
@@ -3287,7 +3285,7 @@
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
       <c r="H52" s="3" t="e">
-        <f>VLOOKUP(G52,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G52,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I52" s="3"/>
@@ -3311,7 +3309,7 @@
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
       <c r="H53" s="3" t="e">
-        <f>VLOOKUP(G53,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G53,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I53" s="3"/>
@@ -3335,7 +3333,7 @@
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
       <c r="H54" s="3" t="e">
-        <f>VLOOKUP(G54,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G54,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I54" s="3"/>
@@ -3359,7 +3357,7 @@
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="H55" s="3" t="e">
-        <f>VLOOKUP(G55,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G55,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I55" s="3"/>
@@ -3383,7 +3381,7 @@
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="H56" s="3" t="e">
-        <f>VLOOKUP(G56,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G56,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I56" s="3"/>
@@ -3407,7 +3405,7 @@
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
       <c r="H57" s="3" t="e">
-        <f>VLOOKUP(G57,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G57,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I57" s="3"/>
@@ -3431,7 +3429,7 @@
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="H58" s="3" t="e">
-        <f>VLOOKUP(G58,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G58,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I58" s="3"/>
@@ -3457,7 +3455,7 @@
         <v>9089</v>
       </c>
       <c r="H59" s="2" t="str">
-        <f>VLOOKUP(G59,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G59,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I59" s="7" t="s">
@@ -3485,7 +3483,7 @@
         <v>9087</v>
       </c>
       <c r="H60" s="2" t="str">
-        <f>VLOOKUP(G60,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G60,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I60" s="3" t="s">
@@ -3513,7 +3511,7 @@
         <v>20651</v>
       </c>
       <c r="H61" s="2" t="str">
-        <f>VLOOKUP(G61,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G61,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I61" s="3" t="s">
@@ -3541,7 +3539,7 @@
         <v>17808</v>
       </c>
       <c r="H62" s="2" t="str">
-        <f>VLOOKUP(G62,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G62,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I62" s="3" t="s">
@@ -3569,7 +3567,7 @@
         <v>20498</v>
       </c>
       <c r="H63" s="2" t="str">
-        <f>VLOOKUP(G63,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G63,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I63" s="3" t="s">
@@ -3595,7 +3593,7 @@
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3" t="e">
-        <f>VLOOKUP(G64,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G64,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I64" s="3" t="s">
@@ -3623,7 +3621,7 @@
         <v>2353</v>
       </c>
       <c r="H65" s="2" t="str">
-        <f>VLOOKUP(G65,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G65,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA DIET PET 2L CXC/6</v>
       </c>
       <c r="I65" s="3" t="s">
@@ -3649,7 +3647,7 @@
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
       <c r="H66" s="3" t="e">
-        <f>VLOOKUP(G66,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G66,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I66" s="3" t="s">
@@ -3677,7 +3675,7 @@
         <v>28137</v>
       </c>
       <c r="H67" s="2" t="str">
-        <f>VLOOKUP(G67,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G67,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BT CAIPIRINHA LT 269ML CX CA C/8 NP</v>
       </c>
       <c r="I67" s="3" t="s">
@@ -3705,7 +3703,7 @@
         <v>33734</v>
       </c>
       <c r="H68" s="2" t="str">
-        <f>VLOOKUP(G68,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G68,Produtos!A:B,2,FALSE)</f>
         <v>BEATS RED MIX LT 269ML SH C/8</v>
       </c>
       <c r="I68" s="3" t="s">
@@ -3733,7 +3731,7 @@
         <v>22180</v>
       </c>
       <c r="H69" s="2" t="str">
-        <f>VLOOKUP(G69,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G69,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
       </c>
       <c r="I69" s="3" t="s">
@@ -3761,7 +3759,7 @@
         <v>9274</v>
       </c>
       <c r="H70" s="2" t="str">
-        <f>VLOOKUP(G70,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G70,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I70" s="3" t="s">
@@ -3789,7 +3787,7 @@
         <v>14135</v>
       </c>
       <c r="H71" s="2" t="str">
-        <f>VLOOKUP(G71,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G71,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I71" s="3" t="s">
@@ -3817,7 +3815,7 @@
         <v>9084</v>
       </c>
       <c r="H72" s="2" t="str">
-        <f>VLOOKUP(G72,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G72,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I72" s="3" t="s">
@@ -3845,7 +3843,7 @@
         <v>14135</v>
       </c>
       <c r="H73" s="2" t="str">
-        <f>VLOOKUP(G73,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G73,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I73" s="3" t="s">
@@ -3873,7 +3871,7 @@
         <v>20498</v>
       </c>
       <c r="H74" s="2" t="str">
-        <f>VLOOKUP(G74,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G74,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I74" s="3" t="s">
@@ -3901,7 +3899,7 @@
         <v>17808</v>
       </c>
       <c r="H75" s="2" t="str">
-        <f>VLOOKUP(G75,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G75,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I75" s="3" t="s">
@@ -3927,7 +3925,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="e">
-        <f>VLOOKUP(G76,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G76,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I76" s="3"/>
@@ -3951,7 +3949,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="e">
-        <f>VLOOKUP(G77,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G77,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I77" s="3" t="s">
@@ -3979,7 +3977,7 @@
         <v>7982</v>
       </c>
       <c r="H78" s="2" t="str">
-        <f>VLOOKUP(G78,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G78,Produtos!A:B,2,FALSE)</f>
         <v>GATORADE LIMAO PET 500ML SIX PACK</v>
       </c>
       <c r="I78" s="3" t="s">
@@ -4007,7 +4005,7 @@
         <v>17808</v>
       </c>
       <c r="H79" s="2" t="str">
-        <f>VLOOKUP(G79,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G79,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I79" s="3" t="s">
@@ -4035,7 +4033,7 @@
         <v>32500</v>
       </c>
       <c r="H80" s="2" t="str">
-        <f>VLOOKUP(G80,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G80,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ART PUR GOLD LT SL 350ML C8 CX CT</v>
       </c>
       <c r="I80" s="3" t="s">
@@ -4063,7 +4061,7 @@
         <v>9089</v>
       </c>
       <c r="H81" s="2" t="str">
-        <f>VLOOKUP(G81,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G81,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I81" s="3" t="s">
@@ -4091,7 +4089,7 @@
         <v>2354</v>
       </c>
       <c r="H82" s="2" t="str">
-        <f>VLOOKUP(G82,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G82,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTARCT DIET PET 2L CX C/6</v>
       </c>
       <c r="I82" s="3" t="s">
@@ -4119,7 +4117,7 @@
         <v>9067</v>
       </c>
       <c r="H83" s="2" t="str">
-        <f>VLOOKUP(G83,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G83,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I83" s="3" t="s">
@@ -4147,7 +4145,7 @@
         <v>9069</v>
       </c>
       <c r="H84" s="2" t="str">
-        <f>VLOOKUP(G84,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G84,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I84" s="3" t="s">
@@ -4175,7 +4173,7 @@
         <v>371</v>
       </c>
       <c r="H85" s="2" t="str">
-        <f>VLOOKUP(G85,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G85,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LN355ML SIX PAC BAND C/4</v>
       </c>
       <c r="I85" s="3" t="s">
@@ -4203,7 +4201,7 @@
         <v>22200</v>
       </c>
       <c r="H86" s="2" t="str">
-        <f>VLOOKUP(G86,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G86,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA PET1LSH C/06</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -4231,7 +4229,7 @@
         <v>9081</v>
       </c>
       <c r="H87" s="2" t="str">
-        <f>VLOOKUP(G87,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G87,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I87" s="3" t="s">
@@ -4259,7 +4257,7 @@
         <v>18137</v>
       </c>
       <c r="H88" s="2" t="str">
-        <f>VLOOKUP(G88,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G88,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 3L C4 SH LISO</v>
       </c>
       <c r="I88" s="3" t="s">
@@ -4287,7 +4285,7 @@
         <v>17725</v>
       </c>
       <c r="H89" s="2" t="str">
-        <f>VLOOKUP(G89,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G89,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -4315,7 +4313,7 @@
         <v>9091</v>
       </c>
       <c r="H90" s="2" t="str">
-        <f>VLOOKUP(G90,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G90,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I90" s="3" t="s">
@@ -4343,7 +4341,7 @@
         <v>9069</v>
       </c>
       <c r="H91" s="2" t="str">
-        <f>VLOOKUP(G91,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G91,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I91" s="3" t="s">
@@ -4371,7 +4369,7 @@
         <v>19225</v>
       </c>
       <c r="H92" s="2" t="str">
-        <f>VLOOKUP(G92,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G92,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I92" s="3" t="s">
@@ -4399,7 +4397,7 @@
         <v>19225</v>
       </c>
       <c r="H93" s="2" t="str">
-        <f>VLOOKUP(G93,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G93,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I93" s="3" t="s">
@@ -4427,7 +4425,7 @@
         <v>9084</v>
       </c>
       <c r="H94" s="2" t="str">
-        <f>VLOOKUP(G94,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G94,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I94" s="3" t="s">
@@ -4455,7 +4453,7 @@
         <v>34420</v>
       </c>
       <c r="H95" s="2" t="str">
-        <f>VLOOKUP(G95,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G95,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL SUM MARAC E MELAO LT 250ML FP</v>
       </c>
       <c r="I95" s="3" t="s">
@@ -4483,7 +4481,7 @@
         <v>19310</v>
       </c>
       <c r="H96" s="2" t="str">
-        <f>VLOOKUP(G96,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G96,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I96" s="3" t="s">
@@ -4511,7 +4509,7 @@
         <v>19310</v>
       </c>
       <c r="H97" s="2" t="str">
-        <f>VLOOKUP(G97,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G97,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I97" s="3" t="s">
@@ -4537,7 +4535,7 @@
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3" t="e">
-        <f>VLOOKUP(G98,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G98,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I98" s="3"/>
@@ -4563,7 +4561,7 @@
         <v>9069</v>
       </c>
       <c r="H99" s="2" t="str">
-        <f>VLOOKUP(G99,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G99,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I99" s="3" t="s">
@@ -4591,7 +4589,7 @@
         <v>17797</v>
       </c>
       <c r="H100" s="2" t="str">
-        <f>VLOOKUP(G100,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G100,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I100" s="3" t="s">
@@ -4619,7 +4617,7 @@
         <v>35</v>
       </c>
       <c r="H101" s="3" t="e">
-        <f>VLOOKUP(G101,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G101,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I101" s="3" t="s">
@@ -4647,7 +4645,7 @@
         <v>17725</v>
       </c>
       <c r="H102" s="2" t="str">
-        <f>VLOOKUP(G102,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G102,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I102" s="3" t="s">
@@ -4675,7 +4673,7 @@
         <v>9085</v>
       </c>
       <c r="H103" s="2" t="str">
-        <f>VLOOKUP(G103,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G103,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I103" s="3" t="s">
@@ -4703,7 +4701,7 @@
         <v>9084</v>
       </c>
       <c r="H104" s="2" t="str">
-        <f>VLOOKUP(G104,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G104,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -4731,7 +4729,7 @@
         <v>9067</v>
       </c>
       <c r="H105" s="2" t="str">
-        <f>VLOOKUP(G105,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G105,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I105" s="3" t="s">
@@ -4759,7 +4757,7 @@
         <v>32361</v>
       </c>
       <c r="H106" s="2" t="str">
-        <f>VLOOKUP(G106,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G106,Produtos!A:B,2,FALSE)</f>
         <v>BEATS TROPICAL LN 269ML SIX-PACK SH C/4</v>
       </c>
       <c r="I106" s="3" t="s">
@@ -4787,7 +4785,7 @@
         <v>9068</v>
       </c>
       <c r="H107" s="2" t="str">
-        <f>VLOOKUP(G107,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G107,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -4815,7 +4813,7 @@
         <v>9320</v>
       </c>
       <c r="H108" s="2" t="str">
-        <f>VLOOKUP(G108,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G108,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I108" s="3" t="s">
@@ -4843,7 +4841,7 @@
         <v>17725</v>
       </c>
       <c r="H109" s="2" t="str">
-        <f>VLOOKUP(G109,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G109,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I109" s="3" t="s">
@@ -4871,7 +4869,7 @@
         <v>9081</v>
       </c>
       <c r="H110" s="2" t="str">
-        <f>VLOOKUP(G110,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G110,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I110" s="3" t="s">
@@ -4899,7 +4897,7 @@
         <v>17808</v>
       </c>
       <c r="H111" s="2" t="str">
-        <f>VLOOKUP(G111,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G111,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I111" s="3" t="s">
@@ -4927,7 +4925,7 @@
         <v>19225</v>
       </c>
       <c r="H112" s="2" t="str">
-        <f>VLOOKUP(G112,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G112,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I112" s="3" t="s">
@@ -4955,7 +4953,7 @@
         <v>21119</v>
       </c>
       <c r="H113" s="2" t="str">
-        <f>VLOOKUP(G113,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G113,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS GT LT 269ML CX CAR C/8</v>
       </c>
       <c r="I113" s="3" t="s">
@@ -4983,7 +4981,7 @@
         <v>9276</v>
       </c>
       <c r="H114" s="2" t="str">
-        <f>VLOOKUP(G114,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G114,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO PET 2L CX C/6</v>
       </c>
       <c r="I114" s="3" t="s">
@@ -5011,7 +5009,7 @@
         <v>9091</v>
       </c>
       <c r="H115" s="2" t="str">
-        <f>VLOOKUP(G115,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G115,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I115" s="3" t="s">
@@ -5039,7 +5037,7 @@
         <v>9084</v>
       </c>
       <c r="H116" s="2" t="str">
-        <f>VLOOKUP(G116,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G116,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I116" s="3" t="s">
@@ -5067,7 +5065,7 @@
         <v>19225</v>
       </c>
       <c r="H117" s="2" t="str">
-        <f>VLOOKUP(G117,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G117,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I117" s="3" t="s">
@@ -5095,7 +5093,7 @@
         <v>17725</v>
       </c>
       <c r="H118" s="2" t="str">
-        <f>VLOOKUP(G118,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G118,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I118" s="3" t="s">
@@ -5121,7 +5119,7 @@
       <c r="F119" s="3"/>
       <c r="G119" s="3"/>
       <c r="H119" s="3" t="e">
-        <f>VLOOKUP(G119,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G119,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I119" s="3"/>
@@ -5147,7 +5145,7 @@
         <v>9068</v>
       </c>
       <c r="H120" s="2" t="str">
-        <f>VLOOKUP(G120,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G120,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I120" s="3" t="s">
@@ -5175,7 +5173,7 @@
         <v>6903</v>
       </c>
       <c r="H121" s="2" t="str">
-        <f>VLOOKUP(G121,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G121,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA S/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I121" s="3" t="s">
@@ -5203,7 +5201,7 @@
         <v>9089</v>
       </c>
       <c r="H122" s="2" t="str">
-        <f>VLOOKUP(G122,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G122,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I122" s="3" t="s">
@@ -5231,7 +5229,7 @@
         <v>1898</v>
       </c>
       <c r="H123" s="2" t="str">
-        <f>VLOOKUP(G123,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G123,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I123" s="3" t="s">
@@ -5259,7 +5257,7 @@
         <v>17797</v>
       </c>
       <c r="H124" s="2" t="str">
-        <f>VLOOKUP(G124,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G124,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I124" s="3" t="s">
@@ -5287,7 +5285,7 @@
         <v>9084</v>
       </c>
       <c r="H125" s="2" t="str">
-        <f>VLOOKUP(G125,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G125,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I125" s="3" t="s">
@@ -5315,7 +5313,7 @@
         <v>9274</v>
       </c>
       <c r="H126" s="2" t="str">
-        <f>VLOOKUP(G126,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G126,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I126" s="3" t="s">
@@ -5343,7 +5341,7 @@
         <v>9085</v>
       </c>
       <c r="H127" s="2" t="str">
-        <f>VLOOKUP(G127,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G127,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I127" s="3" t="s">
@@ -5371,7 +5369,7 @@
         <v>12948</v>
       </c>
       <c r="H128" s="2" t="str">
-        <f>VLOOKUP(G128,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G128,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I128" s="3" t="s">
@@ -5399,7 +5397,7 @@
         <v>2008</v>
       </c>
       <c r="H129" s="2" t="str">
-        <f>VLOOKUP(G129,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G129,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA SUBZERO LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I129" s="3" t="s">
@@ -5427,7 +5425,7 @@
         <v>9092</v>
       </c>
       <c r="H130" s="2" t="str">
-        <f>VLOOKUP(G130,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G130,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I130" s="3" t="s">
@@ -5455,7 +5453,7 @@
         <v>1898</v>
       </c>
       <c r="H131" s="2" t="str">
-        <f>VLOOKUP(G131,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G131,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I131" s="3" t="s">
@@ -5483,7 +5481,7 @@
         <v>9081</v>
       </c>
       <c r="H132" s="2" t="str">
-        <f>VLOOKUP(G132,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G132,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I132" s="3" t="s">
@@ -5511,7 +5509,7 @@
         <v>6905</v>
       </c>
       <c r="H133" s="2" t="str">
-        <f>VLOOKUP(G133,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G133,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA C/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I133" s="3" t="s">
@@ -5539,7 +5537,7 @@
         <v>2132</v>
       </c>
       <c r="H134" s="2" t="str">
-        <f>VLOOKUP(G134,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G134,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET1L CX C/6 NRIO</v>
       </c>
       <c r="I134" s="3" t="s">
@@ -5567,7 +5565,7 @@
         <v>6905</v>
       </c>
       <c r="H135" s="2" t="str">
-        <f>VLOOKUP(G135,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G135,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA C/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I135" s="3" t="s">
@@ -5593,7 +5591,7 @@
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
       <c r="H136" s="3" t="e">
-        <f>VLOOKUP(G136,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G136,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I136" s="3"/>
@@ -5619,7 +5617,7 @@
         <v>8411</v>
       </c>
       <c r="H137" s="2" t="str">
-        <f>VLOOKUP(G137,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G137,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 1,5L SH C/6</v>
       </c>
       <c r="I137" s="3" t="s">
@@ -5647,7 +5645,7 @@
         <v>20498</v>
       </c>
       <c r="H138" s="2" t="str">
-        <f>VLOOKUP(G138,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G138,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I138" s="3" t="s">
@@ -5675,7 +5673,7 @@
         <v>17797</v>
       </c>
       <c r="H139" s="2" t="str">
-        <f>VLOOKUP(G139,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G139,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I139" s="3" t="s">
@@ -5703,7 +5701,7 @@
         <v>36</v>
       </c>
       <c r="H140" s="3" t="e">
-        <f>VLOOKUP(G140,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G140,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I140" s="3" t="s">
@@ -5731,7 +5729,7 @@
         <v>9096</v>
       </c>
       <c r="H141" s="2" t="str">
-        <f>VLOOKUP(G141,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G141,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I141" s="3" t="s">
@@ -5759,7 +5757,7 @@
         <v>14135</v>
       </c>
       <c r="H142" s="2" t="str">
-        <f>VLOOKUP(G142,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G142,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I142" s="3" t="s">
@@ -5787,7 +5785,7 @@
         <v>9083</v>
       </c>
       <c r="H143" s="2" t="str">
-        <f>VLOOKUP(G143,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G143,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I143" s="3" t="s">
@@ -5815,7 +5813,7 @@
         <v>21020</v>
       </c>
       <c r="H144" s="2" t="str">
-        <f>VLOOKUP(G144,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G144,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I144" s="3" t="s">
@@ -5843,7 +5841,7 @@
         <v>9067</v>
       </c>
       <c r="H145" s="2" t="str">
-        <f>VLOOKUP(G145,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G145,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I145" s="3" t="s">
@@ -5871,7 +5869,7 @@
         <v>9068</v>
       </c>
       <c r="H146" s="2" t="str">
-        <f>VLOOKUP(G146,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G146,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I146" s="3" t="s">
@@ -5899,7 +5897,7 @@
         <v>17797</v>
       </c>
       <c r="H147" s="2" t="str">
-        <f>VLOOKUP(G147,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G147,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I147" s="3" t="s">
@@ -5927,7 +5925,7 @@
         <v>20651</v>
       </c>
       <c r="H148" s="2" t="str">
-        <f>VLOOKUP(G148,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G148,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I148" s="3" t="s">
@@ -5955,7 +5953,7 @@
         <v>9084</v>
       </c>
       <c r="H149" s="2" t="str">
-        <f>VLOOKUP(G149,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G149,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I149" s="3" t="s">
@@ -5983,7 +5981,7 @@
         <v>9084</v>
       </c>
       <c r="H150" s="2" t="str">
-        <f>VLOOKUP(G150,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G150,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I150" s="3" t="s">
@@ -6011,7 +6009,7 @@
         <v>9084</v>
       </c>
       <c r="H151" s="2" t="str">
-        <f>VLOOKUP(G151,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G151,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I151" s="3" t="s">
@@ -6039,7 +6037,7 @@
         <v>9084</v>
       </c>
       <c r="H152" s="2" t="str">
-        <f>VLOOKUP(G152,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G152,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I152" s="3" t="s">
@@ -6067,7 +6065,7 @@
         <v>18807</v>
       </c>
       <c r="H153" s="2" t="str">
-        <f>VLOOKUP(G153,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G153,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I153" s="3" t="s">
@@ -6095,7 +6093,7 @@
         <v>9096</v>
       </c>
       <c r="H154" s="2" t="str">
-        <f>VLOOKUP(G154,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G154,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I154" s="3" t="s">
@@ -6123,7 +6121,7 @@
         <v>17797</v>
       </c>
       <c r="H155" s="2" t="str">
-        <f>VLOOKUP(G155,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G155,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I155" s="3" t="s">
@@ -6151,7 +6149,7 @@
         <v>6905</v>
       </c>
       <c r="H156" s="2" t="str">
-        <f>VLOOKUP(G156,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G156,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA C/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I156" s="3" t="s">
@@ -6179,7 +6177,7 @@
         <v>21020</v>
       </c>
       <c r="H157" s="2" t="str">
-        <f>VLOOKUP(G157,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G157,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I157" s="3" t="s">
@@ -6207,7 +6205,7 @@
         <v>9068</v>
       </c>
       <c r="H158" s="2" t="str">
-        <f>VLOOKUP(G158,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G158,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I158" s="3" t="s">
@@ -6235,7 +6233,7 @@
         <v>9068</v>
       </c>
       <c r="H159" s="2" t="str">
-        <f>VLOOKUP(G159,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G159,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I159" s="3" t="s">
@@ -6263,7 +6261,7 @@
         <v>9085</v>
       </c>
       <c r="H160" s="2" t="str">
-        <f>VLOOKUP(G160,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G160,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I160" s="3" t="s">
@@ -6289,7 +6287,7 @@
       <c r="F161" s="3"/>
       <c r="G161" s="3"/>
       <c r="H161" s="3" t="e">
-        <f>VLOOKUP(G161,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G161,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I161" s="3"/>
@@ -6313,7 +6311,7 @@
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
       <c r="H162" s="3" t="e">
-        <f>VLOOKUP(G162,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G162,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I162" s="3" t="s">
@@ -6339,7 +6337,7 @@
       <c r="F163" s="3"/>
       <c r="G163" s="3"/>
       <c r="H163" s="3" t="e">
-        <f>VLOOKUP(G163,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G163,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I163" s="3" t="s">
@@ -6367,7 +6365,7 @@
         <v>9091</v>
       </c>
       <c r="H164" s="2" t="str">
-        <f>VLOOKUP(G164,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G164,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I164" s="3" t="s">
@@ -6393,7 +6391,7 @@
       <c r="F165" s="3"/>
       <c r="G165" s="3"/>
       <c r="H165" s="3" t="e">
-        <f>VLOOKUP(G165,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G165,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I165" s="3" t="s">
@@ -6421,7 +6419,7 @@
         <v>9068</v>
       </c>
       <c r="H166" s="2" t="str">
-        <f>VLOOKUP(G166,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G166,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I166" s="3" t="s">
@@ -6449,7 +6447,7 @@
         <v>9067</v>
       </c>
       <c r="H167" s="2" t="str">
-        <f>VLOOKUP(G167,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G167,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I167" s="3" t="s">
@@ -6477,7 +6475,7 @@
         <v>9085</v>
       </c>
       <c r="H168" s="2" t="str">
-        <f>VLOOKUP(G168,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G168,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I168" s="3" t="s">
@@ -6505,7 +6503,7 @@
         <v>9096</v>
       </c>
       <c r="H169" s="2" t="str">
-        <f>VLOOKUP(G169,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G169,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I169" s="3" t="s">
@@ -6533,7 +6531,7 @@
         <v>14135</v>
       </c>
       <c r="H170" s="2" t="str">
-        <f>VLOOKUP(G170,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G170,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I170" s="3" t="s">
@@ -6561,7 +6559,7 @@
         <v>28137</v>
       </c>
       <c r="H171" s="2" t="str">
-        <f>VLOOKUP(G171,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G171,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BT CAIPIRINHA LT 269ML CX CA C/8 NP</v>
       </c>
       <c r="I171" s="3" t="s">
@@ -6587,7 +6585,7 @@
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
       <c r="H172" s="3" t="e">
-        <f>VLOOKUP(G172,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G172,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I172" s="3" t="s">
@@ -6615,7 +6613,7 @@
         <v>9069</v>
       </c>
       <c r="H173" s="2" t="str">
-        <f>VLOOKUP(G173,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G173,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I173" s="3" t="s">
@@ -6643,7 +6641,7 @@
         <v>9067</v>
       </c>
       <c r="H174" s="2" t="str">
-        <f>VLOOKUP(G174,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G174,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I174" s="3" t="s">
@@ -6671,7 +6669,7 @@
         <v>9092</v>
       </c>
       <c r="H175" s="2" t="str">
-        <f>VLOOKUP(G175,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G175,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I175" s="3" t="s">
@@ -6699,7 +6697,7 @@
         <v>1164</v>
       </c>
       <c r="H176" s="2" t="str">
-        <f>VLOOKUP(G176,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G176,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I176" s="3" t="s">
@@ -6727,7 +6725,7 @@
         <v>9085</v>
       </c>
       <c r="H177" s="2" t="str">
-        <f>VLOOKUP(G177,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G177,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I177" s="3" t="s">
@@ -6755,7 +6753,7 @@
         <v>17797</v>
       </c>
       <c r="H178" s="2" t="str">
-        <f>VLOOKUP(G178,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G178,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I178" s="3" t="s">
@@ -6783,7 +6781,7 @@
         <v>21119</v>
       </c>
       <c r="H179" s="2" t="str">
-        <f>VLOOKUP(G179,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G179,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS GT LT 269ML CX CAR C/8</v>
       </c>
       <c r="I179" s="3" t="s">
@@ -6811,7 +6809,7 @@
         <v>9067</v>
       </c>
       <c r="H180" s="2" t="str">
-        <f>VLOOKUP(G180,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G180,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I180" s="3" t="s">
@@ -6839,7 +6837,7 @@
         <v>12948</v>
       </c>
       <c r="H181" s="2" t="str">
-        <f>VLOOKUP(G181,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G181,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I181" s="3" t="s">
@@ -6867,7 +6865,7 @@
         <v>13061</v>
       </c>
       <c r="H182" s="2" t="str">
-        <f>VLOOKUP(G182,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G182,Produtos!A:B,2,FALSE)</f>
         <v>H2OH LIMONETO PET500 SH C/12 NP</v>
       </c>
       <c r="I182" s="3" t="s">
@@ -6895,7 +6893,7 @@
         <v>21020</v>
       </c>
       <c r="H183" s="2" t="str">
-        <f>VLOOKUP(G183,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G183,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I183" s="3" t="s">
@@ -6923,7 +6921,7 @@
         <v>9069</v>
       </c>
       <c r="H184" s="2" t="str">
-        <f>VLOOKUP(G184,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G184,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I184" s="3" t="s">
@@ -6951,7 +6949,7 @@
         <v>1898</v>
       </c>
       <c r="H185" s="2" t="str">
-        <f>VLOOKUP(G185,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G185,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I185" s="3" t="s">
@@ -6979,7 +6977,7 @@
         <v>9083</v>
       </c>
       <c r="H186" s="2" t="str">
-        <f>VLOOKUP(G186,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G186,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I186" s="3" t="s">
@@ -7007,7 +7005,7 @@
         <v>9067</v>
       </c>
       <c r="H187" s="2" t="str">
-        <f>VLOOKUP(G187,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G187,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I187" s="3" t="s">
@@ -7035,7 +7033,7 @@
         <v>9069</v>
       </c>
       <c r="H188" s="2" t="str">
-        <f>VLOOKUP(G188,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G188,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I188" s="3" t="s">
@@ -7063,7 +7061,7 @@
         <v>6905</v>
       </c>
       <c r="H189" s="2" t="str">
-        <f>VLOOKUP(G189,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G189,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA C/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I189" s="3" t="s">
@@ -7091,7 +7089,7 @@
         <v>9091</v>
       </c>
       <c r="H190" s="2" t="str">
-        <f>VLOOKUP(G190,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G190,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I190" s="3" t="s">
@@ -7119,7 +7117,7 @@
         <v>17797</v>
       </c>
       <c r="H191" s="2" t="str">
-        <f>VLOOKUP(G191,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G191,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I191" s="3" t="s">
@@ -7147,7 +7145,7 @@
         <v>504</v>
       </c>
       <c r="H192" s="2" t="str">
-        <f>VLOOKUP(G192,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G192,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 2L CAIXA C/6</v>
       </c>
       <c r="I192" s="3" t="s">
@@ -7173,7 +7171,7 @@
       <c r="F193" s="3"/>
       <c r="G193" s="3"/>
       <c r="H193" s="3" t="e">
-        <f>VLOOKUP(G193,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G193,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I193" s="3" t="s">
@@ -7201,7 +7199,7 @@
         <v>9093</v>
       </c>
       <c r="H194" s="2" t="str">
-        <f>VLOOKUP(G194,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G194,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I194" s="3" t="s">
@@ -7229,7 +7227,7 @@
         <v>9071</v>
       </c>
       <c r="H195" s="2" t="str">
-        <f>VLOOKUP(G195,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G195,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I195" s="3" t="s">
@@ -7257,7 +7255,7 @@
         <v>32969</v>
       </c>
       <c r="H196" s="2" t="str">
-        <f>VLOOKUP(G196,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G196,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL S MOR E PESSEGO LT 250ML FOUR P</v>
       </c>
       <c r="I196" s="3" t="s">
@@ -7285,7 +7283,7 @@
         <v>9069</v>
       </c>
       <c r="H197" s="2" t="str">
-        <f>VLOOKUP(G197,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G197,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I197" s="3" t="s">
@@ -7313,7 +7311,7 @@
         <v>9067</v>
       </c>
       <c r="H198" s="2" t="str">
-        <f>VLOOKUP(G198,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G198,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I198" s="3" t="s">
@@ -7341,7 +7339,7 @@
         <v>9091</v>
       </c>
       <c r="H199" s="2" t="str">
-        <f>VLOOKUP(G199,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G199,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I199" s="3" t="s">
@@ -7369,7 +7367,7 @@
         <v>33818</v>
       </c>
       <c r="H200" s="2" t="str">
-        <f>VLOOKUP(G200,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G200,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I200" s="3" t="s">
@@ -7397,7 +7395,7 @@
         <v>19225</v>
       </c>
       <c r="H201" s="2" t="str">
-        <f>VLOOKUP(G201,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G201,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I201" s="3" t="s">
@@ -7425,7 +7423,7 @@
         <v>33734</v>
       </c>
       <c r="H202" s="2" t="str">
-        <f>VLOOKUP(G202,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G202,Produtos!A:B,2,FALSE)</f>
         <v>BEATS RED MIX LT 269ML SH C/8</v>
       </c>
       <c r="I202" s="3" t="s">
@@ -7451,7 +7449,7 @@
       <c r="F203" s="3"/>
       <c r="G203" s="3"/>
       <c r="H203" s="3" t="e">
-        <f>VLOOKUP(G203,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G203,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I203" s="3"/>
@@ -7475,7 +7473,7 @@
       <c r="F204" s="3"/>
       <c r="G204" s="3"/>
       <c r="H204" s="3" t="e">
-        <f>VLOOKUP(G204,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G204,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I204" s="3" t="s">
@@ -7501,7 +7499,7 @@
       <c r="F205" s="3"/>
       <c r="G205" s="3"/>
       <c r="H205" s="3" t="e">
-        <f>VLOOKUP(G205,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G205,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I205" s="3" t="s">
@@ -7527,7 +7525,7 @@
       <c r="F206" s="3"/>
       <c r="G206" s="3"/>
       <c r="H206" s="3" t="e">
-        <f>VLOOKUP(G206,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G206,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I206" s="3" t="s">
@@ -7553,7 +7551,7 @@
       <c r="F207" s="3"/>
       <c r="G207" s="3"/>
       <c r="H207" s="3" t="e">
-        <f>VLOOKUP(G207,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G207,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I207" s="3" t="s">
@@ -7581,7 +7579,7 @@
         <v>7983</v>
       </c>
       <c r="H208" s="2" t="str">
-        <f>VLOOKUP(G208,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G208,Produtos!A:B,2,FALSE)</f>
         <v>GATORADE MORANGO MARACUJA PET500ML SIXPA</v>
       </c>
       <c r="I208" s="3" t="s">
@@ -7609,7 +7607,7 @@
         <v>9320</v>
       </c>
       <c r="H209" s="2" t="str">
-        <f>VLOOKUP(G209,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G209,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I209" s="3" t="s">
@@ -7637,7 +7635,7 @@
         <v>31272</v>
       </c>
       <c r="H210" s="2" t="str">
-        <f>VLOOKUP(G210,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G210,Produtos!A:B,2,FALSE)</f>
         <v>FUSION LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I210" s="3" t="s">
@@ -7665,7 +7663,7 @@
         <v>9096</v>
       </c>
       <c r="H211" s="2" t="str">
-        <f>VLOOKUP(G211,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G211,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I211" s="3" t="s">
@@ -7693,7 +7691,7 @@
         <v>9091</v>
       </c>
       <c r="H212" s="2" t="str">
-        <f>VLOOKUP(G212,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G212,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I212" s="3" t="s">
@@ -7721,7 +7719,7 @@
         <v>21441</v>
       </c>
       <c r="H213" s="2" t="str">
-        <f>VLOOKUP(G213,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G213,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LIMAO PET 2L CAIXA C/6</v>
       </c>
       <c r="I213" s="3" t="s">
@@ -7749,7 +7747,7 @@
         <v>20498</v>
       </c>
       <c r="H214" s="2" t="str">
-        <f>VLOOKUP(G214,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G214,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I214" s="3" t="s">
@@ -7777,7 +7775,7 @@
         <v>1898</v>
       </c>
       <c r="H215" s="2" t="str">
-        <f>VLOOKUP(G215,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G215,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I215" s="3" t="s">
@@ -7805,7 +7803,7 @@
         <v>9068</v>
       </c>
       <c r="H216" s="2" t="str">
-        <f>VLOOKUP(G216,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G216,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I216" s="3" t="s">
@@ -7833,7 +7831,7 @@
         <v>32969</v>
       </c>
       <c r="H217" s="3" t="str">
-        <f>VLOOKUP(G217,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G217,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL S MOR E PESSEGO LT 250ML FOUR P</v>
       </c>
       <c r="I217" s="3" t="s">
@@ -7861,7 +7859,7 @@
         <v>19231</v>
       </c>
       <c r="H218" s="2" t="str">
-        <f>VLOOKUP(G218,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G218,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL SUGAR FREE LATA 250ML FOUR PACK</v>
       </c>
       <c r="I218" s="3" t="s">
@@ -7889,7 +7887,7 @@
         <v>503</v>
       </c>
       <c r="H219" s="2" t="str">
-        <f>VLOOKUP(G219,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G219,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA PET 2L CAIXA C/6</v>
       </c>
       <c r="I219" s="3" t="s">
@@ -7917,7 +7915,7 @@
         <v>26462</v>
       </c>
       <c r="H220" s="2" t="str">
-        <f>VLOOKUP(G220,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G220,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 473ML CX CARTAO C/12</v>
       </c>
       <c r="I220" s="3" t="s">
@@ -7945,7 +7943,7 @@
         <v>9067</v>
       </c>
       <c r="H221" s="2" t="str">
-        <f>VLOOKUP(G221,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G221,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I221" s="3" t="s">
@@ -7973,7 +7971,7 @@
         <v>9071</v>
       </c>
       <c r="H222" s="2" t="str">
-        <f>VLOOKUP(G222,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G222,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I222" s="3" t="s">
@@ -8001,7 +7999,7 @@
         <v>23216</v>
       </c>
       <c r="H223" s="2" t="str">
-        <f>VLOOKUP(G223,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G223,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA IPA LATA 473ML 6PACK CARTAO</v>
       </c>
       <c r="I223" s="3" t="s">
@@ -8029,7 +8027,7 @@
         <v>17797</v>
       </c>
       <c r="H224" s="2" t="str">
-        <f>VLOOKUP(G224,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G224,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I224" s="3" t="s">
@@ -8057,7 +8055,7 @@
         <v>8411</v>
       </c>
       <c r="H225" s="2" t="str">
-        <f>VLOOKUP(G225,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G225,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 1,5L SH C/6</v>
       </c>
       <c r="I225" s="3" t="s">
@@ -8085,7 +8083,7 @@
         <v>9071</v>
       </c>
       <c r="H226" s="2" t="str">
-        <f>VLOOKUP(G226,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G226,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I226" s="3" t="s">
@@ -8113,7 +8111,7 @@
         <v>4409</v>
       </c>
       <c r="H227" s="2" t="str">
-        <f>VLOOKUP(G227,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G227,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST PET 2L SHRINK C/6</v>
       </c>
       <c r="I227" s="3" t="s">
@@ -8141,7 +8139,7 @@
         <v>4293</v>
       </c>
       <c r="H228" s="2" t="str">
-        <f>VLOOKUP(G228,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G228,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI BLACK PET 200ML SH C/12</v>
       </c>
       <c r="I228" s="3" t="s">
@@ -8169,7 +8167,7 @@
         <v>9320</v>
       </c>
       <c r="H229" s="2" t="str">
-        <f>VLOOKUP(G229,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G229,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I229" s="3" t="s">
@@ -8195,7 +8193,7 @@
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
       <c r="H230" s="3" t="e">
-        <f>VLOOKUP(G230,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G230,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I230" s="3" t="s">
@@ -8223,7 +8221,7 @@
         <v>9085</v>
       </c>
       <c r="H231" s="2" t="str">
-        <f>VLOOKUP(G231,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G231,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I231" s="3" t="s">
@@ -8251,7 +8249,7 @@
         <v>2349</v>
       </c>
       <c r="H232" s="2" t="str">
-        <f>VLOOKUP(G232,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G232,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I232" s="3" t="s">
@@ -8279,7 +8277,7 @@
         <v>32969</v>
       </c>
       <c r="H233" s="2" t="str">
-        <f>VLOOKUP(G233,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G233,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL S MOR E PESSEGO LT 250ML FOUR P</v>
       </c>
       <c r="I233" s="3" t="s">
@@ -8307,7 +8305,7 @@
         <v>21020</v>
       </c>
       <c r="H234" s="2" t="str">
-        <f>VLOOKUP(G234,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G234,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I234" s="3" t="s">
@@ -8335,7 +8333,7 @@
         <v>9085</v>
       </c>
       <c r="H235" s="2" t="str">
-        <f>VLOOKUP(G235,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G235,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I235" s="3" t="s">
@@ -8363,7 +8361,7 @@
         <v>9091</v>
       </c>
       <c r="H236" s="2" t="str">
-        <f>VLOOKUP(G236,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G236,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I236" s="3" t="s">
@@ -8391,7 +8389,7 @@
         <v>9274</v>
       </c>
       <c r="H237" s="2" t="str">
-        <f>VLOOKUP(G237,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G237,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I237" s="3" t="s">
@@ -8419,7 +8417,7 @@
         <v>33818</v>
       </c>
       <c r="H238" s="2" t="str">
-        <f>VLOOKUP(G238,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G238,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I238" s="3" t="s">
@@ -8447,7 +8445,7 @@
         <v>32969</v>
       </c>
       <c r="H239" s="2" t="str">
-        <f>VLOOKUP(G239,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G239,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL S MOR E PESSEGO LT 250ML FOUR P</v>
       </c>
       <c r="I239" s="3" t="s">
@@ -8473,7 +8471,7 @@
       <c r="F240" s="3"/>
       <c r="G240" s="3"/>
       <c r="H240" s="3" t="e">
-        <f>VLOOKUP(G240,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G240,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I240" s="3" t="s">
@@ -8501,7 +8499,7 @@
         <v>9067</v>
       </c>
       <c r="H241" s="2" t="str">
-        <f>VLOOKUP(G241,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G241,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I241" s="3" t="s">
@@ -8529,7 +8527,7 @@
         <v>18807</v>
       </c>
       <c r="H242" s="2" t="str">
-        <f>VLOOKUP(G242,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G242,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I242" s="3" t="s">
@@ -8557,7 +8555,7 @@
         <v>9320</v>
       </c>
       <c r="H243" s="2" t="str">
-        <f>VLOOKUP(G243,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G243,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I243" s="3" t="s">
@@ -8585,7 +8583,7 @@
         <v>9068</v>
       </c>
       <c r="H244" s="2" t="str">
-        <f>VLOOKUP(G244,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G244,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I244" s="3" t="s">
@@ -8613,7 +8611,7 @@
         <v>19310</v>
       </c>
       <c r="H245" s="2" t="str">
-        <f>VLOOKUP(G245,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G245,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I245" s="3" t="s">
@@ -8641,7 +8639,7 @@
         <v>9084</v>
       </c>
       <c r="H246" s="2" t="str">
-        <f>VLOOKUP(G246,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G246,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I246" s="3" t="s">
@@ -8669,7 +8667,7 @@
         <v>9274</v>
       </c>
       <c r="H247" s="2" t="str">
-        <f>VLOOKUP(G247,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G247,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I247" s="3" t="s">
@@ -8697,7 +8695,7 @@
         <v>9274</v>
       </c>
       <c r="H248" s="2" t="str">
-        <f>VLOOKUP(G248,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G248,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I248" s="3" t="s">
@@ -8725,7 +8723,7 @@
         <v>17725</v>
       </c>
       <c r="H249" s="2" t="str">
-        <f>VLOOKUP(G249,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G249,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I249" s="3" t="s">
@@ -8753,7 +8751,7 @@
         <v>20498</v>
       </c>
       <c r="H250" s="2" t="str">
-        <f>VLOOKUP(G250,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G250,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I250" s="3" t="s">
@@ -8781,7 +8779,7 @@
         <v>18490</v>
       </c>
       <c r="H251" s="2" t="str">
-        <f>VLOOKUP(G251,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G251,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I251" s="3" t="s">
@@ -8809,7 +8807,7 @@
         <v>9091</v>
       </c>
       <c r="H252" s="2" t="str">
-        <f>VLOOKUP(G252,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G252,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I252" s="3" t="s">
@@ -8837,7 +8835,7 @@
         <v>9096</v>
       </c>
       <c r="H253" s="2" t="str">
-        <f>VLOOKUP(G253,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G253,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I253" s="3" t="s">
@@ -8865,7 +8863,7 @@
         <v>9320</v>
       </c>
       <c r="H254" s="2" t="str">
-        <f>VLOOKUP(G254,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G254,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I254" s="3" t="s">
@@ -8893,7 +8891,7 @@
         <v>12948</v>
       </c>
       <c r="H255" s="2" t="str">
-        <f>VLOOKUP(G255,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G255,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I255" s="3" t="s">
@@ -8919,7 +8917,7 @@
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="H256" s="3" t="e">
-        <f>VLOOKUP(G256,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G256,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I256" s="3"/>
@@ -8945,7 +8943,7 @@
         <v>22177</v>
       </c>
       <c r="H257" s="2" t="str">
-        <f>VLOOKUP(G257,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G257,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I257" s="3" t="s">
@@ -8973,7 +8971,7 @@
         <v>9092</v>
       </c>
       <c r="H258" s="2" t="str">
-        <f>VLOOKUP(G258,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G258,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I258" s="3" t="s">
@@ -9001,7 +8999,7 @@
         <v>19310</v>
       </c>
       <c r="H259" s="2" t="str">
-        <f>VLOOKUP(G259,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G259,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I259" s="3" t="s">
@@ -9029,7 +9027,7 @@
         <v>9274</v>
       </c>
       <c r="H260" s="2" t="str">
-        <f>VLOOKUP(G260,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G260,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I260" s="3" t="s">
@@ -9057,7 +9055,7 @@
         <v>18764</v>
       </c>
       <c r="H261" s="2" t="str">
-        <f>VLOOKUP(G261,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G261,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA BOH PIL NAC LATA 473ML 6 PACK</v>
       </c>
       <c r="I261" s="3" t="s">
@@ -9085,7 +9083,7 @@
         <v>9067</v>
       </c>
       <c r="H262" s="2" t="str">
-        <f>VLOOKUP(G262,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G262,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I262" s="3" t="s">
@@ -9113,7 +9111,7 @@
         <v>17797</v>
       </c>
       <c r="H263" s="2" t="str">
-        <f>VLOOKUP(G263,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G263,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I263" s="3" t="s">
@@ -9141,7 +9139,7 @@
         <v>9068</v>
       </c>
       <c r="H264" s="2" t="str">
-        <f>VLOOKUP(G264,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G264,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I264" s="3" t="s">
@@ -9169,7 +9167,7 @@
         <v>9081</v>
       </c>
       <c r="H265" s="2" t="str">
-        <f>VLOOKUP(G265,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G265,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I265" s="3" t="s">
@@ -9195,7 +9193,7 @@
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="H266" s="3" t="e">
-        <f>VLOOKUP(G266,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G266,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I266" s="3" t="s">
@@ -9221,7 +9219,7 @@
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="H267" s="3" t="e">
-        <f>VLOOKUP(G267,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G267,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I267" s="3"/>
@@ -9247,7 +9245,7 @@
         <v>9084</v>
       </c>
       <c r="H268" s="2" t="str">
-        <f>VLOOKUP(G268,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G268,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I268" s="3" t="s">
@@ -9275,7 +9273,7 @@
         <v>9084</v>
       </c>
       <c r="H269" s="2" t="str">
-        <f>VLOOKUP(G269,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G269,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I269" s="3" t="s">
@@ -9303,7 +9301,7 @@
         <v>33818</v>
       </c>
       <c r="H270" s="2" t="str">
-        <f>VLOOKUP(G270,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G270,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I270" s="3" t="s">
@@ -9331,7 +9329,7 @@
         <v>17725</v>
       </c>
       <c r="H271" s="2" t="str">
-        <f>VLOOKUP(G271,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G271,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I271" s="3" t="s">
@@ -9359,7 +9357,7 @@
         <v>9081</v>
       </c>
       <c r="H272" s="2" t="str">
-        <f>VLOOKUP(G272,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G272,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I272" s="3" t="s">
@@ -9387,7 +9385,7 @@
         <v>9084</v>
       </c>
       <c r="H273" s="2" t="str">
-        <f>VLOOKUP(G273,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G273,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I273" s="3" t="s">
@@ -9415,7 +9413,7 @@
         <v>17797</v>
       </c>
       <c r="H274" s="2" t="str">
-        <f>VLOOKUP(G274,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G274,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I274" s="3" t="s">
@@ -9443,7 +9441,7 @@
         <v>9068</v>
       </c>
       <c r="H275" s="2" t="str">
-        <f>VLOOKUP(G275,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G275,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I275" s="3" t="s">
@@ -9471,7 +9469,7 @@
         <v>9092</v>
       </c>
       <c r="H276" s="2" t="str">
-        <f>VLOOKUP(G276,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G276,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I276" s="3" t="s">
@@ -9499,7 +9497,7 @@
         <v>33818</v>
       </c>
       <c r="H277" s="2" t="str">
-        <f>VLOOKUP(G277,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G277,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I277" s="3" t="s">
@@ -9527,7 +9525,7 @@
         <v>9081</v>
       </c>
       <c r="H278" s="2" t="str">
-        <f>VLOOKUP(G278,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G278,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I278" s="3" t="s">
@@ -9555,7 +9553,7 @@
         <v>9096</v>
       </c>
       <c r="H279" s="2" t="str">
-        <f>VLOOKUP(G279,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G279,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I279" s="3" t="s">
@@ -9583,7 +9581,7 @@
         <v>9084</v>
       </c>
       <c r="H280" s="2" t="str">
-        <f>VLOOKUP(G280,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G280,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I280" s="3" t="s">
@@ -9611,7 +9609,7 @@
         <v>9320</v>
       </c>
       <c r="H281" s="2" t="str">
-        <f>VLOOKUP(G281,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G281,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I281" s="3" t="s">
@@ -9639,7 +9637,7 @@
         <v>12948</v>
       </c>
       <c r="H282" s="2" t="str">
-        <f>VLOOKUP(G282,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G282,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I282" s="3" t="s">
@@ -9667,7 +9665,7 @@
         <v>12948</v>
       </c>
       <c r="H283" s="2" t="str">
-        <f>VLOOKUP(G283,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G283,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I283" s="3" t="s">
@@ -9695,7 +9693,7 @@
         <v>9274</v>
       </c>
       <c r="H284" s="2" t="str">
-        <f>VLOOKUP(G284,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G284,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I284" s="3" t="s">
@@ -9723,7 +9721,7 @@
         <v>9069</v>
       </c>
       <c r="H285" s="2" t="str">
-        <f>VLOOKUP(G285,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G285,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I285" s="3" t="s">
@@ -9751,7 +9749,7 @@
         <v>9084</v>
       </c>
       <c r="H286" s="2" t="str">
-        <f>VLOOKUP(G286,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G286,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I286" s="3" t="s">
@@ -9779,7 +9777,7 @@
         <v>9083</v>
       </c>
       <c r="H287" s="2" t="str">
-        <f>VLOOKUP(G287,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G287,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I287" s="3" t="s">
@@ -9807,7 +9805,7 @@
         <v>23216</v>
       </c>
       <c r="H288" s="2" t="str">
-        <f>VLOOKUP(G288,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G288,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA IPA LATA 473ML 6PACK CARTAO</v>
       </c>
       <c r="I288" s="3" t="s">
@@ -9835,7 +9833,7 @@
         <v>21658</v>
       </c>
       <c r="H289" s="2" t="str">
-        <f>VLOOKUP(G289,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G289,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I289" s="3" t="s">
@@ -9863,7 +9861,7 @@
         <v>9068</v>
       </c>
       <c r="H290" s="2" t="str">
-        <f>VLOOKUP(G290,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G290,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I290" s="3" t="s">
@@ -9891,7 +9889,7 @@
         <v>9085</v>
       </c>
       <c r="H291" s="2" t="str">
-        <f>VLOOKUP(G291,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G291,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I291" s="3" t="s">
@@ -9919,7 +9917,7 @@
         <v>9084</v>
       </c>
       <c r="H292" s="2" t="str">
-        <f>VLOOKUP(G292,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G292,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I292" s="3" t="s">
@@ -9947,7 +9945,7 @@
         <v>1164</v>
       </c>
       <c r="H293" s="2" t="str">
-        <f>VLOOKUP(G293,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G293,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I293" s="3" t="s">
@@ -9975,7 +9973,7 @@
         <v>9084</v>
       </c>
       <c r="H294" s="2" t="str">
-        <f>VLOOKUP(G294,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G294,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I294" s="3" t="s">
@@ -10003,7 +10001,7 @@
         <v>33818</v>
       </c>
       <c r="H295" s="2" t="str">
-        <f>VLOOKUP(G295,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G295,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I295" s="3" t="s">
@@ -10031,7 +10029,7 @@
         <v>8791</v>
       </c>
       <c r="H296" s="2" t="str">
-        <f>VLOOKUP(G296,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G296,Produtos!A:B,2,FALSE)</f>
         <v>H2OH LIMAO C/GAS PET 500ML CAIXA C/12</v>
       </c>
       <c r="I296" s="3" t="s">
@@ -10059,7 +10057,7 @@
         <v>9085</v>
       </c>
       <c r="H297" s="2" t="str">
-        <f>VLOOKUP(G297,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G297,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I297" s="3" t="s">
@@ -10087,7 +10085,7 @@
         <v>12948</v>
       </c>
       <c r="H298" s="2" t="str">
-        <f>VLOOKUP(G298,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G298,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I298" s="3" t="s">
@@ -10115,7 +10113,7 @@
         <v>9096</v>
       </c>
       <c r="H299" s="2" t="str">
-        <f>VLOOKUP(G299,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G299,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I299" s="3" t="s">
@@ -10141,7 +10139,7 @@
       <c r="F300" s="3"/>
       <c r="G300" s="3"/>
       <c r="H300" s="3" t="e">
-        <f>VLOOKUP(G300,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G300,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I300" s="3" t="s">
@@ -10169,7 +10167,7 @@
         <v>9084</v>
       </c>
       <c r="H301" s="2" t="str">
-        <f>VLOOKUP(G301,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G301,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I301" s="3" t="s">
@@ -10197,7 +10195,7 @@
         <v>9084</v>
       </c>
       <c r="H302" s="2" t="str">
-        <f>VLOOKUP(G302,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G302,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I302" s="3" t="s">
@@ -10225,7 +10223,7 @@
         <v>17808</v>
       </c>
       <c r="H303" s="2" t="str">
-        <f>VLOOKUP(G303,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G303,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I303" s="3" t="s">
@@ -10253,7 +10251,7 @@
         <v>9089</v>
       </c>
       <c r="H304" s="2" t="str">
-        <f>VLOOKUP(G304,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G304,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I304" s="3" t="s">
@@ -10281,7 +10279,7 @@
         <v>14340</v>
       </c>
       <c r="H305" s="2" t="str">
-        <f>VLOOKUP(G305,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G305,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL ONE WAY 300ML CX PAPELAO C/12</v>
       </c>
       <c r="I305" s="3" t="s">
@@ -10309,7 +10307,7 @@
         <v>9084</v>
       </c>
       <c r="H306" s="2" t="str">
-        <f>VLOOKUP(G306,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G306,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I306" s="3" t="s">
@@ -10335,7 +10333,7 @@
       <c r="F307" s="3"/>
       <c r="G307" s="3"/>
       <c r="H307" s="3" t="e">
-        <f>VLOOKUP(G307,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G307,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I307" s="3" t="s">
@@ -10361,7 +10359,7 @@
       <c r="F308" s="3"/>
       <c r="G308" s="3"/>
       <c r="H308" s="3" t="e">
-        <f>VLOOKUP(G308,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G308,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I308" s="3" t="s">
@@ -10387,7 +10385,7 @@
       <c r="F309" s="3"/>
       <c r="G309" s="3"/>
       <c r="H309" s="3" t="e">
-        <f>VLOOKUP(G309,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G309,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I309" s="3" t="s">
@@ -10415,7 +10413,7 @@
         <v>9084</v>
       </c>
       <c r="H310" s="2" t="str">
-        <f>VLOOKUP(G310,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G310,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I310" s="3" t="s">
@@ -10443,7 +10441,7 @@
         <v>9096</v>
       </c>
       <c r="H311" s="2" t="str">
-        <f>VLOOKUP(G311,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G311,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I311" s="3" t="s">
@@ -10471,7 +10469,7 @@
         <v>9096</v>
       </c>
       <c r="H312" s="2" t="str">
-        <f>VLOOKUP(G312,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G312,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I312" s="3" t="s">
@@ -10497,7 +10495,7 @@
       <c r="F313" s="3"/>
       <c r="G313" s="3"/>
       <c r="H313" s="3" t="e">
-        <f>VLOOKUP(G313,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G313,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I313" s="3"/>
@@ -10521,7 +10519,7 @@
       <c r="F314" s="3"/>
       <c r="G314" s="3"/>
       <c r="H314" s="3" t="e">
-        <f>VLOOKUP(G314,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G314,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I314" s="3" t="s">
@@ -10549,7 +10547,7 @@
         <v>9083</v>
       </c>
       <c r="H315" s="2" t="str">
-        <f>VLOOKUP(G315,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G315,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I315" s="3" t="s">
@@ -10577,7 +10575,7 @@
         <v>21666</v>
       </c>
       <c r="H316" s="2" t="str">
-        <f>VLOOKUP(G316,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G316,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL TROP BR LT 250ML FOUR PACK NPAL</v>
       </c>
       <c r="I316" s="3" t="s">
@@ -10603,7 +10601,7 @@
       <c r="F317" s="3"/>
       <c r="G317" s="3"/>
       <c r="H317" s="3" t="e">
-        <f>VLOOKUP(G317,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G317,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I317" s="3"/>
@@ -10629,7 +10627,7 @@
         <v>17797</v>
       </c>
       <c r="H318" s="2" t="str">
-        <f>VLOOKUP(G318,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G318,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I318" s="3" t="s">
@@ -10657,7 +10655,7 @@
         <v>17797</v>
       </c>
       <c r="H319" s="2" t="str">
-        <f>VLOOKUP(G319,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G319,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I319" s="3" t="s">
@@ -10685,7 +10683,7 @@
         <v>9067</v>
       </c>
       <c r="H320" s="2" t="str">
-        <f>VLOOKUP(G320,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G320,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I320" s="3" t="s">
@@ -10713,7 +10711,7 @@
         <v>9072</v>
       </c>
       <c r="H321" s="2" t="str">
-        <f>VLOOKUP(G321,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G321,Produtos!A:B,2,FALSE)</f>
         <v>BOHEMIA NOVA EMBAL LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I321" s="3" t="s">
@@ -10741,7 +10739,7 @@
         <v>9083</v>
       </c>
       <c r="H322" s="2" t="str">
-        <f>VLOOKUP(G322,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G322,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I322" s="3" t="s">
@@ -10769,7 +10767,7 @@
         <v>19310</v>
       </c>
       <c r="H323" s="2" t="str">
-        <f>VLOOKUP(G323,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G323,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I323" s="3" t="s">
@@ -10797,7 +10795,7 @@
         <v>19310</v>
       </c>
       <c r="H324" s="2" t="str">
-        <f>VLOOKUP(G324,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G324,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I324" s="3" t="s">
@@ -10825,7 +10823,7 @@
         <v>9068</v>
       </c>
       <c r="H325" s="2" t="str">
-        <f>VLOOKUP(G325,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G325,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I325" s="3" t="s">
@@ -10853,7 +10851,7 @@
         <v>9093</v>
       </c>
       <c r="H326" s="2" t="str">
-        <f>VLOOKUP(G326,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G326,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I326" s="3" t="s">
@@ -10881,7 +10879,7 @@
         <v>1166</v>
       </c>
       <c r="H327" s="2" t="str">
-        <f>VLOOKUP(G327,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G327,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I327" s="3" t="s">
@@ -10909,7 +10907,7 @@
         <v>9067</v>
       </c>
       <c r="H328" s="2" t="str">
-        <f>VLOOKUP(G328,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G328,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I328" s="3" t="s">
@@ -10937,7 +10935,7 @@
         <v>9085</v>
       </c>
       <c r="H329" s="2" t="str">
-        <f>VLOOKUP(G329,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G329,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I329" s="3" t="s">
@@ -10963,7 +10961,7 @@
       <c r="F330" s="3"/>
       <c r="G330" s="3"/>
       <c r="H330" s="3" t="e">
-        <f>VLOOKUP(G330,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G330,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I330" s="3"/>
@@ -10989,7 +10987,7 @@
         <v>38</v>
       </c>
       <c r="H331" s="3" t="e">
-        <f>VLOOKUP(G331,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G331,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I331" s="3" t="s">
@@ -11017,7 +11015,7 @@
         <v>19225</v>
       </c>
       <c r="H332" s="2" t="str">
-        <f>VLOOKUP(G332,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G332,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I332" s="3" t="s">
@@ -11045,7 +11043,7 @@
         <v>19229</v>
       </c>
       <c r="H333" s="2" t="str">
-        <f>VLOOKUP(G333,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G333,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML SIX PACK NPAL</v>
       </c>
       <c r="I333" s="3" t="s">
@@ -11073,7 +11071,7 @@
         <v>9084</v>
       </c>
       <c r="H334" s="2" t="str">
-        <f>VLOOKUP(G334,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G334,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I334" s="3" t="s">
@@ -11101,7 +11099,7 @@
         <v>9068</v>
       </c>
       <c r="H335" s="2" t="str">
-        <f>VLOOKUP(G335,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G335,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I335" s="3" t="s">
@@ -11129,7 +11127,7 @@
         <v>9320</v>
       </c>
       <c r="H336" s="2" t="str">
-        <f>VLOOKUP(G336,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G336,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I336" s="3" t="s">
@@ -11155,7 +11153,7 @@
       <c r="F337" s="3"/>
       <c r="G337" s="3"/>
       <c r="H337" s="3" t="e">
-        <f>VLOOKUP(G337,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G337,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I337" s="3" t="s">
@@ -11181,7 +11179,7 @@
       <c r="F338" s="3"/>
       <c r="G338" s="3"/>
       <c r="H338" s="3" t="e">
-        <f>VLOOKUP(G338,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G338,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I338" s="3" t="s">
@@ -11207,7 +11205,7 @@
       <c r="F339" s="3"/>
       <c r="G339" s="3"/>
       <c r="H339" s="3" t="e">
-        <f>VLOOKUP(G339,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G339,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I339" s="3" t="s">
@@ -11235,7 +11233,7 @@
         <v>19310</v>
       </c>
       <c r="H340" s="2" t="str">
-        <f>VLOOKUP(G340,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G340,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I340" s="3" t="s">
@@ -11263,7 +11261,7 @@
         <v>9084</v>
       </c>
       <c r="H341" s="2" t="str">
-        <f>VLOOKUP(G341,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G341,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I341" s="3" t="s">
@@ -11291,7 +11289,7 @@
         <v>23269</v>
       </c>
       <c r="H342" s="2" t="str">
-        <f>VLOOKUP(G342,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G342,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS GT LN 269ML SIX-PACK SH C/4</v>
       </c>
       <c r="I342" s="3" t="s">
@@ -11319,7 +11317,7 @@
         <v>9072</v>
       </c>
       <c r="H343" s="2" t="str">
-        <f>VLOOKUP(G343,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G343,Produtos!A:B,2,FALSE)</f>
         <v>BOHEMIA NOVA EMBAL LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I343" s="3" t="s">
@@ -11347,7 +11345,7 @@
         <v>21119</v>
       </c>
       <c r="H344" s="2" t="str">
-        <f>VLOOKUP(G344,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G344,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS GT LT 269ML CX CAR C/8</v>
       </c>
       <c r="I344" s="3" t="s">
@@ -11375,7 +11373,7 @@
         <v>9084</v>
       </c>
       <c r="H345" s="2" t="str">
-        <f>VLOOKUP(G345,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G345,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I345" s="3" t="s">
@@ -11403,7 +11401,7 @@
         <v>9081</v>
       </c>
       <c r="H346" s="2" t="str">
-        <f>VLOOKUP(G346,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G346,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I346" s="3" t="s">
@@ -11431,7 +11429,7 @@
         <v>12948</v>
       </c>
       <c r="H347" s="2" t="str">
-        <f>VLOOKUP(G347,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G347,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I347" s="3" t="s">
@@ -11459,7 +11457,7 @@
         <v>21020</v>
       </c>
       <c r="H348" s="2" t="str">
-        <f>VLOOKUP(G348,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G348,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I348" s="3" t="s">
@@ -11485,7 +11483,7 @@
       <c r="F349" s="3"/>
       <c r="G349" s="3"/>
       <c r="H349" s="3" t="e">
-        <f>VLOOKUP(G349,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G349,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I349" s="3" t="s">
@@ -11513,7 +11511,7 @@
         <v>12948</v>
       </c>
       <c r="H350" s="2" t="str">
-        <f>VLOOKUP(G350,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G350,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I350" s="3" t="s">
@@ -11541,7 +11539,7 @@
         <v>9072</v>
       </c>
       <c r="H351" s="2" t="str">
-        <f>VLOOKUP(G351,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G351,Produtos!A:B,2,FALSE)</f>
         <v>BOHEMIA NOVA EMBAL LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I351" s="3" t="s">
@@ -11569,7 +11567,7 @@
         <v>2349</v>
       </c>
       <c r="H352" s="2" t="str">
-        <f>VLOOKUP(G352,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G352,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I352" s="3" t="s">
@@ -11597,7 +11595,7 @@
         <v>33818</v>
       </c>
       <c r="H353" s="2" t="str">
-        <f>VLOOKUP(G353,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G353,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I353" s="3" t="s">
@@ -11625,7 +11623,7 @@
         <v>9068</v>
       </c>
       <c r="H354" s="2" t="str">
-        <f>VLOOKUP(G354,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G354,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I354" s="3" t="s">
@@ -11653,7 +11651,7 @@
         <v>17797</v>
       </c>
       <c r="H355" s="2" t="str">
-        <f>VLOOKUP(G355,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G355,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I355" s="3" t="s">
@@ -11681,7 +11679,7 @@
         <v>1164</v>
       </c>
       <c r="H356" s="2" t="str">
-        <f>VLOOKUP(G356,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G356,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I356" s="3" t="s">
@@ -11709,7 +11707,7 @@
         <v>9081</v>
       </c>
       <c r="H357" s="2" t="str">
-        <f>VLOOKUP(G357,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G357,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I357" s="3" t="s">
@@ -11737,7 +11735,7 @@
         <v>253</v>
       </c>
       <c r="H358" s="2" t="str">
-        <f>VLOOKUP(G358,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G358,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA PET 1L CAIXA C/6</v>
       </c>
       <c r="I358" s="3" t="s">
@@ -11765,7 +11763,7 @@
         <v>1166</v>
       </c>
       <c r="H359" s="2" t="str">
-        <f>VLOOKUP(G359,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G359,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I359" s="3" t="s">
@@ -11793,7 +11791,7 @@
         <v>33818</v>
       </c>
       <c r="H360" s="2" t="str">
-        <f>VLOOKUP(G360,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G360,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I360" s="3" t="s">
@@ -11821,7 +11819,7 @@
         <v>39</v>
       </c>
       <c r="H361" s="3" t="e">
-        <f>VLOOKUP(G361,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G361,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I361" s="3" t="s">
@@ -11849,7 +11847,7 @@
         <v>1166</v>
       </c>
       <c r="H362" s="2" t="str">
-        <f>VLOOKUP(G362,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G362,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I362" s="3" t="s">
@@ -11877,7 +11875,7 @@
         <v>22177</v>
       </c>
       <c r="H363" s="2" t="str">
-        <f>VLOOKUP(G363,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G363,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I363" s="3" t="s">
@@ -11905,7 +11903,7 @@
         <v>14135</v>
       </c>
       <c r="H364" s="2" t="str">
-        <f>VLOOKUP(G364,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G364,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I364" s="3" t="s">
@@ -11933,7 +11931,7 @@
         <v>14135</v>
       </c>
       <c r="H365" s="2" t="str">
-        <f>VLOOKUP(G365,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G365,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I365" s="3" t="s">
@@ -11959,7 +11957,7 @@
       <c r="F366" s="3"/>
       <c r="G366" s="3"/>
       <c r="H366" s="3" t="e">
-        <f>VLOOKUP(G366,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G366,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I366" s="3" t="s">
@@ -11987,7 +11985,7 @@
         <v>20651</v>
       </c>
       <c r="H367" s="2" t="str">
-        <f>VLOOKUP(G367,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G367,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I367" s="3" t="s">
@@ -12015,7 +12013,7 @@
         <v>18490</v>
       </c>
       <c r="H368" s="2" t="str">
-        <f>VLOOKUP(G368,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G368,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I368" s="3" t="s">
@@ -12043,7 +12041,7 @@
         <v>9274</v>
       </c>
       <c r="H369" s="2" t="str">
-        <f>VLOOKUP(G369,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G369,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I369" s="3" t="s">
@@ -12071,7 +12069,7 @@
         <v>9083</v>
       </c>
       <c r="H370" s="2" t="str">
-        <f>VLOOKUP(G370,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G370,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I370" s="3" t="s">
@@ -12099,7 +12097,7 @@
         <v>19229</v>
       </c>
       <c r="H371" s="2" t="str">
-        <f>VLOOKUP(G371,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G371,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML SIX PACK NPAL</v>
       </c>
       <c r="I371" s="3" t="s">
@@ -12127,7 +12125,7 @@
         <v>9091</v>
       </c>
       <c r="H372" s="2" t="str">
-        <f>VLOOKUP(G372,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G372,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I372" s="3" t="s">
@@ -12155,7 +12153,7 @@
         <v>9320</v>
       </c>
       <c r="H373" s="2" t="str">
-        <f>VLOOKUP(G373,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G373,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I373" s="3" t="s">
@@ -12183,7 +12181,7 @@
         <v>9085</v>
       </c>
       <c r="H374" s="2" t="str">
-        <f>VLOOKUP(G374,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G374,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I374" s="3" t="s">
@@ -12211,7 +12209,7 @@
         <v>9320</v>
       </c>
       <c r="H375" s="2" t="str">
-        <f>VLOOKUP(G375,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G375,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I375" s="3" t="s">
@@ -12239,7 +12237,7 @@
         <v>9320</v>
       </c>
       <c r="H376" s="2" t="str">
-        <f>VLOOKUP(G376,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G376,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I376" s="3" t="s">
@@ -12267,7 +12265,7 @@
         <v>22177</v>
       </c>
       <c r="H377" s="2" t="str">
-        <f>VLOOKUP(G377,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G377,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I377" s="3" t="s">
@@ -12295,7 +12293,7 @@
         <v>9081</v>
       </c>
       <c r="H378" s="2" t="str">
-        <f>VLOOKUP(G378,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G378,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I378" s="3" t="s">
@@ -12323,7 +12321,7 @@
         <v>9096</v>
       </c>
       <c r="H379" s="2" t="str">
-        <f>VLOOKUP(G379,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G379,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I379" s="3" t="s">
@@ -12351,7 +12349,7 @@
         <v>33818</v>
       </c>
       <c r="H380" s="2" t="str">
-        <f>VLOOKUP(G380,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G380,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I380" s="3" t="s">
@@ -12379,7 +12377,7 @@
         <v>33818</v>
       </c>
       <c r="H381" s="2" t="str">
-        <f>VLOOKUP(G381,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G381,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I381" s="3" t="s">
@@ -12405,7 +12403,7 @@
       <c r="F382" s="3"/>
       <c r="G382" s="3"/>
       <c r="H382" s="3" t="e">
-        <f>VLOOKUP(G382,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G382,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I382" s="3" t="s">
@@ -12431,7 +12429,7 @@
       <c r="F383" s="3"/>
       <c r="G383" s="3"/>
       <c r="H383" s="3" t="e">
-        <f>VLOOKUP(G383,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G383,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I383" s="3" t="s">
@@ -12457,7 +12455,7 @@
       <c r="F384" s="3"/>
       <c r="G384" s="3"/>
       <c r="H384" s="3" t="e">
-        <f>VLOOKUP(G384,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G384,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I384" s="3" t="s">
@@ -12483,7 +12481,7 @@
       <c r="F385" s="3"/>
       <c r="G385" s="3"/>
       <c r="H385" s="3" t="e">
-        <f>VLOOKUP(G385,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G385,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I385" s="3" t="s">
@@ -12511,7 +12509,7 @@
         <v>9320</v>
       </c>
       <c r="H386" s="2" t="str">
-        <f>VLOOKUP(G386,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G386,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I386" s="3" t="s">
@@ -12539,7 +12537,7 @@
         <v>9096</v>
       </c>
       <c r="H387" s="2" t="str">
-        <f>VLOOKUP(G387,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G387,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I387" s="3" t="s">
@@ -12567,7 +12565,7 @@
         <v>18137</v>
       </c>
       <c r="H388" s="2" t="str">
-        <f>VLOOKUP(G388,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G388,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 3L C4 SH LISO</v>
       </c>
       <c r="I388" s="3" t="s">
@@ -12595,7 +12593,7 @@
         <v>30942</v>
       </c>
       <c r="H389" s="2" t="str">
-        <f>VLOOKUP(G389,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G389,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LONG NECK 330ML SIX-PACK SH C4</v>
       </c>
       <c r="I389" s="3" t="s">
@@ -12621,7 +12619,7 @@
       <c r="F390" s="3"/>
       <c r="G390" s="3"/>
       <c r="H390" s="3" t="e">
-        <f>VLOOKUP(G390,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G390,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I390" s="3" t="s">
@@ -12649,7 +12647,7 @@
         <v>9069</v>
       </c>
       <c r="H391" s="2" t="str">
-        <f>VLOOKUP(G391,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G391,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I391" s="3" t="s">
@@ -12677,7 +12675,7 @@
         <v>21020</v>
       </c>
       <c r="H392" s="2" t="str">
-        <f>VLOOKUP(G392,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G392,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I392" s="3" t="s">
@@ -12705,7 +12703,7 @@
         <v>38</v>
       </c>
       <c r="H393" s="3" t="e">
-        <f>VLOOKUP(G393,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G393,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I393" s="3" t="s">
@@ -12733,7 +12731,7 @@
         <v>9072</v>
       </c>
       <c r="H394" s="2" t="str">
-        <f>VLOOKUP(G394,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G394,Produtos!A:B,2,FALSE)</f>
         <v>BOHEMIA NOVA EMBAL LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I394" s="3" t="s">
@@ -12761,7 +12759,7 @@
         <v>19229</v>
       </c>
       <c r="H395" s="2" t="str">
-        <f>VLOOKUP(G395,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G395,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML SIX PACK NPAL</v>
       </c>
       <c r="I395" s="3" t="s">
@@ -12789,7 +12787,7 @@
         <v>9067</v>
       </c>
       <c r="H396" s="2" t="str">
-        <f>VLOOKUP(G396,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G396,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I396" s="3" t="s">
@@ -12817,7 +12815,7 @@
         <v>9320</v>
       </c>
       <c r="H397" s="2" t="str">
-        <f>VLOOKUP(G397,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G397,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I397" s="3" t="s">
@@ -12845,7 +12843,7 @@
         <v>33734</v>
       </c>
       <c r="H398" s="2" t="str">
-        <f>VLOOKUP(G398,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G398,Produtos!A:B,2,FALSE)</f>
         <v>BEATS RED MIX LT 269ML SH C/8</v>
       </c>
       <c r="I398" s="3" t="s">
@@ -12873,7 +12871,7 @@
         <v>18807</v>
       </c>
       <c r="H399" s="2" t="str">
-        <f>VLOOKUP(G399,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G399,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I399" s="3" t="s">
@@ -12901,7 +12899,7 @@
         <v>19310</v>
       </c>
       <c r="H400" s="2" t="str">
-        <f>VLOOKUP(G400,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G400,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I400" s="3" t="s">
@@ -12929,7 +12927,7 @@
         <v>32969</v>
       </c>
       <c r="H401" s="2" t="str">
-        <f>VLOOKUP(G401,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G401,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL S MOR E PESSEGO LT 250ML FOUR P</v>
       </c>
       <c r="I401" s="3" t="s">
@@ -12957,7 +12955,7 @@
         <v>17725</v>
       </c>
       <c r="H402" s="2" t="str">
-        <f>VLOOKUP(G402,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G402,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I402" s="3" t="s">
@@ -12985,7 +12983,7 @@
         <v>9067</v>
       </c>
       <c r="H403" s="2" t="str">
-        <f>VLOOKUP(G403,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G403,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I403" s="3" t="s">
@@ -13013,7 +13011,7 @@
         <v>2349</v>
       </c>
       <c r="H404" s="2" t="str">
-        <f>VLOOKUP(G404,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G404,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I404" s="3" t="s">
@@ -13041,7 +13039,7 @@
         <v>9081</v>
       </c>
       <c r="H405" s="2" t="str">
-        <f>VLOOKUP(G405,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G405,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I405" s="3" t="s">
@@ -13069,7 +13067,7 @@
         <v>9081</v>
       </c>
       <c r="H406" s="2" t="str">
-        <f>VLOOKUP(G406,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G406,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I406" s="3" t="s">
@@ -13097,7 +13095,7 @@
         <v>9081</v>
       </c>
       <c r="H407" s="2" t="str">
-        <f>VLOOKUP(G407,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G407,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I407" s="3" t="s">
@@ -13125,7 +13123,7 @@
         <v>9085</v>
       </c>
       <c r="H408" s="2" t="str">
-        <f>VLOOKUP(G408,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G408,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I408" s="3" t="s">
@@ -13153,7 +13151,7 @@
         <v>1745</v>
       </c>
       <c r="H409" s="2" t="str">
-        <f>VLOOKUP(G409,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G409,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I409" s="3" t="s">
@@ -13181,7 +13179,7 @@
         <v>22177</v>
       </c>
       <c r="H410" s="2" t="str">
-        <f>VLOOKUP(G410,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G410,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I410" s="3" t="s">
@@ -13209,7 +13207,7 @@
         <v>9096</v>
       </c>
       <c r="H411" s="2" t="str">
-        <f>VLOOKUP(G411,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G411,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I411" s="3" t="s">
@@ -13237,7 +13235,7 @@
         <v>838</v>
       </c>
       <c r="H412" s="2" t="str">
-        <f>VLOOKUP(G412,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G412,Produtos!A:B,2,FALSE)</f>
         <v>CHOPP BRAHMA CLARO BARRIL KEG 50L</v>
       </c>
       <c r="I412" s="3" t="s">
@@ -13263,7 +13261,7 @@
       <c r="F413" s="3"/>
       <c r="G413" s="3"/>
       <c r="H413" s="3" t="e">
-        <f>VLOOKUP(G413,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G413,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I413" s="3" t="s">
@@ -13291,7 +13289,7 @@
         <v>9320</v>
       </c>
       <c r="H414" s="2" t="str">
-        <f>VLOOKUP(G414,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G414,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I414" s="3" t="s">
@@ -13319,7 +13317,7 @@
         <v>9085</v>
       </c>
       <c r="H415" s="2" t="str">
-        <f>VLOOKUP(G415,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G415,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I415" s="3" t="s">
@@ -13347,7 +13345,7 @@
         <v>9081</v>
       </c>
       <c r="H416" s="2" t="str">
-        <f>VLOOKUP(G416,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G416,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I416" s="3" t="s">
@@ -13375,7 +13373,7 @@
         <v>6905</v>
       </c>
       <c r="H417" s="2" t="str">
-        <f>VLOOKUP(G417,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G417,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA C/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I417" s="3" t="s">
@@ -13403,7 +13401,7 @@
         <v>34608</v>
       </c>
       <c r="H418" s="2" t="str">
-        <f>VLOOKUP(G418,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G418,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I418" s="3" t="s">
@@ -13431,7 +13429,7 @@
         <v>9083</v>
       </c>
       <c r="H419" s="2" t="str">
-        <f>VLOOKUP(G419,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G419,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I419" s="3" t="s">
@@ -13459,7 +13457,7 @@
         <v>9067</v>
       </c>
       <c r="H420" s="2" t="str">
-        <f>VLOOKUP(G420,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G420,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I420" s="3" t="s">
@@ -13487,7 +13485,7 @@
         <v>9084</v>
       </c>
       <c r="H421" s="2" t="str">
-        <f>VLOOKUP(G421,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G421,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I421" s="3" t="s">
@@ -13515,7 +13513,7 @@
         <v>20498</v>
       </c>
       <c r="H422" s="2" t="str">
-        <f>VLOOKUP(G422,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G422,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I422" s="3" t="s">
@@ -13543,7 +13541,7 @@
         <v>28216</v>
       </c>
       <c r="H423" s="2" t="str">
-        <f>VLOOKUP(G423,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G423,Produtos!A:B,2,FALSE)</f>
         <v>MINALBA AGUA M C GAS LATA 310ML FD12</v>
       </c>
       <c r="I423" s="3" t="s">
@@ -13571,7 +13569,7 @@
         <v>2350</v>
       </c>
       <c r="H424" s="2" t="str">
-        <f>VLOOKUP(G424,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G424,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTARCTICA PET 2L CX C/6</v>
       </c>
       <c r="I424" s="3" t="s">
@@ -13599,7 +13597,7 @@
         <v>9093</v>
       </c>
       <c r="H425" s="2" t="str">
-        <f>VLOOKUP(G425,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G425,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I425" s="3" t="s">
@@ -13627,7 +13625,7 @@
         <v>9081</v>
       </c>
       <c r="H426" s="2" t="str">
-        <f>VLOOKUP(G426,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G426,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I426" s="3" t="s">
@@ -13655,7 +13653,7 @@
         <v>17797</v>
       </c>
       <c r="H427" s="2" t="str">
-        <f>VLOOKUP(G427,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G427,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I427" s="3" t="s">
@@ -13681,7 +13679,7 @@
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
       <c r="H428" s="3" t="e">
-        <f>VLOOKUP(G428,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G428,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I428" s="3" t="s">
@@ -13709,7 +13707,7 @@
         <v>20603</v>
       </c>
       <c r="H429" s="2" t="str">
-        <f>VLOOKUP(G429,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G429,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 269ML CX CARTAO C/8 NPAL</v>
       </c>
       <c r="I429" s="3" t="s">
@@ -13737,7 +13735,7 @@
         <v>20651</v>
       </c>
       <c r="H430" s="2" t="str">
-        <f>VLOOKUP(G430,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G430,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I430" s="3" t="s">
@@ -13765,7 +13763,7 @@
         <v>9069</v>
       </c>
       <c r="H431" s="2" t="str">
-        <f>VLOOKUP(G431,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G431,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I431" s="3" t="s">
@@ -13793,7 +13791,7 @@
         <v>9083</v>
       </c>
       <c r="H432" s="2" t="str">
-        <f>VLOOKUP(G432,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G432,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I432" s="3" t="s">
@@ -13821,7 +13819,7 @@
         <v>12951</v>
       </c>
       <c r="H433" s="2" t="str">
-        <f>VLOOKUP(G433,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G433,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LN 355 SIXP CX CART C4</v>
       </c>
       <c r="I433" s="3" t="s">
@@ -13849,7 +13847,7 @@
         <v>17808</v>
       </c>
       <c r="H434" s="2" t="str">
-        <f>VLOOKUP(G434,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G434,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I434" s="3" t="s">
@@ -13875,7 +13873,7 @@
       <c r="F435" s="3"/>
       <c r="G435" s="3"/>
       <c r="H435" s="3" t="e">
-        <f>VLOOKUP(G435,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G435,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I435" s="3" t="s">
@@ -13903,7 +13901,7 @@
         <v>9093</v>
       </c>
       <c r="H436" s="2" t="str">
-        <f>VLOOKUP(G436,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G436,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I436" s="3" t="s">
@@ -13931,7 +13929,7 @@
         <v>9067</v>
       </c>
       <c r="H437" s="2" t="str">
-        <f>VLOOKUP(G437,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G437,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I437" s="3" t="s">
@@ -13959,7 +13957,7 @@
         <v>19227</v>
       </c>
       <c r="H438" s="2" t="str">
-        <f>VLOOKUP(G438,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G438,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 355ML FOUR PACK</v>
       </c>
       <c r="I438" s="3" t="s">
@@ -13987,7 +13985,7 @@
         <v>20564</v>
       </c>
       <c r="H439" s="2" t="e">
-        <f>VLOOKUP(G439,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G439,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I439" s="3" t="s">
@@ -14015,7 +14013,7 @@
         <v>21658</v>
       </c>
       <c r="H440" s="2" t="str">
-        <f>VLOOKUP(G440,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G440,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I440" s="3" t="s">
@@ -14043,7 +14041,7 @@
         <v>9096</v>
       </c>
       <c r="H441" s="2" t="str">
-        <f>VLOOKUP(G441,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G441,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I441" s="3" t="s">
@@ -14071,7 +14069,7 @@
         <v>18807</v>
       </c>
       <c r="H442" s="2" t="str">
-        <f>VLOOKUP(G442,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G442,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I442" s="3" t="s">
@@ -14099,7 +14097,7 @@
         <v>9087</v>
       </c>
       <c r="H443" s="2" t="str">
-        <f>VLOOKUP(G443,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G443,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I443" s="3" t="s">
@@ -14127,7 +14125,7 @@
         <v>9069</v>
       </c>
       <c r="H444" s="2" t="str">
-        <f>VLOOKUP(G444,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G444,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I444" s="3" t="s">
@@ -14155,7 +14153,7 @@
         <v>838</v>
       </c>
       <c r="H445" s="2" t="str">
-        <f>VLOOKUP(G445,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G445,Produtos!A:B,2,FALSE)</f>
         <v>CHOPP BRAHMA CLARO BARRIL KEG 50L</v>
       </c>
       <c r="I445" s="3" t="s">
@@ -14183,7 +14181,7 @@
         <v>21658</v>
       </c>
       <c r="H446" s="2" t="str">
-        <f>VLOOKUP(G446,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G446,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I446" s="3" t="s">
@@ -14211,7 +14209,7 @@
         <v>34608</v>
       </c>
       <c r="H447" s="2" t="str">
-        <f>VLOOKUP(G447,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G447,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I447" s="3" t="s">
@@ -14239,7 +14237,7 @@
         <v>9071</v>
       </c>
       <c r="H448" s="2" t="str">
-        <f>VLOOKUP(G448,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G448,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I448" s="3" t="s">
@@ -14267,7 +14265,7 @@
         <v>17797</v>
       </c>
       <c r="H449" s="2" t="str">
-        <f>VLOOKUP(G449,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G449,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I449" s="3" t="s">
@@ -14295,7 +14293,7 @@
         <v>9069</v>
       </c>
       <c r="H450" s="2" t="str">
-        <f>VLOOKUP(G450,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G450,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I450" s="3" t="s">
@@ -14323,7 +14321,7 @@
         <v>9096</v>
       </c>
       <c r="H451" s="2" t="str">
-        <f>VLOOKUP(G451,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G451,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I451" s="3" t="s">
@@ -14351,7 +14349,7 @@
         <v>17797</v>
       </c>
       <c r="H452" s="2" t="str">
-        <f>VLOOKUP(G452,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G452,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I452" s="3" t="s">
@@ -14379,7 +14377,7 @@
         <v>9084</v>
       </c>
       <c r="H453" s="2" t="str">
-        <f>VLOOKUP(G453,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G453,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I453" s="3" t="s">
@@ -14405,7 +14403,7 @@
       <c r="F454" s="3"/>
       <c r="G454" s="3"/>
       <c r="H454" s="3" t="e">
-        <f>VLOOKUP(G454,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G454,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I454" s="3" t="s">
@@ -14433,7 +14431,7 @@
         <v>9084</v>
       </c>
       <c r="H455" s="2" t="str">
-        <f>VLOOKUP(G455,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G455,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I455" s="3" t="s">
@@ -14461,7 +14459,7 @@
         <v>9067</v>
       </c>
       <c r="H456" s="2" t="str">
-        <f>VLOOKUP(G456,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G456,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I456" s="3" t="s">
@@ -14489,7 +14487,7 @@
         <v>9068</v>
       </c>
       <c r="H457" s="2" t="str">
-        <f>VLOOKUP(G457,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G457,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I457" s="3" t="s">
@@ -14517,7 +14515,7 @@
         <v>9091</v>
       </c>
       <c r="H458" s="2" t="str">
-        <f>VLOOKUP(G458,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G458,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I458" s="3" t="s">
@@ -14545,7 +14543,7 @@
         <v>20651</v>
       </c>
       <c r="H459" s="2" t="str">
-        <f>VLOOKUP(G459,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G459,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I459" s="3" t="s">
@@ -14573,7 +14571,7 @@
         <v>9096</v>
       </c>
       <c r="H460" s="2" t="str">
-        <f>VLOOKUP(G460,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G460,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I460" s="3" t="s">
@@ -14601,7 +14599,7 @@
         <v>18490</v>
       </c>
       <c r="H461" s="2" t="str">
-        <f>VLOOKUP(G461,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G461,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I461" s="3" t="s">
@@ -14629,7 +14627,7 @@
         <v>9320</v>
       </c>
       <c r="H462" s="2" t="str">
-        <f>VLOOKUP(G462,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G462,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I462" s="3" t="s">
@@ -14657,7 +14655,7 @@
         <v>9087</v>
       </c>
       <c r="H463" s="2" t="str">
-        <f>VLOOKUP(G463,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G463,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I463" s="3" t="s">
@@ -14685,7 +14683,7 @@
         <v>17808</v>
       </c>
       <c r="H464" s="2" t="str">
-        <f>VLOOKUP(G464,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G464,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I464" s="3" t="s">
@@ -14713,7 +14711,7 @@
         <v>1695</v>
       </c>
       <c r="H465" s="2" t="str">
-        <f>VLOOKUP(G465,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G465,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP GFA VD 1L COM TTC</v>
       </c>
       <c r="I465" s="3" t="s">
@@ -14741,7 +14739,7 @@
         <v>17797</v>
       </c>
       <c r="H466" s="2" t="str">
-        <f>VLOOKUP(G466,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G466,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I466" s="3" t="s">
@@ -14769,7 +14767,7 @@
         <v>9084</v>
       </c>
       <c r="H467" s="2" t="str">
-        <f>VLOOKUP(G467,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G467,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I467" s="3" t="s">
@@ -14797,7 +14795,7 @@
         <v>2349</v>
       </c>
       <c r="H468" s="2" t="str">
-        <f>VLOOKUP(G468,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G468,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I468" s="3" t="s">
@@ -14825,7 +14823,7 @@
         <v>9320</v>
       </c>
       <c r="H469" s="2" t="str">
-        <f>VLOOKUP(G469,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G469,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I469" s="3" t="s">
@@ -14853,7 +14851,7 @@
         <v>8336</v>
       </c>
       <c r="H470" s="2" t="str">
-        <f>VLOOKUP(G470,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G470,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL ONE WAY 600ML CX 12</v>
       </c>
       <c r="I470" s="3" t="s">
@@ -14881,7 +14879,7 @@
         <v>17725</v>
       </c>
       <c r="H471" s="2" t="str">
-        <f>VLOOKUP(G471,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G471,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I471" s="3" t="s">
@@ -14909,7 +14907,7 @@
         <v>19229</v>
       </c>
       <c r="H472" s="2" t="str">
-        <f>VLOOKUP(G472,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G472,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML SIX PACK NPAL</v>
       </c>
       <c r="I472" s="3" t="s">
@@ -14937,7 +14935,7 @@
         <v>2008</v>
       </c>
       <c r="H473" s="2" t="str">
-        <f>VLOOKUP(G473,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G473,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA SUBZERO LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I473" s="3" t="s">
@@ -14965,7 +14963,7 @@
         <v>9067</v>
       </c>
       <c r="H474" s="2" t="str">
-        <f>VLOOKUP(G474,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G474,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I474" s="3" t="s">
@@ -14993,7 +14991,7 @@
         <v>9096</v>
       </c>
       <c r="H475" s="2" t="str">
-        <f>VLOOKUP(G475,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G475,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I475" s="3" t="s">
@@ -15021,7 +15019,7 @@
         <v>17678</v>
       </c>
       <c r="H476" s="2" t="str">
-        <f>VLOOKUP(G476,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G476,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/18 NPAL MULTPACK</v>
       </c>
       <c r="I476" s="3" t="s">
@@ -15049,7 +15047,7 @@
         <v>9087</v>
       </c>
       <c r="H477" s="2" t="str">
-        <f>VLOOKUP(G477,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G477,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I477" s="3" t="s">
@@ -15077,7 +15075,7 @@
         <v>9087</v>
       </c>
       <c r="H478" s="2" t="str">
-        <f>VLOOKUP(G478,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G478,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I478" s="3" t="s">
@@ -15105,7 +15103,7 @@
         <v>2349</v>
       </c>
       <c r="H479" s="2" t="str">
-        <f>VLOOKUP(G479,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G479,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I479" s="3" t="s">
@@ -15131,7 +15129,7 @@
       <c r="F480" s="3"/>
       <c r="G480" s="3"/>
       <c r="H480" s="3" t="e">
-        <f>VLOOKUP(G480,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G480,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I480" s="3" t="s">
@@ -15159,7 +15157,7 @@
         <v>9087</v>
       </c>
       <c r="H481" s="2" t="str">
-        <f>VLOOKUP(G481,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G481,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I481" s="3" t="s">
@@ -15187,7 +15185,7 @@
         <v>9067</v>
       </c>
       <c r="H482" s="2" t="str">
-        <f>VLOOKUP(G482,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G482,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I482" s="3" t="s">
@@ -15215,7 +15213,7 @@
         <v>19729</v>
       </c>
       <c r="H483" s="2" t="str">
-        <f>VLOOKUP(G483,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G483,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LT SLEEK 350ML C 8 CX CART</v>
       </c>
       <c r="I483" s="3" t="s">
@@ -15243,7 +15241,7 @@
         <v>26462</v>
       </c>
       <c r="H484" s="2" t="str">
-        <f>VLOOKUP(G484,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G484,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 473ML CX CARTAO C/12</v>
       </c>
       <c r="I484" s="3" t="s">
@@ -15271,7 +15269,7 @@
         <v>9071</v>
       </c>
       <c r="H485" s="2" t="str">
-        <f>VLOOKUP(G485,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G485,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I485" s="3" t="s">
@@ -15299,7 +15297,7 @@
         <v>9320</v>
       </c>
       <c r="H486" s="2" t="str">
-        <f>VLOOKUP(G486,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G486,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I486" s="3" t="s">
@@ -15327,7 +15325,7 @@
         <v>9096</v>
       </c>
       <c r="H487" s="2" t="str">
-        <f>VLOOKUP(G487,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G487,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I487" s="3" t="s">
@@ -15355,7 +15353,7 @@
         <v>9084</v>
       </c>
       <c r="H488" s="2" t="str">
-        <f>VLOOKUP(G488,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G488,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I488" s="3" t="s">
@@ -15383,7 +15381,7 @@
         <v>9068</v>
       </c>
       <c r="H489" s="2" t="str">
-        <f>VLOOKUP(G489,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G489,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I489" s="3" t="s">
@@ -15411,7 +15409,7 @@
         <v>9096</v>
       </c>
       <c r="H490" s="2" t="str">
-        <f>VLOOKUP(G490,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G490,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I490" s="3" t="s">
@@ -15439,7 +15437,7 @@
         <v>9068</v>
       </c>
       <c r="H491" s="2" t="str">
-        <f>VLOOKUP(G491,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G491,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I491" s="3" t="s">
@@ -15467,7 +15465,7 @@
         <v>9067</v>
       </c>
       <c r="H492" s="2" t="str">
-        <f>VLOOKUP(G492,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G492,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I492" s="3" t="s">
@@ -15495,7 +15493,7 @@
         <v>14135</v>
       </c>
       <c r="H493" s="2" t="str">
-        <f>VLOOKUP(G493,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G493,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I493" s="3" t="s">
@@ -15523,7 +15521,7 @@
         <v>371</v>
       </c>
       <c r="H494" s="2" t="str">
-        <f>VLOOKUP(G494,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G494,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LN355ML SIX PAC BAND C/4</v>
       </c>
       <c r="I494" s="3" t="s">
@@ -15551,7 +15549,7 @@
         <v>9096</v>
       </c>
       <c r="H495" s="2" t="str">
-        <f>VLOOKUP(G495,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G495,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I495" s="3" t="s">
@@ -15579,7 +15577,7 @@
         <v>9067</v>
       </c>
       <c r="H496" s="2" t="str">
-        <f>VLOOKUP(G496,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G496,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I496" s="3" t="s">
@@ -15607,7 +15605,7 @@
         <v>9067</v>
       </c>
       <c r="H497" s="2" t="str">
-        <f>VLOOKUP(G497,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G497,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I497" s="3" t="s">
@@ -15635,7 +15633,7 @@
         <v>9067</v>
       </c>
       <c r="H498" s="2" t="str">
-        <f>VLOOKUP(G498,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G498,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I498" s="3" t="s">
@@ -15663,7 +15661,7 @@
         <v>19225</v>
       </c>
       <c r="H499" s="2" t="str">
-        <f>VLOOKUP(G499,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G499,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I499" s="3" t="s">
@@ -15691,7 +15689,7 @@
         <v>7977</v>
       </c>
       <c r="H500" s="2" t="str">
-        <f>VLOOKUP(G500,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G500,Produtos!A:B,2,FALSE)</f>
         <v>GATORADE UVA PET 500ML SIX PACK</v>
       </c>
       <c r="I500" s="3" t="s">
@@ -15719,7 +15717,7 @@
         <v>7982</v>
       </c>
       <c r="H501" s="2" t="str">
-        <f>VLOOKUP(G501,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G501,Produtos!A:B,2,FALSE)</f>
         <v>GATORADE LIMAO PET 500ML SIX PACK</v>
       </c>
       <c r="I501" s="3" t="s">
@@ -15747,7 +15745,7 @@
         <v>9069</v>
       </c>
       <c r="H502" s="2" t="str">
-        <f>VLOOKUP(G502,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G502,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I502" s="3" t="s">
@@ -15775,7 +15773,7 @@
         <v>20498</v>
       </c>
       <c r="H503" s="2" t="str">
-        <f>VLOOKUP(G503,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G503,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I503" s="3" t="s">
@@ -15801,7 +15799,7 @@
       <c r="F504" s="3"/>
       <c r="G504" s="3"/>
       <c r="H504" s="3" t="e">
-        <f>VLOOKUP(G504,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G504,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I504" s="3" t="s">
@@ -15829,7 +15827,7 @@
         <v>12948</v>
       </c>
       <c r="H505" s="2" t="str">
-        <f>VLOOKUP(G505,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G505,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I505" s="3" t="s">
@@ -15857,7 +15855,7 @@
         <v>29580</v>
       </c>
       <c r="H506" s="2" t="str">
-        <f>VLOOKUP(G506,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G506,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I506" s="3" t="s">
@@ -15885,7 +15883,7 @@
         <v>9085</v>
       </c>
       <c r="H507" s="2" t="str">
-        <f>VLOOKUP(G507,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G507,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I507" s="3" t="s">
@@ -15913,7 +15911,7 @@
         <v>8921</v>
       </c>
       <c r="H508" s="2" t="str">
-        <f>VLOOKUP(G508,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G508,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTART DIET PET600ML CX C/12</v>
       </c>
       <c r="I508" s="3" t="s">
@@ -15941,7 +15939,7 @@
         <v>9089</v>
       </c>
       <c r="H509" s="2" t="str">
-        <f>VLOOKUP(G509,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G509,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I509" s="3" t="s">
@@ -15969,7 +15967,7 @@
         <v>9081</v>
       </c>
       <c r="H510" s="2" t="str">
-        <f>VLOOKUP(G510,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G510,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I510" s="3" t="s">
@@ -15997,7 +15995,7 @@
         <v>13566</v>
       </c>
       <c r="H511" s="2" t="str">
-        <f>VLOOKUP(G511,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G511,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS SENSES LATA 269ML CX C/8 FRID</v>
       </c>
       <c r="I511" s="3" t="s">
@@ -16025,7 +16023,7 @@
         <v>21020</v>
       </c>
       <c r="H512" s="2" t="str">
-        <f>VLOOKUP(G512,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G512,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I512" s="3" t="s">
@@ -16053,7 +16051,7 @@
         <v>23216</v>
       </c>
       <c r="H513" s="2" t="str">
-        <f>VLOOKUP(G513,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G513,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA IPA LATA 473ML 6PACK CARTAO</v>
       </c>
       <c r="I513" s="3" t="s">
@@ -16081,7 +16079,7 @@
         <v>9085</v>
       </c>
       <c r="H514" s="2" t="str">
-        <f>VLOOKUP(G514,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G514,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I514" s="3" t="s">
@@ -16109,7 +16107,7 @@
         <v>9096</v>
       </c>
       <c r="H515" s="2" t="str">
-        <f>VLOOKUP(G515,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G515,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I515" s="3" t="s">
@@ -16137,7 +16135,7 @@
         <v>11191</v>
       </c>
       <c r="H516" s="2" t="str">
-        <f>VLOOKUP(G516,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G516,Produtos!A:B,2,FALSE)</f>
         <v>LIPTON PESSEGO PET 1,5 SHRINK C/6 HF</v>
       </c>
       <c r="I516" s="3" t="s">
@@ -16165,7 +16163,7 @@
         <v>9069</v>
       </c>
       <c r="H517" s="2" t="str">
-        <f>VLOOKUP(G517,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G517,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I517" s="3" t="s">
@@ -16193,7 +16191,7 @@
         <v>17797</v>
       </c>
       <c r="H518" s="2" t="str">
-        <f>VLOOKUP(G518,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G518,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I518" s="3" t="s">
@@ -16219,7 +16217,7 @@
       <c r="F519" s="3"/>
       <c r="G519" s="3"/>
       <c r="H519" s="3" t="e">
-        <f>VLOOKUP(G519,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G519,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I519" s="3"/>
@@ -16243,7 +16241,7 @@
       <c r="F520" s="3"/>
       <c r="G520" s="3"/>
       <c r="H520" s="3" t="e">
-        <f>VLOOKUP(G520,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G520,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I520" s="3" t="s">
@@ -16271,7 +16269,7 @@
         <v>17725</v>
       </c>
       <c r="H521" s="2" t="str">
-        <f>VLOOKUP(G521,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G521,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I521" s="3" t="s">
@@ -16299,7 +16297,7 @@
         <v>20072</v>
       </c>
       <c r="H522" s="2" t="str">
-        <f>VLOOKUP(G522,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G522,Produtos!A:B,2,FALSE)</f>
         <v>BECKS N LT SLEEK 350ML C 8 CX CART</v>
       </c>
       <c r="I522" s="3" t="s">
@@ -16327,7 +16325,7 @@
         <v>9081</v>
       </c>
       <c r="H523" s="2" t="str">
-        <f>VLOOKUP(G523,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G523,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I523" s="3" t="s">
@@ -16355,7 +16353,7 @@
         <v>9069</v>
       </c>
       <c r="H524" s="2" t="str">
-        <f>VLOOKUP(G524,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G524,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I524" s="3" t="s">
@@ -16383,7 +16381,7 @@
         <v>9084</v>
       </c>
       <c r="H525" s="2" t="str">
-        <f>VLOOKUP(G525,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G525,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I525" s="3" t="s">
@@ -16411,7 +16409,7 @@
         <v>19310</v>
       </c>
       <c r="H526" s="2" t="str">
-        <f>VLOOKUP(G526,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G526,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I526" s="3" t="s">
@@ -16439,7 +16437,7 @@
         <v>9084</v>
       </c>
       <c r="H527" s="2" t="str">
-        <f>VLOOKUP(G527,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G527,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I527" s="3" t="s">
@@ -16465,7 +16463,7 @@
       <c r="F528" s="3"/>
       <c r="G528" s="3"/>
       <c r="H528" s="3" t="e">
-        <f>VLOOKUP(G528,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G528,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I528" s="3" t="s">
@@ -16491,7 +16489,7 @@
       <c r="F529" s="3"/>
       <c r="G529" s="3"/>
       <c r="H529" s="3" t="e">
-        <f>VLOOKUP(G529,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G529,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I529" s="3" t="s">
@@ -16519,7 +16517,7 @@
         <v>17797</v>
       </c>
       <c r="H530" s="2" t="str">
-        <f>VLOOKUP(G530,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G530,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I530" s="3" t="s">
@@ -16547,7 +16545,7 @@
         <v>19729</v>
       </c>
       <c r="H531" s="2" t="str">
-        <f>VLOOKUP(G531,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G531,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LT SLEEK 350ML C 8 CX CART</v>
       </c>
       <c r="I531" s="3" t="s">
@@ -16575,7 +16573,7 @@
         <v>9320</v>
       </c>
       <c r="H532" s="2" t="str">
-        <f>VLOOKUP(G532,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G532,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I532" s="3" t="s">
@@ -16601,7 +16599,7 @@
       <c r="F533" s="3"/>
       <c r="G533" s="3"/>
       <c r="H533" s="3" t="e">
-        <f>VLOOKUP(G533,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G533,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I533" s="3" t="s">
@@ -16627,7 +16625,7 @@
       <c r="F534" s="3"/>
       <c r="G534" s="3"/>
       <c r="H534" s="3" t="e">
-        <f>VLOOKUP(G534,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G534,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I534" s="3" t="s">
@@ -16655,7 +16653,7 @@
         <v>9084</v>
       </c>
       <c r="H535" s="2" t="str">
-        <f>VLOOKUP(G535,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G535,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I535" s="3" t="s">
@@ -16681,7 +16679,7 @@
       <c r="F536" s="3"/>
       <c r="G536" s="3"/>
       <c r="H536" s="3" t="e">
-        <f>VLOOKUP(G536,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G536,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I536" s="3" t="s">
@@ -16709,7 +16707,7 @@
         <v>18137</v>
       </c>
       <c r="H537" s="2" t="str">
-        <f>VLOOKUP(G537,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G537,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 3L C4 SH LISO</v>
       </c>
       <c r="I537" s="3" t="s">
@@ -16737,7 +16735,7 @@
         <v>9096</v>
       </c>
       <c r="H538" s="2" t="str">
-        <f>VLOOKUP(G538,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G538,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I538" s="3" t="s">
@@ -16765,7 +16763,7 @@
         <v>32349</v>
       </c>
       <c r="H539" s="2" t="str">
-        <f>VLOOKUP(G539,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G539,Produtos!A:B,2,FALSE)</f>
         <v>BEATS TROPICAL LT 269ML CX CARTAO C/8 NP</v>
       </c>
       <c r="I539" s="3" t="s">
@@ -16793,7 +16791,7 @@
         <v>9067</v>
       </c>
       <c r="H540" s="2" t="str">
-        <f>VLOOKUP(G540,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G540,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I540" s="3" t="s">
@@ -16821,7 +16819,7 @@
         <v>29485</v>
       </c>
       <c r="H541" s="2" t="str">
-        <f>VLOOKUP(G541,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G541,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS CAIPIRINHA LN 269ML SXP SH C4</v>
       </c>
       <c r="I541" s="3" t="s">
@@ -16849,7 +16847,7 @@
         <v>9093</v>
       </c>
       <c r="H542" s="2" t="str">
-        <f>VLOOKUP(G542,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G542,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I542" s="3" t="s">
@@ -16877,7 +16875,7 @@
         <v>17797</v>
       </c>
       <c r="H543" s="2" t="str">
-        <f>VLOOKUP(G543,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G543,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I543" s="3" t="s">
@@ -16903,7 +16901,7 @@
       <c r="F544" s="3"/>
       <c r="G544" s="3"/>
       <c r="H544" s="3" t="e">
-        <f>VLOOKUP(G544,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G544,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I544" s="3" t="s">
@@ -16931,7 +16929,7 @@
         <v>34133</v>
       </c>
       <c r="H545" s="2" t="str">
-        <f>VLOOKUP(G545,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G545,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL SUM MAR E MELAO LT 250ML CX C24</v>
       </c>
       <c r="I545" s="3" t="s">
@@ -16959,7 +16957,7 @@
         <v>9071</v>
       </c>
       <c r="H546" s="2" t="str">
-        <f>VLOOKUP(G546,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G546,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I546" s="3" t="s">
@@ -16987,7 +16985,7 @@
         <v>1166</v>
       </c>
       <c r="H547" s="2" t="str">
-        <f>VLOOKUP(G547,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G547,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I547" s="3" t="s">
@@ -17015,7 +17013,7 @@
         <v>1166</v>
       </c>
       <c r="H548" s="2" t="str">
-        <f>VLOOKUP(G548,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G548,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I548" s="3" t="s">
@@ -17043,7 +17041,7 @@
         <v>9084</v>
       </c>
       <c r="H549" s="2" t="str">
-        <f>VLOOKUP(G549,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G549,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I549" s="3" t="s">
@@ -17071,7 +17069,7 @@
         <v>24168</v>
       </c>
       <c r="H550" s="2" t="str">
-        <f>VLOOKUP(G550,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G550,Produtos!A:B,2,FALSE)</f>
         <v>MICHELOB ULTRA N LN 330ML SP SH C/4</v>
       </c>
       <c r="I550" s="3" t="s">
@@ -17099,7 +17097,7 @@
         <v>371</v>
       </c>
       <c r="H551" s="2" t="str">
-        <f>VLOOKUP(G551,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G551,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LN355ML SIX PAC BAND C/4</v>
       </c>
       <c r="I551" s="3" t="s">
@@ -17127,7 +17125,7 @@
         <v>24608</v>
       </c>
       <c r="H552" s="2" t="str">
-        <f>VLOOKUP(G552,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G552,Produtos!A:B,2,FALSE)</f>
         <v>SAN PELLEGRINO COM GAS GARRAFA VD 505 ML CX 24</v>
       </c>
       <c r="I552" s="3" t="s">
@@ -17155,7 +17153,7 @@
         <v>9068</v>
       </c>
       <c r="H553" s="2" t="str">
-        <f>VLOOKUP(G553,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G553,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I553" s="3" t="s">
@@ -17183,7 +17181,7 @@
         <v>24168</v>
       </c>
       <c r="H554" s="2" t="str">
-        <f>VLOOKUP(G554,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G554,Produtos!A:B,2,FALSE)</f>
         <v>MICHELOB ULTRA N LN 330ML SP SH C/4</v>
       </c>
       <c r="I554" s="3" t="s">
@@ -17211,7 +17209,7 @@
         <v>504</v>
       </c>
       <c r="H555" s="2" t="str">
-        <f>VLOOKUP(G555,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G555,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 2L CAIXA C/6</v>
       </c>
       <c r="I555" s="3" t="s">
@@ -17239,7 +17237,7 @@
         <v>7983</v>
       </c>
       <c r="H556" s="2" t="str">
-        <f>VLOOKUP(G556,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G556,Produtos!A:B,2,FALSE)</f>
         <v>GATORADE MORANGO MARACUJA PET500ML SIXPA</v>
       </c>
       <c r="I556" s="3" t="s">
@@ -17265,7 +17263,7 @@
       <c r="F557" s="3"/>
       <c r="G557" s="3"/>
       <c r="H557" s="3" t="e">
-        <f>VLOOKUP(G557,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G557,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I557" s="3"/>
@@ -17291,7 +17289,7 @@
         <v>19310</v>
       </c>
       <c r="H558" s="2" t="str">
-        <f>VLOOKUP(G558,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G558,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I558" s="3" t="s">
@@ -17319,7 +17317,7 @@
         <v>9071</v>
       </c>
       <c r="H559" s="2" t="str">
-        <f>VLOOKUP(G559,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G559,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I559" s="3" t="s">
@@ -17347,7 +17345,7 @@
         <v>9320</v>
       </c>
       <c r="H560" s="2" t="str">
-        <f>VLOOKUP(G560,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G560,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I560" s="3" t="s">
@@ -17375,7 +17373,7 @@
         <v>34420</v>
       </c>
       <c r="H561" s="2" t="str">
-        <f>VLOOKUP(G561,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G561,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL SUM MARAC E MELAO LT 250ML FP</v>
       </c>
       <c r="I561" s="3" t="s">
@@ -17403,7 +17401,7 @@
         <v>9067</v>
       </c>
       <c r="H562" s="2" t="str">
-        <f>VLOOKUP(G562,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G562,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I562" s="3" t="s">
@@ -17431,7 +17429,7 @@
         <v>19310</v>
       </c>
       <c r="H563" s="2" t="str">
-        <f>VLOOKUP(G563,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G563,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I563" s="3" t="s">
@@ -17459,7 +17457,7 @@
         <v>19310</v>
       </c>
       <c r="H564" s="2" t="str">
-        <f>VLOOKUP(G564,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G564,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I564" s="3" t="s">
@@ -17487,7 +17485,7 @@
         <v>9067</v>
       </c>
       <c r="H565" s="2" t="str">
-        <f>VLOOKUP(G565,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G565,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I565" s="3" t="s">
@@ -17515,7 +17513,7 @@
         <v>18765</v>
       </c>
       <c r="H566" s="2" t="str">
-        <f>VLOOKUP(G566,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G566,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA WEISSE NAC LATA 473ML 6 PACK</v>
       </c>
       <c r="I566" s="3" t="s">
@@ -17543,7 +17541,7 @@
         <v>34608</v>
       </c>
       <c r="H567" s="2" t="str">
-        <f>VLOOKUP(G567,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G567,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I567" s="3" t="s">
@@ -17571,7 +17569,7 @@
         <v>18764</v>
       </c>
       <c r="H568" s="2" t="str">
-        <f>VLOOKUP(G568,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G568,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA BOH PIL NAC LATA 473ML 6 PACK</v>
       </c>
       <c r="I568" s="3" t="s">
@@ -17599,7 +17597,7 @@
         <v>9085</v>
       </c>
       <c r="H569" s="2" t="str">
-        <f>VLOOKUP(G569,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G569,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I569" s="3" t="s">
@@ -17627,7 +17625,7 @@
         <v>9071</v>
       </c>
       <c r="H570" s="2" t="str">
-        <f>VLOOKUP(G570,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G570,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I570" s="3" t="s">
@@ -17655,7 +17653,7 @@
         <v>9320</v>
       </c>
       <c r="H571" s="2" t="str">
-        <f>VLOOKUP(G571,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G571,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I571" s="3" t="s">
@@ -17683,7 +17681,7 @@
         <v>14135</v>
       </c>
       <c r="H572" s="2" t="str">
-        <f>VLOOKUP(G572,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G572,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I572" s="3" t="s">
@@ -17711,7 +17709,7 @@
         <v>9096</v>
       </c>
       <c r="H573" s="2" t="str">
-        <f>VLOOKUP(G573,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G573,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I573" s="3" t="s">
@@ -17737,7 +17735,7 @@
       <c r="F574" s="3"/>
       <c r="G574" s="3"/>
       <c r="H574" s="3" t="e">
-        <f>VLOOKUP(G574,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G574,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I574" s="3"/>
@@ -17763,7 +17761,7 @@
         <v>9085</v>
       </c>
       <c r="H575" s="2" t="str">
-        <f>VLOOKUP(G575,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G575,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I575" s="3" t="s">
@@ -17791,7 +17789,7 @@
         <v>504</v>
       </c>
       <c r="H576" s="2" t="str">
-        <f>VLOOKUP(G576,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G576,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 2L CAIXA C/6</v>
       </c>
       <c r="I576" s="3" t="s">
@@ -17819,7 +17817,7 @@
         <v>9084</v>
       </c>
       <c r="H577" s="2" t="str">
-        <f>VLOOKUP(G577,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G577,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I577" s="3" t="s">
@@ -17847,7 +17845,7 @@
         <v>19310</v>
       </c>
       <c r="H578" s="2" t="str">
-        <f>VLOOKUP(G578,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G578,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I578" s="3" t="s">
@@ -17875,7 +17873,7 @@
         <v>9081</v>
       </c>
       <c r="H579" s="2" t="str">
-        <f>VLOOKUP(G579,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G579,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I579" s="3" t="s">
@@ -17903,7 +17901,7 @@
         <v>9274</v>
       </c>
       <c r="H580" s="2" t="str">
-        <f>VLOOKUP(G580,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G580,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I580" s="3" t="s">
@@ -17931,7 +17929,7 @@
         <v>9069</v>
       </c>
       <c r="H581" s="2" t="str">
-        <f>VLOOKUP(G581,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G581,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I581" s="3" t="s">
@@ -17959,7 +17957,7 @@
         <v>9069</v>
       </c>
       <c r="H582" s="2" t="str">
-        <f>VLOOKUP(G582,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G582,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I582" s="3" t="s">
@@ -17987,7 +17985,7 @@
         <v>9096</v>
       </c>
       <c r="H583" s="2" t="str">
-        <f>VLOOKUP(G583,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G583,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I583" s="3" t="s">
@@ -18015,7 +18013,7 @@
         <v>18490</v>
       </c>
       <c r="H584" s="2" t="str">
-        <f>VLOOKUP(G584,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G584,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I584" s="3" t="s">
@@ -18043,7 +18041,7 @@
         <v>17725</v>
       </c>
       <c r="H585" s="2" t="str">
-        <f>VLOOKUP(G585,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G585,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LT 350ML SH C/18 MULTP</v>
       </c>
       <c r="I585" s="3" t="s">
@@ -18069,7 +18067,7 @@
       <c r="F586" s="3"/>
       <c r="G586" s="3"/>
       <c r="H586" s="3" t="e">
-        <f>VLOOKUP(G586,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G586,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I586" s="3" t="s">
@@ -18097,7 +18095,7 @@
         <v>14135</v>
       </c>
       <c r="H587" s="2" t="str">
-        <f>VLOOKUP(G587,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G587,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I587" s="3" t="s">
@@ -18125,7 +18123,7 @@
         <v>14135</v>
       </c>
       <c r="H588" s="2" t="str">
-        <f>VLOOKUP(G588,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G588,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I588" s="3" t="s">
@@ -18153,7 +18151,7 @@
         <v>9071</v>
       </c>
       <c r="H589" s="2" t="str">
-        <f>VLOOKUP(G589,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G589,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I589" s="3" t="s">
@@ -18179,7 +18177,7 @@
       <c r="F590" s="3"/>
       <c r="G590" s="3"/>
       <c r="H590" s="3" t="e">
-        <f>VLOOKUP(G590,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G590,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I590" s="3"/>
@@ -18205,7 +18203,7 @@
         <v>9068</v>
       </c>
       <c r="H591" s="2" t="str">
-        <f>VLOOKUP(G591,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G591,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I591" s="3" t="s">
@@ -18233,7 +18231,7 @@
         <v>12948</v>
       </c>
       <c r="H592" s="2" t="str">
-        <f>VLOOKUP(G592,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G592,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I592" s="3" t="s">
@@ -18261,7 +18259,7 @@
         <v>12948</v>
       </c>
       <c r="H593" s="2" t="str">
-        <f>VLOOKUP(G593,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G593,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I593" s="3" t="s">
@@ -18289,7 +18287,7 @@
         <v>9081</v>
       </c>
       <c r="H594" s="2" t="str">
-        <f>VLOOKUP(G594,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G594,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I594" s="3" t="s">
@@ -18317,7 +18315,7 @@
         <v>9081</v>
       </c>
       <c r="H595" s="2" t="str">
-        <f>VLOOKUP(G595,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G595,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I595" s="3" t="s">
@@ -18345,7 +18343,7 @@
         <v>9096</v>
       </c>
       <c r="H596" s="2" t="str">
-        <f>VLOOKUP(G596,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G596,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I596" s="3" t="s">
@@ -18373,7 +18371,7 @@
         <v>17797</v>
       </c>
       <c r="H597" s="2" t="str">
-        <f>VLOOKUP(G597,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G597,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I597" s="3" t="s">
@@ -18401,7 +18399,7 @@
         <v>21666</v>
       </c>
       <c r="H598" s="2" t="str">
-        <f>VLOOKUP(G598,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G598,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL TROP BR LT 250ML FOUR PACK NPAL</v>
       </c>
       <c r="I598" s="3" t="s">
@@ -18429,7 +18427,7 @@
         <v>17808</v>
       </c>
       <c r="H599" s="2" t="str">
-        <f>VLOOKUP(G599,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G599,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I599" s="3" t="s">
@@ -18457,7 +18455,7 @@
         <v>9084</v>
       </c>
       <c r="H600" s="2" t="str">
-        <f>VLOOKUP(G600,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G600,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I600" s="3" t="s">
@@ -18485,7 +18483,7 @@
         <v>9069</v>
       </c>
       <c r="H601" s="2" t="str">
-        <f>VLOOKUP(G601,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G601,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I601" s="3" t="s">
@@ -18513,7 +18511,7 @@
         <v>17797</v>
       </c>
       <c r="H602" s="2" t="str">
-        <f>VLOOKUP(G602,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G602,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I602" s="3" t="s">
@@ -18541,7 +18539,7 @@
         <v>23216</v>
       </c>
       <c r="H603" s="2" t="str">
-        <f>VLOOKUP(G603,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G603,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA IPA LATA 473ML 6PACK CARTAO</v>
       </c>
       <c r="I603" s="3" t="s">
@@ -18569,7 +18567,7 @@
         <v>9091</v>
       </c>
       <c r="H604" s="2" t="str">
-        <f>VLOOKUP(G604,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G604,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I604" s="3" t="s">
@@ -18597,7 +18595,7 @@
         <v>9096</v>
       </c>
       <c r="H605" s="2" t="str">
-        <f>VLOOKUP(G605,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G605,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I605" s="3" t="s">
@@ -18625,7 +18623,7 @@
         <v>18490</v>
       </c>
       <c r="H606" s="2" t="str">
-        <f>VLOOKUP(G606,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G606,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I606" s="3" t="s">
@@ -18653,7 +18651,7 @@
         <v>20651</v>
       </c>
       <c r="H607" s="2" t="str">
-        <f>VLOOKUP(G607,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G607,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I607" s="3" t="s">
@@ -18681,7 +18679,7 @@
         <v>20651</v>
       </c>
       <c r="H608" s="2" t="str">
-        <f>VLOOKUP(G608,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G608,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I608" s="3" t="s">
@@ -18709,7 +18707,7 @@
         <v>9068</v>
       </c>
       <c r="H609" s="2" t="str">
-        <f>VLOOKUP(G609,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G609,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I609" s="3" t="s">
@@ -18737,7 +18735,7 @@
         <v>9069</v>
       </c>
       <c r="H610" s="2" t="str">
-        <f>VLOOKUP(G610,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G610,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I610" s="3" t="s">
@@ -18765,7 +18763,7 @@
         <v>9069</v>
       </c>
       <c r="H611" s="2" t="str">
-        <f>VLOOKUP(G611,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G611,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I611" s="3" t="s">
@@ -18793,7 +18791,7 @@
         <v>18765</v>
       </c>
       <c r="H612" s="2" t="str">
-        <f>VLOOKUP(G612,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G612,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA WEISSE NAC LATA 473ML 6 PACK</v>
       </c>
       <c r="I612" s="3" t="s">
@@ -18821,7 +18819,7 @@
         <v>9069</v>
       </c>
       <c r="H613" s="2" t="str">
-        <f>VLOOKUP(G613,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G613,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I613" s="3" t="s">
@@ -18849,7 +18847,7 @@
         <v>9069</v>
       </c>
       <c r="H614" s="2" t="str">
-        <f>VLOOKUP(G614,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G614,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I614" s="3" t="s">
@@ -18877,7 +18875,7 @@
         <v>33818</v>
       </c>
       <c r="H615" s="2" t="str">
-        <f>VLOOKUP(G615,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G615,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I615" s="3" t="s">
@@ -18905,7 +18903,7 @@
         <v>504</v>
       </c>
       <c r="H616" s="2" t="str">
-        <f>VLOOKUP(G616,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G616,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 2L CAIXA C/6</v>
       </c>
       <c r="I616" s="3" t="s">
@@ -18933,7 +18931,7 @@
         <v>9093</v>
       </c>
       <c r="H617" s="2" t="str">
-        <f>VLOOKUP(G617,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G617,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I617" s="3" t="s">
@@ -18961,7 +18959,7 @@
         <v>9089</v>
       </c>
       <c r="H618" s="2" t="str">
-        <f>VLOOKUP(G618,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G618,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I618" s="3" t="s">
@@ -18989,7 +18987,7 @@
         <v>9067</v>
       </c>
       <c r="H619" s="2" t="str">
-        <f>VLOOKUP(G619,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G619,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I619" s="3" t="s">
@@ -19017,7 +19015,7 @@
         <v>9093</v>
       </c>
       <c r="H620" s="2" t="str">
-        <f>VLOOKUP(G620,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G620,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I620" s="3" t="s">
@@ -19045,7 +19043,7 @@
         <v>19729</v>
       </c>
       <c r="H621" s="2" t="str">
-        <f>VLOOKUP(G621,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G621,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LT SLEEK 350ML C 8 CX CART</v>
       </c>
       <c r="I621" s="3" t="s">
@@ -19073,7 +19071,7 @@
         <v>20651</v>
       </c>
       <c r="H622" s="2" t="str">
-        <f>VLOOKUP(G622,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G622,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I622" s="3" t="s">
@@ -19101,7 +19099,7 @@
         <v>9092</v>
       </c>
       <c r="H623" s="2" t="str">
-        <f>VLOOKUP(G623,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G623,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I623" s="3" t="s">
@@ -19129,7 +19127,7 @@
         <v>9069</v>
       </c>
       <c r="H624" s="2" t="str">
-        <f>VLOOKUP(G624,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G624,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I624" s="3" t="s">
@@ -19157,7 +19155,7 @@
         <v>18137</v>
       </c>
       <c r="H625" s="2" t="str">
-        <f>VLOOKUP(G625,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G625,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 3L C4 SH LISO</v>
       </c>
       <c r="I625" s="3" t="s">
@@ -19185,7 +19183,7 @@
         <v>9069</v>
       </c>
       <c r="H626" s="2" t="str">
-        <f>VLOOKUP(G626,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G626,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I626" s="3" t="s">
@@ -19211,7 +19209,7 @@
       <c r="F627" s="3"/>
       <c r="G627" s="3"/>
       <c r="H627" s="3" t="e">
-        <f>VLOOKUP(G627,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G627,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I627" s="3" t="s">
@@ -19239,7 +19237,7 @@
         <v>9068</v>
       </c>
       <c r="H628" s="2" t="str">
-        <f>VLOOKUP(G628,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G628,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I628" s="3" t="s">
@@ -19267,7 +19265,7 @@
         <v>9071</v>
       </c>
       <c r="H629" s="2" t="str">
-        <f>VLOOKUP(G629,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G629,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I629" s="3" t="s">
@@ -19295,7 +19293,7 @@
         <v>9068</v>
       </c>
       <c r="H630" s="2" t="str">
-        <f>VLOOKUP(G630,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G630,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I630" s="3" t="s">
@@ -19323,7 +19321,7 @@
         <v>17797</v>
       </c>
       <c r="H631" s="2" t="str">
-        <f>VLOOKUP(G631,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G631,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I631" s="3" t="s">
@@ -19351,7 +19349,7 @@
         <v>17797</v>
       </c>
       <c r="H632" s="2" t="str">
-        <f>VLOOKUP(G632,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G632,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I632" s="3" t="s">
@@ -19379,7 +19377,7 @@
         <v>504</v>
       </c>
       <c r="H633" s="2" t="str">
-        <f>VLOOKUP(G633,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G633,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 2L CAIXA C/6</v>
       </c>
       <c r="I633" s="3" t="s">
@@ -19407,7 +19405,7 @@
         <v>9068</v>
       </c>
       <c r="H634" s="2" t="str">
-        <f>VLOOKUP(G634,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G634,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I634" s="3" t="s">
@@ -19435,7 +19433,7 @@
         <v>9069</v>
       </c>
       <c r="H635" s="2" t="str">
-        <f>VLOOKUP(G635,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G635,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I635" s="3" t="s">
@@ -19463,7 +19461,7 @@
         <v>9320</v>
       </c>
       <c r="H636" s="2" t="str">
-        <f>VLOOKUP(G636,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G636,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I636" s="3" t="s">
@@ -19491,7 +19489,7 @@
         <v>19310</v>
       </c>
       <c r="H637" s="2" t="str">
-        <f>VLOOKUP(G637,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G637,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I637" s="3" t="s">
@@ -19519,7 +19517,7 @@
         <v>9081</v>
       </c>
       <c r="H638" s="2" t="str">
-        <f>VLOOKUP(G638,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G638,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I638" s="3" t="s">
@@ -19547,7 +19545,7 @@
         <v>9320</v>
       </c>
       <c r="H639" s="2" t="str">
-        <f>VLOOKUP(G639,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G639,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I639" s="3" t="s">
@@ -19575,7 +19573,7 @@
         <v>17797</v>
       </c>
       <c r="H640" s="2" t="str">
-        <f>VLOOKUP(G640,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G640,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I640" s="3" t="s">
@@ -19603,7 +19601,7 @@
         <v>371</v>
       </c>
       <c r="H641" s="2" t="str">
-        <f>VLOOKUP(G641,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G641,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LN355ML SIX PAC BAND C/4</v>
       </c>
       <c r="I641" s="3" t="s">
@@ -19631,7 +19629,7 @@
         <v>12948</v>
       </c>
       <c r="H642" s="2" t="str">
-        <f>VLOOKUP(G642,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G642,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I642" s="3" t="s">
@@ -19659,7 +19657,7 @@
         <v>41</v>
       </c>
       <c r="H643" s="3" t="e">
-        <f>VLOOKUP(G643,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G643,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I643" s="3" t="s">
@@ -19687,7 +19685,7 @@
         <v>21658</v>
       </c>
       <c r="H644" s="2" t="str">
-        <f>VLOOKUP(G644,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G644,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I644" s="3" t="s">
@@ -19715,7 +19713,7 @@
         <v>12948</v>
       </c>
       <c r="H645" s="2" t="str">
-        <f>VLOOKUP(G645,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G645,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I645" s="3" t="s">
@@ -19743,7 +19741,7 @@
         <v>9067</v>
       </c>
       <c r="H646" s="2" t="str">
-        <f>VLOOKUP(G646,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G646,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I646" s="3" t="s">
@@ -19771,7 +19769,7 @@
         <v>21020</v>
       </c>
       <c r="H647" s="2" t="str">
-        <f>VLOOKUP(G647,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G647,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I647" s="3" t="s">
@@ -19799,7 +19797,7 @@
         <v>9968</v>
       </c>
       <c r="H648" s="2" t="e">
-        <f>VLOOKUP(G648,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G648,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I648" s="3" t="s">
@@ -19827,7 +19825,7 @@
         <v>21658</v>
       </c>
       <c r="H649" s="2" t="str">
-        <f>VLOOKUP(G649,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G649,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I649" s="3" t="s">
@@ -19855,7 +19853,7 @@
         <v>9068</v>
       </c>
       <c r="H650" s="2" t="str">
-        <f>VLOOKUP(G650,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G650,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I650" s="3" t="s">
@@ -19883,7 +19881,7 @@
         <v>22177</v>
       </c>
       <c r="H651" s="2" t="str">
-        <f>VLOOKUP(G651,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G651,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I651" s="3" t="s">
@@ -19911,7 +19909,7 @@
         <v>9274</v>
       </c>
       <c r="H652" s="2" t="str">
-        <f>VLOOKUP(G652,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G652,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I652" s="3" t="s">
@@ -19939,7 +19937,7 @@
         <v>18490</v>
       </c>
       <c r="H653" s="2" t="str">
-        <f>VLOOKUP(G653,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G653,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I653" s="3" t="s">
@@ -19967,7 +19965,7 @@
         <v>9274</v>
       </c>
       <c r="H654" s="2" t="str">
-        <f>VLOOKUP(G654,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G654,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I654" s="3" t="s">
@@ -19995,7 +19993,7 @@
         <v>24306</v>
       </c>
       <c r="H655" s="2" t="str">
-        <f>VLOOKUP(G655,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G655,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL MELANCIA LT 250ML FOUR PACK NPA</v>
       </c>
       <c r="I655" s="3" t="s">
@@ -20023,7 +20021,7 @@
         <v>9069</v>
       </c>
       <c r="H656" s="2" t="str">
-        <f>VLOOKUP(G656,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G656,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I656" s="3" t="s">
@@ -20051,7 +20049,7 @@
         <v>9089</v>
       </c>
       <c r="H657" s="2" t="str">
-        <f>VLOOKUP(G657,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G657,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I657" s="3" t="s">
@@ -20079,7 +20077,7 @@
         <v>42</v>
       </c>
       <c r="H658" s="3" t="e">
-        <f>VLOOKUP(G658,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G658,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I658" s="3" t="s">
@@ -20107,7 +20105,7 @@
         <v>9089</v>
       </c>
       <c r="H659" s="2" t="str">
-        <f>VLOOKUP(G659,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G659,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I659" s="3" t="s">
@@ -20135,7 +20133,7 @@
         <v>1745</v>
       </c>
       <c r="H660" s="2" t="str">
-        <f>VLOOKUP(G660,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G660,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I660" s="3" t="s">
@@ -20163,7 +20161,7 @@
         <v>32473</v>
       </c>
       <c r="H661" s="2" t="str">
-        <f>VLOOKUP(G661,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G661,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ART PUR GOLD LT 473ML CX CART C12</v>
       </c>
       <c r="I661" s="3" t="s">
@@ -20191,7 +20189,7 @@
         <v>9085</v>
       </c>
       <c r="H662" s="2" t="str">
-        <f>VLOOKUP(G662,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G662,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I662" s="3" t="s">
@@ -20219,7 +20217,7 @@
         <v>30045</v>
       </c>
       <c r="H663" s="2" t="str">
-        <f>VLOOKUP(G663,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G663,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 473ML CX C 12</v>
       </c>
       <c r="I663" s="3" t="s">
@@ -20247,7 +20245,7 @@
         <v>32473</v>
       </c>
       <c r="H664" s="2" t="str">
-        <f>VLOOKUP(G664,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G664,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ART PUR GOLD LT 473ML CX CART C12</v>
       </c>
       <c r="I664" s="3" t="s">
@@ -20275,7 +20273,7 @@
         <v>34608</v>
       </c>
       <c r="H665" s="2" t="str">
-        <f>VLOOKUP(G665,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G665,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I665" s="3" t="s">
@@ -20303,7 +20301,7 @@
         <v>34608</v>
       </c>
       <c r="H666" s="2" t="str">
-        <f>VLOOKUP(G666,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G666,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I666" s="3" t="s">
@@ -20331,7 +20329,7 @@
         <v>9068</v>
       </c>
       <c r="H667" s="2" t="str">
-        <f>VLOOKUP(G667,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G667,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I667" s="3" t="s">
@@ -20359,7 +20357,7 @@
         <v>24306</v>
       </c>
       <c r="H668" s="2" t="str">
-        <f>VLOOKUP(G668,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G668,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL MELANCIA LT 250ML FOUR PACK NPA</v>
       </c>
       <c r="I668" s="3" t="s">
@@ -20387,7 +20385,7 @@
         <v>4409</v>
       </c>
       <c r="H669" s="2" t="str">
-        <f>VLOOKUP(G669,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G669,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST PET 2L SHRINK C/6</v>
       </c>
       <c r="I669" s="3" t="s">
@@ -20415,7 +20413,7 @@
         <v>17797</v>
       </c>
       <c r="H670" s="2" t="str">
-        <f>VLOOKUP(G670,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G670,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I670" s="3" t="s">
@@ -20441,7 +20439,7 @@
       <c r="F671" s="3"/>
       <c r="G671" s="3"/>
       <c r="H671" s="3" t="e">
-        <f>VLOOKUP(G671,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G671,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I671" s="3" t="s">
@@ -20467,7 +20465,7 @@
       <c r="F672" s="3"/>
       <c r="G672" s="3"/>
       <c r="H672" s="3" t="e">
-        <f>VLOOKUP(G672,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G672,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I672" s="3" t="s">
@@ -20495,7 +20493,7 @@
         <v>43</v>
       </c>
       <c r="H673" s="3" t="e">
-        <f>VLOOKUP(G673,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G673,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I673" s="3" t="s">
@@ -20523,7 +20521,7 @@
         <v>9081</v>
       </c>
       <c r="H674" s="2" t="str">
-        <f>VLOOKUP(G674,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G674,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I674" s="3" t="s">
@@ -20551,7 +20549,7 @@
         <v>14138</v>
       </c>
       <c r="H675" s="2" t="str">
-        <f>VLOOKUP(G675,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G675,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS SENSES LT 473ML SP SH C/2 NPA</v>
       </c>
       <c r="I675" s="3" t="s">
@@ -20579,7 +20577,7 @@
         <v>21666</v>
       </c>
       <c r="H676" s="2" t="str">
-        <f>VLOOKUP(G676,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G676,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL TROP BR LT 250ML FOUR PACK NPAL</v>
       </c>
       <c r="I676" s="3" t="s">
@@ -20607,7 +20605,7 @@
         <v>12948</v>
       </c>
       <c r="H677" s="2" t="str">
-        <f>VLOOKUP(G677,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G677,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I677" s="3" t="s">
@@ -20635,7 +20633,7 @@
         <v>9069</v>
       </c>
       <c r="H678" s="2" t="str">
-        <f>VLOOKUP(G678,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G678,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I678" s="3" t="s">
@@ -20663,7 +20661,7 @@
         <v>13566</v>
       </c>
       <c r="H679" s="2" t="str">
-        <f>VLOOKUP(G679,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G679,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS SENSES LATA 269ML CX C/8 FRID</v>
       </c>
       <c r="I679" s="3" t="s">
@@ -20691,7 +20689,7 @@
         <v>19310</v>
       </c>
       <c r="H680" s="2" t="str">
-        <f>VLOOKUP(G680,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G680,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I680" s="3" t="s">
@@ -20719,7 +20717,7 @@
         <v>9069</v>
       </c>
       <c r="H681" s="2" t="str">
-        <f>VLOOKUP(G681,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G681,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I681" s="3" t="s">
@@ -20747,7 +20745,7 @@
         <v>9071</v>
       </c>
       <c r="H682" s="2" t="str">
-        <f>VLOOKUP(G682,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G682,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I682" s="3" t="s">
@@ -20775,7 +20773,7 @@
         <v>44</v>
       </c>
       <c r="H683" s="3" t="e">
-        <f>VLOOKUP(G683,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G683,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I683" s="3" t="s">
@@ -20803,7 +20801,7 @@
         <v>9091</v>
       </c>
       <c r="H684" s="2" t="str">
-        <f>VLOOKUP(G684,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G684,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I684" s="3" t="s">
@@ -20831,7 +20829,7 @@
         <v>9071</v>
       </c>
       <c r="H685" s="2" t="str">
-        <f>VLOOKUP(G685,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G685,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I685" s="3" t="s">
@@ -20859,7 +20857,7 @@
         <v>9320</v>
       </c>
       <c r="H686" s="2" t="str">
-        <f>VLOOKUP(G686,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G686,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I686" s="3" t="s">
@@ -20887,7 +20885,7 @@
         <v>19229</v>
       </c>
       <c r="H687" s="2" t="str">
-        <f>VLOOKUP(G687,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G687,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML SIX PACK NPAL</v>
       </c>
       <c r="I687" s="3" t="s">
@@ -20915,7 +20913,7 @@
         <v>9081</v>
       </c>
       <c r="H688" s="2" t="str">
-        <f>VLOOKUP(G688,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G688,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I688" s="3" t="s">
@@ -20943,7 +20941,7 @@
         <v>12948</v>
       </c>
       <c r="H689" s="2" t="str">
-        <f>VLOOKUP(G689,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G689,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I689" s="3" t="s">
@@ -20971,7 +20969,7 @@
         <v>14135</v>
       </c>
       <c r="H690" s="2" t="str">
-        <f>VLOOKUP(G690,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G690,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I690" s="3" t="s">
@@ -20999,7 +20997,7 @@
         <v>9071</v>
       </c>
       <c r="H691" s="2" t="str">
-        <f>VLOOKUP(G691,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G691,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I691" s="3" t="s">
@@ -21027,7 +21025,7 @@
         <v>17797</v>
       </c>
       <c r="H692" s="2" t="str">
-        <f>VLOOKUP(G692,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G692,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I692" s="3" t="s">
@@ -21055,7 +21053,7 @@
         <v>9068</v>
       </c>
       <c r="H693" s="2" t="str">
-        <f>VLOOKUP(G693,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G693,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I693" s="3" t="s">
@@ -21083,7 +21081,7 @@
         <v>9069</v>
       </c>
       <c r="H694" s="2" t="str">
-        <f>VLOOKUP(G694,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G694,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I694" s="3" t="s">
@@ -21111,7 +21109,7 @@
         <v>9071</v>
       </c>
       <c r="H695" s="2" t="str">
-        <f>VLOOKUP(G695,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G695,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I695" s="3" t="s">
@@ -21139,7 +21137,7 @@
         <v>19310</v>
       </c>
       <c r="H696" s="2" t="str">
-        <f>VLOOKUP(G696,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G696,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I696" s="3" t="s">
@@ -21167,7 +21165,7 @@
         <v>503</v>
       </c>
       <c r="H697" s="2" t="str">
-        <f>VLOOKUP(G697,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G697,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA PET 2L CAIXA C/6</v>
       </c>
       <c r="I697" s="3" t="s">
@@ -21195,7 +21193,7 @@
         <v>9069</v>
       </c>
       <c r="H698" s="2" t="str">
-        <f>VLOOKUP(G698,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G698,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I698" s="3" t="s">
@@ -21223,7 +21221,7 @@
         <v>9071</v>
       </c>
       <c r="H699" s="2" t="str">
-        <f>VLOOKUP(G699,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G699,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I699" s="3" t="s">
@@ -21251,7 +21249,7 @@
         <v>9071</v>
       </c>
       <c r="H700" s="2" t="str">
-        <f>VLOOKUP(G700,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G700,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I700" s="3" t="s">
@@ -21279,7 +21277,7 @@
         <v>23263</v>
       </c>
       <c r="H701" s="2" t="e">
-        <f>VLOOKUP(G701,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G701,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I701" s="3" t="s">
@@ -21307,7 +21305,7 @@
         <v>45</v>
       </c>
       <c r="H702" s="3" t="e">
-        <f>VLOOKUP(G702,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G702,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I702" s="3" t="s">
@@ -21335,7 +21333,7 @@
         <v>46</v>
       </c>
       <c r="H703" s="3" t="e">
-        <f>VLOOKUP(G703,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G703,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I703" s="3" t="s">
@@ -21363,7 +21361,7 @@
         <v>47</v>
       </c>
       <c r="H704" s="3" t="e">
-        <f>VLOOKUP(G704,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G704,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I704" s="3" t="s">
@@ -21391,7 +21389,7 @@
         <v>48</v>
       </c>
       <c r="H705" s="3" t="e">
-        <f>VLOOKUP(G705,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G705,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I705" s="3" t="s">
@@ -21419,7 +21417,7 @@
         <v>9067</v>
       </c>
       <c r="H706" s="2" t="str">
-        <f>VLOOKUP(G706,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G706,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I706" s="3" t="s">
@@ -21447,7 +21445,7 @@
         <v>9067</v>
       </c>
       <c r="H707" s="2" t="str">
-        <f>VLOOKUP(G707,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G707,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I707" s="3" t="s">
@@ -21475,7 +21473,7 @@
         <v>20651</v>
       </c>
       <c r="H708" s="2" t="str">
-        <f>VLOOKUP(G708,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G708,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I708" s="3" t="s">
@@ -21503,7 +21501,7 @@
         <v>9081</v>
       </c>
       <c r="H709" s="2" t="str">
-        <f>VLOOKUP(G709,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G709,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I709" s="3" t="s">
@@ -21531,7 +21529,7 @@
         <v>18765</v>
       </c>
       <c r="H710" s="2" t="str">
-        <f>VLOOKUP(G710,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G710,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA WEISSE NAC LATA 473ML 6 PACK</v>
       </c>
       <c r="I710" s="3" t="s">
@@ -21559,7 +21557,7 @@
         <v>14135</v>
       </c>
       <c r="H711" s="2" t="str">
-        <f>VLOOKUP(G711,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G711,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I711" s="3" t="s">
@@ -21587,7 +21585,7 @@
         <v>9081</v>
       </c>
       <c r="H712" s="2" t="str">
-        <f>VLOOKUP(G712,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G712,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I712" s="3" t="s">
@@ -21615,7 +21613,7 @@
         <v>9089</v>
       </c>
       <c r="H713" s="2" t="str">
-        <f>VLOOKUP(G713,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G713,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I713" s="3" t="s">
@@ -21643,7 +21641,7 @@
         <v>9096</v>
       </c>
       <c r="H714" s="2" t="str">
-        <f>VLOOKUP(G714,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G714,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I714" s="3" t="s">
@@ -21671,7 +21669,7 @@
         <v>9067</v>
       </c>
       <c r="H715" s="2" t="str">
-        <f>VLOOKUP(G715,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G715,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I715" s="3" t="s">
@@ -21699,7 +21697,7 @@
         <v>9085</v>
       </c>
       <c r="H716" s="2" t="str">
-        <f>VLOOKUP(G716,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G716,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I716" s="3" t="s">
@@ -21727,7 +21725,7 @@
         <v>19310</v>
       </c>
       <c r="H717" s="2" t="str">
-        <f>VLOOKUP(G717,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G717,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I717" s="3" t="s">
@@ -21755,7 +21753,7 @@
         <v>9068</v>
       </c>
       <c r="H718" s="2" t="str">
-        <f>VLOOKUP(G718,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G718,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I718" s="3" t="s">
@@ -21783,7 +21781,7 @@
         <v>18807</v>
       </c>
       <c r="H719" s="2" t="str">
-        <f>VLOOKUP(G719,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G719,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I719" s="3" t="s">
@@ -21811,7 +21809,7 @@
         <v>9092</v>
       </c>
       <c r="H720" s="2" t="str">
-        <f>VLOOKUP(G720,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G720,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I720" s="3" t="s">
@@ -21839,7 +21837,7 @@
         <v>14135</v>
       </c>
       <c r="H721" s="2" t="str">
-        <f>VLOOKUP(G721,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G721,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I721" s="3" t="s">
@@ -21867,7 +21865,7 @@
         <v>9320</v>
       </c>
       <c r="H722" s="2" t="str">
-        <f>VLOOKUP(G722,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G722,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I722" s="3" t="s">
@@ -21895,7 +21893,7 @@
         <v>34608</v>
       </c>
       <c r="H723" s="2" t="str">
-        <f>VLOOKUP(G723,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G723,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I723" s="3" t="s">
@@ -21923,7 +21921,7 @@
         <v>19310</v>
       </c>
       <c r="H724" s="2" t="str">
-        <f>VLOOKUP(G724,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G724,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I724" s="3" t="s">
@@ -21951,7 +21949,7 @@
         <v>9069</v>
       </c>
       <c r="H725" s="2" t="str">
-        <f>VLOOKUP(G725,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G725,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I725" s="3" t="s">
@@ -21979,7 +21977,7 @@
         <v>9085</v>
       </c>
       <c r="H726" s="2" t="str">
-        <f>VLOOKUP(G726,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G726,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I726" s="3" t="s">
@@ -22007,7 +22005,7 @@
         <v>9068</v>
       </c>
       <c r="H727" s="2" t="str">
-        <f>VLOOKUP(G727,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G727,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I727" s="3" t="s">
@@ -22035,7 +22033,7 @@
         <v>17797</v>
       </c>
       <c r="H728" s="2" t="str">
-        <f>VLOOKUP(G728,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G728,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I728" s="3" t="s">
@@ -22063,7 +22061,7 @@
         <v>2349</v>
       </c>
       <c r="H729" s="2" t="str">
-        <f>VLOOKUP(G729,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G729,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I729" s="3" t="s">
@@ -22091,7 +22089,7 @@
         <v>8923</v>
       </c>
       <c r="H730" s="2" t="str">
-        <f>VLOOKUP(G730,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G730,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 600ML CX C/12 NPAL</v>
       </c>
       <c r="I730" s="3" t="s">
@@ -22119,7 +22117,7 @@
         <v>49</v>
       </c>
       <c r="H731" s="3" t="e">
-        <f>VLOOKUP(G731,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G731,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I731" s="3" t="s">
@@ -22147,7 +22145,7 @@
         <v>50</v>
       </c>
       <c r="H732" s="3" t="e">
-        <f>VLOOKUP(G732,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G732,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I732" s="3" t="s">
@@ -22175,7 +22173,7 @@
         <v>21020</v>
       </c>
       <c r="H733" s="2" t="str">
-        <f>VLOOKUP(G733,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G733,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I733" s="3" t="s">
@@ -22203,7 +22201,7 @@
         <v>17797</v>
       </c>
       <c r="H734" s="2" t="str">
-        <f>VLOOKUP(G734,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G734,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I734" s="3" t="s">
@@ -22231,7 +22229,7 @@
         <v>9067</v>
       </c>
       <c r="H735" s="2" t="str">
-        <f>VLOOKUP(G735,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G735,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I735" s="3" t="s">
@@ -22259,7 +22257,7 @@
         <v>9083</v>
       </c>
       <c r="H736" s="2" t="str">
-        <f>VLOOKUP(G736,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G736,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I736" s="3" t="s">
@@ -22287,7 +22285,7 @@
         <v>9096</v>
       </c>
       <c r="H737" s="2" t="str">
-        <f>VLOOKUP(G737,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G737,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I737" s="3" t="s">
@@ -22315,7 +22313,7 @@
         <v>9071</v>
       </c>
       <c r="H738" s="2" t="str">
-        <f>VLOOKUP(G738,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G738,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I738" s="3" t="s">
@@ -22343,7 +22341,7 @@
         <v>33734</v>
       </c>
       <c r="H739" s="2" t="str">
-        <f>VLOOKUP(G739,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G739,Produtos!A:B,2,FALSE)</f>
         <v>BEATS RED MIX LT 269ML SH C/8</v>
       </c>
       <c r="I739" s="3"/>
@@ -22367,7 +22365,7 @@
       <c r="F740" s="3"/>
       <c r="G740" s="3"/>
       <c r="H740" s="3" t="e">
-        <f>VLOOKUP(G740,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G740,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I740" s="3" t="s">
@@ -22395,7 +22393,7 @@
         <v>9320</v>
       </c>
       <c r="H741" s="2" t="str">
-        <f>VLOOKUP(G741,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G741,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I741" s="3" t="s">
@@ -22423,7 +22421,7 @@
         <v>19225</v>
       </c>
       <c r="H742" s="2" t="str">
-        <f>VLOOKUP(G742,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G742,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL BR LATA 250ML CAIXA C/24</v>
       </c>
       <c r="I742" s="3" t="s">
@@ -22451,7 +22449,7 @@
         <v>9068</v>
       </c>
       <c r="H743" s="2" t="str">
-        <f>VLOOKUP(G743,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G743,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I743" s="3" t="s">
@@ -22479,7 +22477,7 @@
         <v>21666</v>
       </c>
       <c r="H744" s="2" t="str">
-        <f>VLOOKUP(G744,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G744,Produtos!A:B,2,FALSE)</f>
         <v>RED BULL TROP BR LT 250ML FOUR PACK NPAL</v>
       </c>
       <c r="I744" s="3" t="s">
@@ -22507,7 +22505,7 @@
         <v>22177</v>
       </c>
       <c r="H745" s="2" t="str">
-        <f>VLOOKUP(G745,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G745,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I745" s="3" t="s">
@@ -22535,7 +22533,7 @@
         <v>12951</v>
       </c>
       <c r="H746" s="2" t="str">
-        <f>VLOOKUP(G746,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G746,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LN 355 SIXP CX CART C4</v>
       </c>
       <c r="I746" s="3" t="s">
@@ -22563,7 +22561,7 @@
         <v>19310</v>
       </c>
       <c r="H747" s="2" t="str">
-        <f>VLOOKUP(G747,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G747,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I747" s="3" t="s">
@@ -22591,7 +22589,7 @@
         <v>6903</v>
       </c>
       <c r="H748" s="2" t="str">
-        <f>VLOOKUP(G748,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G748,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA S/G PVC 500ML CAIXA C/1</v>
       </c>
       <c r="I748" s="3" t="s">
@@ -22619,7 +22617,7 @@
         <v>9089</v>
       </c>
       <c r="H749" s="2" t="str">
-        <f>VLOOKUP(G749,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G749,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I749" s="3" t="s">
@@ -22647,7 +22645,7 @@
         <v>9096</v>
       </c>
       <c r="H750" s="2" t="str">
-        <f>VLOOKUP(G750,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G750,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I750" s="3" t="s">
@@ -22673,7 +22671,7 @@
       <c r="F751" s="3"/>
       <c r="G751" s="3"/>
       <c r="H751" s="3" t="e">
-        <f>VLOOKUP(G751,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G751,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I751" s="3"/>
@@ -22699,7 +22697,7 @@
         <v>1898</v>
       </c>
       <c r="H752" s="2" t="str">
-        <f>VLOOKUP(G752,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G752,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 269ML SH C/15 NPAL</v>
       </c>
       <c r="I752" s="3" t="s">
@@ -22727,7 +22725,7 @@
         <v>22177</v>
       </c>
       <c r="H753" s="2" t="str">
-        <f>VLOOKUP(G753,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G753,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I753" s="3" t="s">
@@ -22755,7 +22753,7 @@
         <v>20498</v>
       </c>
       <c r="H754" s="2" t="str">
-        <f>VLOOKUP(G754,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G754,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I754" s="3" t="s">
@@ -22783,7 +22781,7 @@
         <v>2349</v>
       </c>
       <c r="H755" s="2" t="str">
-        <f>VLOOKUP(G755,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G755,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I755" s="3" t="s">
@@ -22811,7 +22809,7 @@
         <v>20498</v>
       </c>
       <c r="H756" s="2" t="str">
-        <f>VLOOKUP(G756,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G756,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I756" s="3" t="s">
@@ -22839,7 +22837,7 @@
         <v>9096</v>
       </c>
       <c r="H757" s="2" t="str">
-        <f>VLOOKUP(G757,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G757,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I757" s="3" t="s">
@@ -22867,7 +22865,7 @@
         <v>14135</v>
       </c>
       <c r="H758" s="2" t="str">
-        <f>VLOOKUP(G758,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G758,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I758" s="3" t="s">
@@ -22895,7 +22893,7 @@
         <v>2132</v>
       </c>
       <c r="H759" s="2" t="str">
-        <f>VLOOKUP(G759,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G759,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET1L CX C/6 NRIO</v>
       </c>
       <c r="I759" s="3" t="s">
@@ -22923,7 +22921,7 @@
         <v>21020</v>
       </c>
       <c r="H760" s="2" t="str">
-        <f>VLOOKUP(G760,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G760,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I760" s="3" t="s">
@@ -22949,7 +22947,7 @@
       <c r="F761" s="3"/>
       <c r="G761" s="3"/>
       <c r="H761" s="3" t="e">
-        <f>VLOOKUP(G761,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G761,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I761" s="3" t="s">
@@ -22977,7 +22975,7 @@
         <v>17808</v>
       </c>
       <c r="H762" s="2" t="str">
-        <f>VLOOKUP(G762,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G762,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I762" s="3" t="s">
@@ -23005,7 +23003,7 @@
         <v>9085</v>
       </c>
       <c r="H763" s="2" t="str">
-        <f>VLOOKUP(G763,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G763,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I763" s="3" t="s">
@@ -23033,7 +23031,7 @@
         <v>9081</v>
       </c>
       <c r="H764" s="2" t="str">
-        <f>VLOOKUP(G764,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G764,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I764" s="3" t="s">
@@ -23061,7 +23059,7 @@
         <v>17797</v>
       </c>
       <c r="H765" s="2" t="str">
-        <f>VLOOKUP(G765,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G765,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I765" s="3" t="s">
@@ -23089,7 +23087,7 @@
         <v>17797</v>
       </c>
       <c r="H766" s="2" t="str">
-        <f>VLOOKUP(G766,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G766,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I766" s="3" t="s">
@@ -23117,7 +23115,7 @@
         <v>9068</v>
       </c>
       <c r="H767" s="2" t="str">
-        <f>VLOOKUP(G767,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G767,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I767" s="3" t="s">
@@ -23145,7 +23143,7 @@
         <v>9069</v>
       </c>
       <c r="H768" s="2" t="str">
-        <f>VLOOKUP(G768,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G768,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I768" s="3" t="s">
@@ -23173,7 +23171,7 @@
         <v>14135</v>
       </c>
       <c r="H769" s="2" t="str">
-        <f>VLOOKUP(G769,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G769,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I769" s="3" t="s">
@@ -23201,7 +23199,7 @@
         <v>9071</v>
       </c>
       <c r="H770" s="2" t="str">
-        <f>VLOOKUP(G770,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G770,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I770" s="3" t="s">
@@ -23229,7 +23227,7 @@
         <v>8336</v>
       </c>
       <c r="H771" s="2" t="str">
-        <f>VLOOKUP(G771,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G771,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL ONE WAY 600ML CX 12</v>
       </c>
       <c r="I771" s="3" t="s">
@@ -23257,7 +23255,7 @@
         <v>9067</v>
       </c>
       <c r="H772" s="2" t="str">
-        <f>VLOOKUP(G772,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G772,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I772" s="3" t="s">
@@ -23285,7 +23283,7 @@
         <v>19310</v>
       </c>
       <c r="H773" s="2" t="str">
-        <f>VLOOKUP(G773,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G773,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I773" s="3" t="s">
@@ -23313,7 +23311,7 @@
         <v>19310</v>
       </c>
       <c r="H774" s="2" t="str">
-        <f>VLOOKUP(G774,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G774,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I774" s="3" t="s">
@@ -23341,7 +23339,7 @@
         <v>17678</v>
       </c>
       <c r="H775" s="2" t="str">
-        <f>VLOOKUP(G775,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G775,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/18 NPAL MULTPACK</v>
       </c>
       <c r="I775" s="3" t="s">
@@ -23369,7 +23367,7 @@
         <v>17797</v>
       </c>
       <c r="H776" s="2" t="str">
-        <f>VLOOKUP(G776,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G776,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I776" s="3" t="s">
@@ -23397,7 +23395,7 @@
         <v>19321</v>
       </c>
       <c r="H777" s="2" t="str">
-        <f>VLOOKUP(G777,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G777,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA ANTARCTICA ZERO PET 200ML SH C12</v>
       </c>
       <c r="I777" s="3" t="s">
@@ -23425,7 +23423,7 @@
         <v>9069</v>
       </c>
       <c r="H778" s="2" t="str">
-        <f>VLOOKUP(G778,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G778,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I778" s="3" t="s">
@@ -23453,7 +23451,7 @@
         <v>9320</v>
       </c>
       <c r="H779" s="2" t="str">
-        <f>VLOOKUP(G779,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G779,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I779" s="3" t="s">
@@ -23481,7 +23479,7 @@
         <v>9089</v>
       </c>
       <c r="H780" s="2" t="str">
-        <f>VLOOKUP(G780,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G780,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I780" s="3" t="s">
@@ -23509,7 +23507,7 @@
         <v>9069</v>
       </c>
       <c r="H781" s="2" t="str">
-        <f>VLOOKUP(G781,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G781,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I781" s="3" t="s">
@@ -23537,7 +23535,7 @@
         <v>9085</v>
       </c>
       <c r="H782" s="2" t="str">
-        <f>VLOOKUP(G782,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G782,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I782" s="3" t="s">
@@ -23565,7 +23563,7 @@
         <v>9091</v>
       </c>
       <c r="H783" s="2" t="str">
-        <f>VLOOKUP(G783,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G783,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I783" s="3" t="s">
@@ -23593,7 +23591,7 @@
         <v>9320</v>
       </c>
       <c r="H784" s="2" t="str">
-        <f>VLOOKUP(G784,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G784,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I784" s="3" t="s">
@@ -23621,7 +23619,7 @@
         <v>9096</v>
       </c>
       <c r="H785" s="2" t="str">
-        <f>VLOOKUP(G785,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G785,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I785" s="3" t="s">
@@ -23649,7 +23647,7 @@
         <v>17808</v>
       </c>
       <c r="H786" s="2" t="str">
-        <f>VLOOKUP(G786,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G786,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I786" s="3" t="s">
@@ -23677,7 +23675,7 @@
         <v>21020</v>
       </c>
       <c r="H787" s="2" t="str">
-        <f>VLOOKUP(G787,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G787,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I787" s="3" t="s">
@@ -23705,7 +23703,7 @@
         <v>21020</v>
       </c>
       <c r="H788" s="2" t="str">
-        <f>VLOOKUP(G788,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G788,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I788" s="3" t="s">
@@ -23733,7 +23731,7 @@
         <v>2349</v>
       </c>
       <c r="H789" s="2" t="str">
-        <f>VLOOKUP(G789,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G789,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I789" s="3" t="s">
@@ -23761,7 +23759,7 @@
         <v>9084</v>
       </c>
       <c r="H790" s="2" t="str">
-        <f>VLOOKUP(G790,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G790,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I790" s="3" t="s">
@@ -23789,7 +23787,7 @@
         <v>26699</v>
       </c>
       <c r="H791" s="2" t="str">
-        <f>VLOOKUP(G791,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G791,Produtos!A:B,2,FALSE)</f>
         <v>GUAR. CHP ANT PET 2,25L SH C6 250ML GRAT</v>
       </c>
       <c r="I791" s="3" t="s">
@@ -23817,7 +23815,7 @@
         <v>12951</v>
       </c>
       <c r="H792" s="2" t="str">
-        <f>VLOOKUP(G792,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G792,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LN 355 SIXP CX CART C4</v>
       </c>
       <c r="I792" s="3" t="s">
@@ -23845,7 +23843,7 @@
         <v>12948</v>
       </c>
       <c r="H793" s="2" t="str">
-        <f>VLOOKUP(G793,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G793,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I793" s="3" t="s">
@@ -23871,7 +23869,7 @@
       <c r="F794" s="3"/>
       <c r="G794" s="3"/>
       <c r="H794" s="3" t="e">
-        <f>VLOOKUP(G794,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G794,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I794" s="3"/>
@@ -23897,7 +23895,7 @@
         <v>17797</v>
       </c>
       <c r="H795" s="2" t="str">
-        <f>VLOOKUP(G795,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G795,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I795" s="3" t="s">
@@ -23925,7 +23923,7 @@
         <v>9320</v>
       </c>
       <c r="H796" s="2" t="str">
-        <f>VLOOKUP(G796,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G796,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I796" s="3" t="s">
@@ -23953,7 +23951,7 @@
         <v>17678</v>
       </c>
       <c r="H797" s="2" t="str">
-        <f>VLOOKUP(G797,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G797,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/18 NPAL MULTPACK</v>
       </c>
       <c r="I797" s="3" t="s">
@@ -23981,7 +23979,7 @@
         <v>22177</v>
       </c>
       <c r="H798" s="2" t="str">
-        <f>VLOOKUP(G798,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G798,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I798" s="3" t="s">
@@ -24009,7 +24007,7 @@
         <v>9069</v>
       </c>
       <c r="H799" s="2" t="str">
-        <f>VLOOKUP(G799,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G799,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I799" s="3" t="s">
@@ -24037,7 +24035,7 @@
         <v>9069</v>
       </c>
       <c r="H800" s="2" t="str">
-        <f>VLOOKUP(G800,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G800,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I800" s="3" t="s">
@@ -24065,7 +24063,7 @@
         <v>23163</v>
       </c>
       <c r="H801" s="2" t="str">
-        <f>VLOOKUP(G801,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G801,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA TUBAINA PET 2L SHRINK C/6</v>
       </c>
       <c r="I801" s="3" t="s">
@@ -24091,7 +24089,7 @@
       <c r="F802" s="3"/>
       <c r="G802" s="3"/>
       <c r="H802" s="3" t="e">
-        <f>VLOOKUP(G802,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G802,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I802" s="3" t="s">
@@ -24119,7 +24117,7 @@
         <v>17797</v>
       </c>
       <c r="H803" s="2" t="str">
-        <f>VLOOKUP(G803,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G803,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I803" s="3" t="s">
@@ -24147,7 +24145,7 @@
         <v>9091</v>
       </c>
       <c r="H804" s="2" t="str">
-        <f>VLOOKUP(G804,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G804,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I804" s="3" t="s">
@@ -24175,7 +24173,7 @@
         <v>9091</v>
       </c>
       <c r="H805" s="2" t="str">
-        <f>VLOOKUP(G805,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G805,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I805" s="3" t="s">
@@ -24203,7 +24201,7 @@
         <v>9069</v>
       </c>
       <c r="H806" s="2" t="str">
-        <f>VLOOKUP(G806,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G806,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I806" s="3" t="s">
@@ -24231,7 +24229,7 @@
         <v>19310</v>
       </c>
       <c r="H807" s="2" t="str">
-        <f>VLOOKUP(G807,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G807,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I807" s="3" t="s">
@@ -24257,7 +24255,7 @@
       <c r="F808" s="3"/>
       <c r="G808" s="3"/>
       <c r="H808" s="3" t="e">
-        <f>VLOOKUP(G808,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G808,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I808" s="3" t="s">
@@ -24285,7 +24283,7 @@
         <v>21658</v>
       </c>
       <c r="H809" s="2" t="str">
-        <f>VLOOKUP(G809,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G809,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I809" s="3" t="s">
@@ -24313,7 +24311,7 @@
         <v>51</v>
       </c>
       <c r="H810" s="3" t="e">
-        <f>VLOOKUP(G810,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G810,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I810" s="3" t="s">
@@ -24339,7 +24337,7 @@
       <c r="F811" s="3"/>
       <c r="G811" s="3"/>
       <c r="H811" s="3" t="e">
-        <f>VLOOKUP(G811,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G811,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I811" s="3" t="s">
@@ -24365,7 +24363,7 @@
       <c r="F812" s="3"/>
       <c r="G812" s="3"/>
       <c r="H812" s="3" t="e">
-        <f>VLOOKUP(G812,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G812,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I812" s="3"/>
@@ -24389,7 +24387,7 @@
       <c r="F813" s="3"/>
       <c r="G813" s="3"/>
       <c r="H813" s="3" t="e">
-        <f>VLOOKUP(G813,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G813,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I813" s="3"/>
@@ -24415,7 +24413,7 @@
         <v>504</v>
       </c>
       <c r="H814" s="2" t="str">
-        <f>VLOOKUP(G814,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G814,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 2L CAIXA C/6</v>
       </c>
       <c r="I814" s="3" t="s">
@@ -24443,7 +24441,7 @@
         <v>14135</v>
       </c>
       <c r="H815" s="2" t="str">
-        <f>VLOOKUP(G815,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G815,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I815" s="3" t="s">
@@ -24471,7 +24469,7 @@
         <v>9093</v>
       </c>
       <c r="H816" s="2" t="str">
-        <f>VLOOKUP(G816,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G816,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I816" s="3" t="s">
@@ -24499,7 +24497,7 @@
         <v>19729</v>
       </c>
       <c r="H817" s="2" t="str">
-        <f>VLOOKUP(G817,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G817,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LT SLEEK 350ML C 8 CX CART</v>
       </c>
       <c r="I817" s="3" t="s">
@@ -24527,7 +24525,7 @@
         <v>9068</v>
       </c>
       <c r="H818" s="2" t="str">
-        <f>VLOOKUP(G818,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G818,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I818" s="3" t="s">
@@ -24555,7 +24553,7 @@
         <v>19310</v>
       </c>
       <c r="H819" s="2" t="str">
-        <f>VLOOKUP(G819,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G819,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I819" s="3" t="s">
@@ -24583,7 +24581,7 @@
         <v>9067</v>
       </c>
       <c r="H820" s="2" t="str">
-        <f>VLOOKUP(G820,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G820,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I820" s="3" t="s">
@@ -24611,7 +24609,7 @@
         <v>2349</v>
       </c>
       <c r="H821" s="2" t="str">
-        <f>VLOOKUP(G821,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G821,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I821" s="3" t="s">
@@ -24639,7 +24637,7 @@
         <v>12948</v>
       </c>
       <c r="H822" s="2" t="str">
-        <f>VLOOKUP(G822,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G822,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I822" s="3" t="s">
@@ -24667,7 +24665,7 @@
         <v>23450</v>
       </c>
       <c r="H823" s="2" t="str">
-        <f>VLOOKUP(G823,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G823,Produtos!A:B,2,FALSE)</f>
         <v>MIKES HARD LEM PITAIA N LT269ML SH12</v>
       </c>
       <c r="I823" s="3"/>
@@ -24693,7 +24691,7 @@
         <v>9320</v>
       </c>
       <c r="H824" s="2" t="str">
-        <f>VLOOKUP(G824,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G824,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I824" s="3" t="s">
@@ -24721,7 +24719,7 @@
         <v>9085</v>
       </c>
       <c r="H825" s="2" t="str">
-        <f>VLOOKUP(G825,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G825,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I825" s="3" t="s">
@@ -24749,7 +24747,7 @@
         <v>9081</v>
       </c>
       <c r="H826" s="2" t="str">
-        <f>VLOOKUP(G826,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G826,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I826" s="3" t="s">
@@ -24777,7 +24775,7 @@
         <v>9071</v>
       </c>
       <c r="H827" s="2" t="str">
-        <f>VLOOKUP(G827,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G827,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I827" s="3" t="s">
@@ -24805,7 +24803,7 @@
         <v>9069</v>
       </c>
       <c r="H828" s="2" t="str">
-        <f>VLOOKUP(G828,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G828,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I828" s="3" t="s">
@@ -24833,7 +24831,7 @@
         <v>9320</v>
       </c>
       <c r="H829" s="2" t="str">
-        <f>VLOOKUP(G829,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G829,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I829" s="3" t="s">
@@ -24861,7 +24859,7 @@
         <v>34263</v>
       </c>
       <c r="H830" s="2" t="str">
-        <f>VLOOKUP(G830,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G830,Produtos!A:B,2,FALSE)</f>
         <v>CORONA CERO SUN N LT SL 350ML C8 CX CART</v>
       </c>
       <c r="I830" s="3" t="s">
@@ -24889,7 +24887,7 @@
         <v>20651</v>
       </c>
       <c r="H831" s="2" t="str">
-        <f>VLOOKUP(G831,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G831,Produtos!A:B,2,FALSE)</f>
         <v>CORONA N LT SLEEK 350ML CX 8</v>
       </c>
       <c r="I831" s="3" t="s">
@@ -24917,7 +24915,7 @@
         <v>9084</v>
       </c>
       <c r="H832" s="2" t="str">
-        <f>VLOOKUP(G832,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G832,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I832" s="3" t="s">
@@ -24945,7 +24943,7 @@
         <v>19310</v>
       </c>
       <c r="H833" s="2" t="str">
-        <f>VLOOKUP(G833,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G833,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I833" s="3" t="s">
@@ -24973,7 +24971,7 @@
         <v>9320</v>
       </c>
       <c r="H834" s="2" t="str">
-        <f>VLOOKUP(G834,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G834,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I834" s="3" t="s">
@@ -25001,7 +24999,7 @@
         <v>29580</v>
       </c>
       <c r="H835" s="2" t="str">
-        <f>VLOOKUP(G835,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G835,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I835" s="3" t="s">
@@ -25029,7 +25027,7 @@
         <v>29580</v>
       </c>
       <c r="H836" s="2" t="str">
-        <f>VLOOKUP(G836,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G836,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I836" s="3" t="s">
@@ -25055,7 +25053,7 @@
       <c r="F837" s="3"/>
       <c r="G837" s="3"/>
       <c r="H837" s="3" t="e">
-        <f>VLOOKUP(G837,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G837,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I837" s="3" t="s">
@@ -25083,7 +25081,7 @@
         <v>9071</v>
       </c>
       <c r="H838" s="2" t="str">
-        <f>VLOOKUP(G838,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G838,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I838" s="3" t="s">
@@ -25111,7 +25109,7 @@
         <v>9274</v>
       </c>
       <c r="H839" s="2" t="str">
-        <f>VLOOKUP(G839,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G839,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I839" s="3" t="s">
@@ -25139,7 +25137,7 @@
         <v>19310</v>
       </c>
       <c r="H840" s="2" t="str">
-        <f>VLOOKUP(G840,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G840,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I840" s="3" t="s">
@@ -25167,7 +25165,7 @@
         <v>9274</v>
       </c>
       <c r="H841" s="2" t="str">
-        <f>VLOOKUP(G841,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G841,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I841" s="3" t="s">
@@ -25195,7 +25193,7 @@
         <v>33818</v>
       </c>
       <c r="H842" s="2" t="str">
-        <f>VLOOKUP(G842,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G842,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I842" s="3" t="s">
@@ -25221,7 +25219,7 @@
       <c r="F843" s="3"/>
       <c r="G843" s="3"/>
       <c r="H843" s="3" t="e">
-        <f>VLOOKUP(G843,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G843,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I843" s="3" t="s">
@@ -25249,7 +25247,7 @@
         <v>8411</v>
       </c>
       <c r="H844" s="2" t="str">
-        <f>VLOOKUP(G844,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G844,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 1,5L SH C/6</v>
       </c>
       <c r="I844" s="3" t="s">
@@ -25277,7 +25275,7 @@
         <v>9071</v>
       </c>
       <c r="H845" s="2" t="str">
-        <f>VLOOKUP(G845,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G845,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I845" s="3" t="s">
@@ -25305,7 +25303,7 @@
         <v>1164</v>
       </c>
       <c r="H846" s="2" t="str">
-        <f>VLOOKUP(G846,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G846,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I846" s="3" t="s">
@@ -25333,7 +25331,7 @@
         <v>9071</v>
       </c>
       <c r="H847" s="2" t="str">
-        <f>VLOOKUP(G847,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G847,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I847" s="3" t="s">
@@ -25361,7 +25359,7 @@
         <v>9084</v>
       </c>
       <c r="H848" s="2" t="str">
-        <f>VLOOKUP(G848,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G848,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I848" s="3" t="s">
@@ -25389,7 +25387,7 @@
         <v>9072</v>
       </c>
       <c r="H849" s="2" t="str">
-        <f>VLOOKUP(G849,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G849,Produtos!A:B,2,FALSE)</f>
         <v>BOHEMIA NOVA EMBAL LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I849" s="3" t="s">
@@ -25417,7 +25415,7 @@
         <v>9067</v>
       </c>
       <c r="H850" s="2" t="str">
-        <f>VLOOKUP(G850,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G850,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I850" s="3" t="s">
@@ -25445,7 +25443,7 @@
         <v>35113</v>
       </c>
       <c r="H851" s="2" t="e">
-        <f>VLOOKUP(G851,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G851,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I851" s="3" t="s">
@@ -25473,7 +25471,7 @@
         <v>12948</v>
       </c>
       <c r="H852" s="2" t="str">
-        <f>VLOOKUP(G852,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G852,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I852" s="3" t="s">
@@ -25501,7 +25499,7 @@
         <v>9069</v>
       </c>
       <c r="H853" s="2" t="str">
-        <f>VLOOKUP(G853,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G853,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I853" s="3" t="s">
@@ -25529,7 +25527,7 @@
         <v>9084</v>
       </c>
       <c r="H854" s="2" t="str">
-        <f>VLOOKUP(G854,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G854,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I854" s="3" t="s">
@@ -25557,7 +25555,7 @@
         <v>9092</v>
       </c>
       <c r="H855" s="2" t="str">
-        <f>VLOOKUP(G855,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G855,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I855" s="3" t="s">
@@ -25585,7 +25583,7 @@
         <v>1164</v>
       </c>
       <c r="H856" s="2" t="str">
-        <f>VLOOKUP(G856,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G856,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I856" s="3" t="s">
@@ -25613,7 +25611,7 @@
         <v>30942</v>
       </c>
       <c r="H857" s="2" t="str">
-        <f>VLOOKUP(G857,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G857,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LONG NECK 330ML SIX-PACK SH C4</v>
       </c>
       <c r="I857" s="3" t="s">
@@ -25641,7 +25639,7 @@
         <v>22180</v>
       </c>
       <c r="H858" s="2" t="str">
-        <f>VLOOKUP(G858,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G858,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
       </c>
       <c r="I858" s="3" t="s">
@@ -25669,7 +25667,7 @@
         <v>9069</v>
       </c>
       <c r="H859" s="2" t="str">
-        <f>VLOOKUP(G859,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G859,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I859" s="3" t="s">
@@ -25697,7 +25695,7 @@
         <v>9067</v>
       </c>
       <c r="H860" s="2" t="str">
-        <f>VLOOKUP(G860,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G860,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I860" s="3" t="s">
@@ -25725,7 +25723,7 @@
         <v>21020</v>
       </c>
       <c r="H861" s="2" t="str">
-        <f>VLOOKUP(G861,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G861,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I861" s="3" t="s">
@@ -25753,7 +25751,7 @@
         <v>35320</v>
       </c>
       <c r="H862" s="2" t="e">
-        <f>VLOOKUP(G862,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G862,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I862" s="3" t="s">
@@ -25781,7 +25779,7 @@
         <v>17797</v>
       </c>
       <c r="H863" s="2" t="str">
-        <f>VLOOKUP(G863,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G863,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I863" s="3" t="s">
@@ -25809,7 +25807,7 @@
         <v>14135</v>
       </c>
       <c r="H864" s="2" t="str">
-        <f>VLOOKUP(G864,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G864,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I864" s="3" t="s">
@@ -25837,7 +25835,7 @@
         <v>9085</v>
       </c>
       <c r="H865" s="2" t="str">
-        <f>VLOOKUP(G865,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G865,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I865" s="3" t="s">
@@ -25865,7 +25863,7 @@
         <v>371</v>
       </c>
       <c r="H866" s="2" t="str">
-        <f>VLOOKUP(G866,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G866,Produtos!A:B,2,FALSE)</f>
         <v>MALZBIER BRAHMA LN355ML SIX PAC BAND C/4</v>
       </c>
       <c r="I866" s="3" t="s">
@@ -25893,7 +25891,7 @@
         <v>29580</v>
       </c>
       <c r="H867" s="2" t="str">
-        <f>VLOOKUP(G867,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G867,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I867" s="3" t="s">
@@ -25921,7 +25919,7 @@
         <v>19310</v>
       </c>
       <c r="H868" s="2" t="str">
-        <f>VLOOKUP(G868,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G868,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I868" s="3" t="s">
@@ -25949,7 +25947,7 @@
         <v>14135</v>
       </c>
       <c r="H869" s="2" t="str">
-        <f>VLOOKUP(G869,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G869,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I869" s="3" t="s">
@@ -25977,7 +25975,7 @@
         <v>25837</v>
       </c>
       <c r="H870" s="2" t="str">
-        <f>VLOOKUP(G870,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G870,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN LT 473ML CX CARTAO C/12</v>
       </c>
       <c r="I870" s="3" t="s">
@@ -26005,7 +26003,7 @@
         <v>9069</v>
       </c>
       <c r="H871" s="2" t="str">
-        <f>VLOOKUP(G871,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G871,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I871" s="3" t="s">
@@ -26033,7 +26031,7 @@
         <v>18341</v>
       </c>
       <c r="H872" s="2" t="str">
-        <f>VLOOKUP(G872,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G872,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA PET 3000 ML C/04 SH LISO.</v>
       </c>
       <c r="I872" s="3" t="s">
@@ -26061,7 +26059,7 @@
         <v>12948</v>
       </c>
       <c r="H873" s="2" t="str">
-        <f>VLOOKUP(G873,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G873,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I873" s="3" t="s">
@@ -26089,7 +26087,7 @@
         <v>34263</v>
       </c>
       <c r="H874" s="2" t="str">
-        <f>VLOOKUP(G874,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G874,Produtos!A:B,2,FALSE)</f>
         <v>CORONA CERO SUN N LT SL 350ML C8 CX CART</v>
       </c>
       <c r="I874" s="3" t="s">
@@ -26117,7 +26115,7 @@
         <v>9085</v>
       </c>
       <c r="H875" s="2" t="str">
-        <f>VLOOKUP(G875,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G875,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I875" s="3" t="s">
@@ -26145,7 +26143,7 @@
         <v>33734</v>
       </c>
       <c r="H876" s="2" t="str">
-        <f>VLOOKUP(G876,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G876,Produtos!A:B,2,FALSE)</f>
         <v>BEATS RED MIX LT 269ML SH C/8</v>
       </c>
       <c r="I876" s="3" t="s">
@@ -26173,7 +26171,7 @@
         <v>9071</v>
       </c>
       <c r="H877" s="2" t="str">
-        <f>VLOOKUP(G877,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G877,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I877" s="3" t="s">
@@ -26201,7 +26199,7 @@
         <v>29580</v>
       </c>
       <c r="H878" s="2" t="str">
-        <f>VLOOKUP(G878,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G878,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I878" s="3" t="s">
@@ -26229,7 +26227,7 @@
         <v>17808</v>
       </c>
       <c r="H879" s="2" t="str">
-        <f>VLOOKUP(G879,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G879,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I879" s="3" t="s">
@@ -26257,7 +26255,7 @@
         <v>32500</v>
       </c>
       <c r="H880" s="2" t="str">
-        <f>VLOOKUP(G880,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G880,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ART PUR GOLD LT SL 350ML C8 CX CT</v>
       </c>
       <c r="I880" s="3" t="s">
@@ -26285,7 +26283,7 @@
         <v>9085</v>
       </c>
       <c r="H881" s="2" t="str">
-        <f>VLOOKUP(G881,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G881,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I881" s="3" t="s">
@@ -26313,7 +26311,7 @@
         <v>2349</v>
       </c>
       <c r="H882" s="2" t="str">
-        <f>VLOOKUP(G882,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G882,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I882" s="3" t="s">
@@ -26341,7 +26339,7 @@
         <v>21441</v>
       </c>
       <c r="H883" s="2" t="str">
-        <f>VLOOKUP(G883,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G883,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LIMAO PET 2L CAIXA C/6</v>
       </c>
       <c r="I883" s="3" t="s">
@@ -26369,7 +26367,7 @@
         <v>9084</v>
       </c>
       <c r="H884" s="2" t="str">
-        <f>VLOOKUP(G884,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G884,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I884" s="3" t="s">
@@ -26397,7 +26395,7 @@
         <v>9320</v>
       </c>
       <c r="H885" s="2" t="str">
-        <f>VLOOKUP(G885,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G885,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I885" s="3" t="s">
@@ -26425,7 +26423,7 @@
         <v>33820</v>
       </c>
       <c r="H886" s="2" t="e">
-        <f>VLOOKUP(G886,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G886,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I886" s="3" t="s">
@@ -26453,7 +26451,7 @@
         <v>1164</v>
       </c>
       <c r="H887" s="2" t="str">
-        <f>VLOOKUP(G887,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G887,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I887" s="3" t="s">
@@ -26481,7 +26479,7 @@
         <v>17797</v>
       </c>
       <c r="H888" s="2" t="str">
-        <f>VLOOKUP(G888,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G888,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I888" s="3" t="s">
@@ -26509,7 +26507,7 @@
         <v>21658</v>
       </c>
       <c r="H889" s="2" t="str">
-        <f>VLOOKUP(G889,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G889,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I889" s="3" t="s">
@@ -26537,7 +26535,7 @@
         <v>14135</v>
       </c>
       <c r="H890" s="2" t="str">
-        <f>VLOOKUP(G890,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G890,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I890" s="3" t="s">
@@ -26565,7 +26563,7 @@
         <v>21020</v>
       </c>
       <c r="H891" s="2" t="str">
-        <f>VLOOKUP(G891,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G891,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I891" s="3" t="s">
@@ -26593,7 +26591,7 @@
         <v>9089</v>
       </c>
       <c r="H892" s="2" t="str">
-        <f>VLOOKUP(G892,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G892,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I892" s="3" t="s">
@@ -26621,7 +26619,7 @@
         <v>4409</v>
       </c>
       <c r="H893" s="2" t="str">
-        <f>VLOOKUP(G893,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G893,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST PET 2L SHRINK C/6</v>
       </c>
       <c r="I893" s="3" t="s">
@@ -26649,7 +26647,7 @@
         <v>17797</v>
       </c>
       <c r="H894" s="2" t="str">
-        <f>VLOOKUP(G894,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G894,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I894" s="3" t="s">
@@ -26677,7 +26675,7 @@
         <v>9083</v>
       </c>
       <c r="H895" s="2" t="str">
-        <f>VLOOKUP(G895,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G895,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I895" s="3" t="s">
@@ -26705,7 +26703,7 @@
         <v>9274</v>
       </c>
       <c r="H896" s="2" t="str">
-        <f>VLOOKUP(G896,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G896,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I896" s="3" t="s">
@@ -26733,7 +26731,7 @@
         <v>9274</v>
       </c>
       <c r="H897" s="2" t="str">
-        <f>VLOOKUP(G897,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G897,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I897" s="3" t="s">
@@ -26761,7 +26759,7 @@
         <v>15416</v>
       </c>
       <c r="H898" s="2" t="str">
-        <f>VLOOKUP(G898,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G898,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA C/G PET 500ML CXC12 PRE</v>
       </c>
       <c r="I898" s="3" t="s">
@@ -26789,7 +26787,7 @@
         <v>9084</v>
       </c>
       <c r="H899" s="2" t="str">
-        <f>VLOOKUP(G899,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G899,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I899" s="3" t="s">
@@ -26817,7 +26815,7 @@
         <v>9093</v>
       </c>
       <c r="H900" s="2" t="str">
-        <f>VLOOKUP(G900,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G900,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I900" s="3" t="s">
@@ -26845,7 +26843,7 @@
         <v>9320</v>
       </c>
       <c r="H901" s="2" t="str">
-        <f>VLOOKUP(G901,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G901,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I901" s="3" t="s">
@@ -26873,7 +26871,7 @@
         <v>9083</v>
       </c>
       <c r="H902" s="2" t="str">
-        <f>VLOOKUP(G902,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G902,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I902" s="3" t="s">
@@ -26901,7 +26899,7 @@
         <v>9068</v>
       </c>
       <c r="H903" s="2" t="str">
-        <f>VLOOKUP(G903,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G903,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I903" s="3" t="s">
@@ -26929,7 +26927,7 @@
         <v>9084</v>
       </c>
       <c r="H904" s="2" t="str">
-        <f>VLOOKUP(G904,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G904,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I904" s="3" t="s">
@@ -26957,7 +26955,7 @@
         <v>9089</v>
       </c>
       <c r="H905" s="2" t="str">
-        <f>VLOOKUP(G905,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G905,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I905" s="3" t="s">
@@ -26985,7 +26983,7 @@
         <v>34027</v>
       </c>
       <c r="H906" s="2" t="str">
-        <f>VLOOKUP(G906,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G906,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANT LATA 350ML SH C/12 MP</v>
       </c>
       <c r="I906" s="3" t="s">
@@ -27013,7 +27011,7 @@
         <v>9320</v>
       </c>
       <c r="H907" s="2" t="str">
-        <f>VLOOKUP(G907,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G907,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I907" s="3" t="s">
@@ -27041,7 +27039,7 @@
         <v>9069</v>
       </c>
       <c r="H908" s="2" t="str">
-        <f>VLOOKUP(G908,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G908,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I908" s="3" t="s">
@@ -27069,7 +27067,7 @@
         <v>9320</v>
       </c>
       <c r="H909" s="2" t="str">
-        <f>VLOOKUP(G909,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G909,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I909" s="3" t="s">
@@ -27097,7 +27095,7 @@
         <v>22290</v>
       </c>
       <c r="H910" s="2" t="e">
-        <f>VLOOKUP(G910,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G910,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I910" s="3" t="s">
@@ -27123,7 +27121,7 @@
       <c r="F911" s="3"/>
       <c r="G911" s="3"/>
       <c r="H911" s="3" t="e">
-        <f>VLOOKUP(G911,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G911,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I911" s="3"/>
@@ -27149,7 +27147,7 @@
         <v>9069</v>
       </c>
       <c r="H912" s="2" t="str">
-        <f>VLOOKUP(G912,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G912,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I912" s="3" t="s">
@@ -27177,7 +27175,7 @@
         <v>21020</v>
       </c>
       <c r="H913" s="2" t="str">
-        <f>VLOOKUP(G913,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G913,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I913" s="3" t="s">
@@ -27205,7 +27203,7 @@
         <v>17808</v>
       </c>
       <c r="H914" s="2" t="str">
-        <f>VLOOKUP(G914,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G914,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I914" s="3" t="s">
@@ -27233,7 +27231,7 @@
         <v>21020</v>
       </c>
       <c r="H915" s="2" t="str">
-        <f>VLOOKUP(G915,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G915,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I915" s="3" t="s">
@@ -27261,7 +27259,7 @@
         <v>29580</v>
       </c>
       <c r="H916" s="2" t="str">
-        <f>VLOOKUP(G916,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G916,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I916" s="3" t="s">
@@ -27289,7 +27287,7 @@
         <v>29580</v>
       </c>
       <c r="H917" s="2" t="str">
-        <f>VLOOKUP(G917,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G917,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I917" s="3" t="s">
@@ -27317,7 +27315,7 @@
         <v>17808</v>
       </c>
       <c r="H918" s="2" t="str">
-        <f>VLOOKUP(G918,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G918,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I918" s="3" t="s">
@@ -27345,7 +27343,7 @@
         <v>7985</v>
       </c>
       <c r="H919" s="2" t="str">
-        <f>VLOOKUP(G919,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G919,Produtos!A:B,2,FALSE)</f>
         <v>GATORADE MARACUJA PET 500ML SIX PACK</v>
       </c>
       <c r="I919" s="3" t="s">
@@ -27373,7 +27371,7 @@
         <v>2354</v>
       </c>
       <c r="H920" s="2" t="str">
-        <f>VLOOKUP(G920,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G920,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTARCT DIET PET 2L CX C/6</v>
       </c>
       <c r="I920" s="3" t="s">
@@ -27401,7 +27399,7 @@
         <v>22180</v>
       </c>
       <c r="H921" s="2" t="str">
-        <f>VLOOKUP(G921,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G921,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
       </c>
       <c r="I921" s="3" t="s">
@@ -27429,7 +27427,7 @@
         <v>9091</v>
       </c>
       <c r="H922" s="2" t="str">
-        <f>VLOOKUP(G922,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G922,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I922" s="3" t="s">
@@ -27457,7 +27455,7 @@
         <v>9091</v>
       </c>
       <c r="H923" s="2" t="str">
-        <f>VLOOKUP(G923,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G923,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I923" s="3" t="s">
@@ -27485,7 +27483,7 @@
         <v>9071</v>
       </c>
       <c r="H924" s="2" t="str">
-        <f>VLOOKUP(G924,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G924,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I924" s="3" t="s">
@@ -27513,7 +27511,7 @@
         <v>9071</v>
       </c>
       <c r="H925" s="2" t="str">
-        <f>VLOOKUP(G925,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G925,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I925" s="3" t="s">
@@ -27541,7 +27539,7 @@
         <v>9068</v>
       </c>
       <c r="H926" s="2" t="str">
-        <f>VLOOKUP(G926,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G926,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I926" s="3" t="s">
@@ -27569,7 +27567,7 @@
         <v>17797</v>
       </c>
       <c r="H927" s="2" t="str">
-        <f>VLOOKUP(G927,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G927,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I927" s="3" t="s">
@@ -27597,7 +27595,7 @@
         <v>9276</v>
       </c>
       <c r="H928" s="2" t="str">
-        <f>VLOOKUP(G928,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G928,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO PET 2L CX C/6</v>
       </c>
       <c r="I928" s="3" t="s">
@@ -27625,7 +27623,7 @@
         <v>9069</v>
       </c>
       <c r="H929" s="2" t="str">
-        <f>VLOOKUP(G929,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G929,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I929" s="3" t="s">
@@ -27653,7 +27651,7 @@
         <v>9068</v>
       </c>
       <c r="H930" s="2" t="str">
-        <f>VLOOKUP(G930,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G930,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I930" s="3" t="s">
@@ -27681,7 +27679,7 @@
         <v>9071</v>
       </c>
       <c r="H931" s="2" t="str">
-        <f>VLOOKUP(G931,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G931,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I931" s="3" t="s">
@@ -27709,7 +27707,7 @@
         <v>9085</v>
       </c>
       <c r="H932" s="2" t="str">
-        <f>VLOOKUP(G932,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G932,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I932" s="3" t="s">
@@ -27737,7 +27735,7 @@
         <v>4409</v>
       </c>
       <c r="H933" s="2" t="str">
-        <f>VLOOKUP(G933,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G933,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST PET 2L SHRINK C/6</v>
       </c>
       <c r="I933" s="3" t="s">
@@ -27765,7 +27763,7 @@
         <v>9096</v>
       </c>
       <c r="H934" s="2" t="str">
-        <f>VLOOKUP(G934,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G934,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I934" s="3" t="s">
@@ -27793,7 +27791,7 @@
         <v>33818</v>
       </c>
       <c r="H935" s="2" t="str">
-        <f>VLOOKUP(G935,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G935,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I935" s="3" t="s">
@@ -27821,7 +27819,7 @@
         <v>9071</v>
       </c>
       <c r="H936" s="2" t="str">
-        <f>VLOOKUP(G936,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G936,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I936" s="3" t="s">
@@ -27849,7 +27847,7 @@
         <v>9085</v>
       </c>
       <c r="H937" s="2" t="str">
-        <f>VLOOKUP(G937,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G937,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I937" s="3" t="s">
@@ -27877,7 +27875,7 @@
         <v>9091</v>
       </c>
       <c r="H938" s="2" t="str">
-        <f>VLOOKUP(G938,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G938,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA LT 350ML SH C/12 NPAL</v>
       </c>
       <c r="I938" s="3" t="s">
@@ -27905,7 +27903,7 @@
         <v>33818</v>
       </c>
       <c r="H939" s="2" t="str">
-        <f>VLOOKUP(G939,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G939,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I939" s="3" t="s">
@@ -27933,7 +27931,7 @@
         <v>9067</v>
       </c>
       <c r="H940" s="2" t="str">
-        <f>VLOOKUP(G940,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G940,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I940" s="3" t="s">
@@ -27961,7 +27959,7 @@
         <v>9071</v>
       </c>
       <c r="H941" s="2" t="str">
-        <f>VLOOKUP(G941,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G941,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I941" s="3" t="s">
@@ -27989,7 +27987,7 @@
         <v>14135</v>
       </c>
       <c r="H942" s="2" t="str">
-        <f>VLOOKUP(G942,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G942,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I942" s="3" t="s">
@@ -28017,7 +28015,7 @@
         <v>14135</v>
       </c>
       <c r="H943" s="2" t="str">
-        <f>VLOOKUP(G943,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G943,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I943" s="3" t="s">
@@ -28045,7 +28043,7 @@
         <v>17797</v>
       </c>
       <c r="H944" s="2" t="str">
-        <f>VLOOKUP(G944,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G944,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I944" s="3" t="s">
@@ -28073,7 +28071,7 @@
         <v>9274</v>
       </c>
       <c r="H945" s="2" t="str">
-        <f>VLOOKUP(G945,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G945,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I945" s="3" t="s">
@@ -28101,7 +28099,7 @@
         <v>23216</v>
       </c>
       <c r="H946" s="2" t="str">
-        <f>VLOOKUP(G946,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G946,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA IPA LATA 473ML 6PACK CARTAO</v>
       </c>
       <c r="I946" s="3" t="s">
@@ -28129,7 +28127,7 @@
         <v>21119</v>
       </c>
       <c r="H947" s="2" t="str">
-        <f>VLOOKUP(G947,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G947,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS GT LT 269ML CX CAR C/8</v>
       </c>
       <c r="I947" s="3" t="s">
@@ -28157,7 +28155,7 @@
         <v>26462</v>
       </c>
       <c r="H948" s="2" t="str">
-        <f>VLOOKUP(G948,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G948,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 473ML CX CARTAO C/12</v>
       </c>
       <c r="I948" s="3" t="s">
@@ -28185,7 +28183,7 @@
         <v>9085</v>
       </c>
       <c r="H949" s="2" t="str">
-        <f>VLOOKUP(G949,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G949,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I949" s="3" t="s">
@@ -28213,7 +28211,7 @@
         <v>21658</v>
       </c>
       <c r="H950" s="2" t="str">
-        <f>VLOOKUP(G950,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G950,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I950" s="3" t="s">
@@ -28241,7 +28239,7 @@
         <v>20498</v>
       </c>
       <c r="H951" s="2" t="str">
-        <f>VLOOKUP(G951,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G951,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I951" s="3" t="s">
@@ -28269,7 +28267,7 @@
         <v>14135</v>
       </c>
       <c r="H952" s="2" t="str">
-        <f>VLOOKUP(G952,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G952,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I952" s="3" t="s">
@@ -28297,7 +28295,7 @@
         <v>9084</v>
       </c>
       <c r="H953" s="2" t="str">
-        <f>VLOOKUP(G953,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G953,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I953" s="3" t="s">
@@ -28325,7 +28323,7 @@
         <v>19310</v>
       </c>
       <c r="H954" s="2" t="str">
-        <f>VLOOKUP(G954,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G954,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I954" s="3" t="s">
@@ -28351,7 +28349,7 @@
       <c r="F955" s="3"/>
       <c r="G955" s="3"/>
       <c r="H955" s="3" t="e">
-        <f>VLOOKUP(G955,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G955,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I955" s="3" t="s">
@@ -28379,7 +28377,7 @@
         <v>9068</v>
       </c>
       <c r="H956" s="2" t="str">
-        <f>VLOOKUP(G956,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G956,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I956" s="3" t="s">
@@ -28407,7 +28405,7 @@
         <v>21020</v>
       </c>
       <c r="H957" s="2" t="str">
-        <f>VLOOKUP(G957,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G957,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I957" s="3" t="s">
@@ -28435,7 +28433,7 @@
         <v>20498</v>
       </c>
       <c r="H958" s="2" t="str">
-        <f>VLOOKUP(G958,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G958,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I958" s="3" t="s">
@@ -28463,7 +28461,7 @@
         <v>1164</v>
       </c>
       <c r="H959" s="2" t="str">
-        <f>VLOOKUP(G959,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G959,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I959" s="3" t="s">
@@ -28491,7 +28489,7 @@
         <v>18807</v>
       </c>
       <c r="H960" s="2" t="str">
-        <f>VLOOKUP(G960,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G960,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I960" s="3" t="s">
@@ -28519,7 +28517,7 @@
         <v>22177</v>
       </c>
       <c r="H961" s="2" t="str">
-        <f>VLOOKUP(G961,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G961,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LT SLEEK 350ML C8 CX CART</v>
       </c>
       <c r="I961" s="3" t="s">
@@ -28547,7 +28545,7 @@
         <v>9083</v>
       </c>
       <c r="H962" s="2" t="str">
-        <f>VLOOKUP(G962,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G962,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I962" s="3" t="s">
@@ -28575,7 +28573,7 @@
         <v>21020</v>
       </c>
       <c r="H963" s="2" t="str">
-        <f>VLOOKUP(G963,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G963,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I963" s="3" t="s">
@@ -28603,7 +28601,7 @@
         <v>9096</v>
       </c>
       <c r="H964" s="2" t="str">
-        <f>VLOOKUP(G964,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G964,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I964" s="3" t="s">
@@ -28631,7 +28629,7 @@
         <v>9084</v>
       </c>
       <c r="H965" s="2" t="str">
-        <f>VLOOKUP(G965,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G965,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I965" s="3" t="s">
@@ -28659,7 +28657,7 @@
         <v>9069</v>
       </c>
       <c r="H966" s="2" t="str">
-        <f>VLOOKUP(G966,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G966,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I966" s="3" t="s">
@@ -28687,7 +28685,7 @@
         <v>9067</v>
       </c>
       <c r="H967" s="2" t="str">
-        <f>VLOOKUP(G967,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G967,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I967" s="3" t="s">
@@ -28715,7 +28713,7 @@
         <v>9320</v>
       </c>
       <c r="H968" s="2" t="str">
-        <f>VLOOKUP(G968,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G968,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I968" s="3" t="s">
@@ -28743,7 +28741,7 @@
         <v>9069</v>
       </c>
       <c r="H969" s="2" t="str">
-        <f>VLOOKUP(G969,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G969,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I969" s="3" t="s">
@@ -28771,7 +28769,7 @@
         <v>9071</v>
       </c>
       <c r="H970" s="2" t="str">
-        <f>VLOOKUP(G970,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G970,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I970" s="3" t="s">
@@ -28799,7 +28797,7 @@
         <v>9071</v>
       </c>
       <c r="H971" s="2" t="str">
-        <f>VLOOKUP(G971,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G971,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I971" s="3" t="s">
@@ -28827,7 +28825,7 @@
         <v>9071</v>
       </c>
       <c r="H972" s="2" t="str">
-        <f>VLOOKUP(G972,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G972,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I972" s="3" t="s">
@@ -28855,7 +28853,7 @@
         <v>9069</v>
       </c>
       <c r="H973" s="2" t="str">
-        <f>VLOOKUP(G973,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G973,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I973" s="3" t="s">
@@ -28883,7 +28881,7 @@
         <v>26699</v>
       </c>
       <c r="H974" s="2" t="str">
-        <f>VLOOKUP(G974,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G974,Produtos!A:B,2,FALSE)</f>
         <v>GUAR. CHP ANT PET 2,25L SH C6 250ML GRAT</v>
       </c>
       <c r="I974" s="3" t="s">
@@ -28911,7 +28909,7 @@
         <v>17797</v>
       </c>
       <c r="H975" s="2" t="str">
-        <f>VLOOKUP(G975,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G975,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I975" s="3" t="s">
@@ -28939,7 +28937,7 @@
         <v>9069</v>
       </c>
       <c r="H976" s="2" t="str">
-        <f>VLOOKUP(G976,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G976,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I976" s="3" t="s">
@@ -28967,7 +28965,7 @@
         <v>1166</v>
       </c>
       <c r="H977" s="2" t="str">
-        <f>VLOOKUP(G977,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G977,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I977" s="3" t="s">
@@ -28995,7 +28993,7 @@
         <v>9068</v>
       </c>
       <c r="H978" s="2" t="str">
-        <f>VLOOKUP(G978,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G978,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I978" s="3" t="s">
@@ -29023,7 +29021,7 @@
         <v>9092</v>
       </c>
       <c r="H979" s="2" t="str">
-        <f>VLOOKUP(G979,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G979,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I979" s="3" t="s">
@@ -29051,7 +29049,7 @@
         <v>9083</v>
       </c>
       <c r="H980" s="2" t="str">
-        <f>VLOOKUP(G980,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G980,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I980" s="3" t="s">
@@ -29079,7 +29077,7 @@
         <v>9069</v>
       </c>
       <c r="H981" s="2" t="str">
-        <f>VLOOKUP(G981,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G981,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I981" s="3" t="s">
@@ -29107,7 +29105,7 @@
         <v>19310</v>
       </c>
       <c r="H982" s="2" t="str">
-        <f>VLOOKUP(G982,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G982,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I982" s="3" t="s">
@@ -29135,7 +29133,7 @@
         <v>9088</v>
       </c>
       <c r="H983" s="2" t="str">
-        <f>VLOOKUP(G983,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G983,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTARCT DIET LT350MLSHC/12</v>
       </c>
       <c r="I983" s="3" t="s">
@@ -29163,7 +29161,7 @@
         <v>34608</v>
       </c>
       <c r="H984" s="2" t="str">
-        <f>VLOOKUP(G984,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G984,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I984" s="3" t="s">
@@ -29191,7 +29189,7 @@
         <v>33734</v>
       </c>
       <c r="H985" s="2" t="str">
-        <f>VLOOKUP(G985,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G985,Produtos!A:B,2,FALSE)</f>
         <v>BEATS RED MIX LT 269ML SH C/8</v>
       </c>
       <c r="I985" s="3" t="s">
@@ -29219,7 +29217,7 @@
         <v>35617</v>
       </c>
       <c r="H986" s="2" t="e">
-        <f>VLOOKUP(G986,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G986,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I986" s="3" t="s">
@@ -29247,7 +29245,7 @@
         <v>18807</v>
       </c>
       <c r="H987" s="2" t="str">
-        <f>VLOOKUP(G987,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G987,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LN 330ML 6PACK SHR C 4</v>
       </c>
       <c r="I987" s="3" t="s">
@@ -29275,7 +29273,7 @@
         <v>9089</v>
       </c>
       <c r="H988" s="2" t="str">
-        <f>VLOOKUP(G988,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G988,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I988" s="3" t="s">
@@ -29303,7 +29301,7 @@
         <v>17797</v>
       </c>
       <c r="H989" s="2" t="str">
-        <f>VLOOKUP(G989,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G989,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I989" s="3" t="s">
@@ -29331,7 +29329,7 @@
         <v>17797</v>
       </c>
       <c r="H990" s="2" t="str">
-        <f>VLOOKUP(G990,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G990,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I990" s="3" t="s">
@@ -29359,7 +29357,7 @@
         <v>9083</v>
       </c>
       <c r="H991" s="2" t="str">
-        <f>VLOOKUP(G991,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G991,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I991" s="3" t="s">
@@ -29387,7 +29385,7 @@
         <v>21020</v>
       </c>
       <c r="H992" s="2" t="str">
-        <f>VLOOKUP(G992,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G992,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I992" s="3" t="s">
@@ -29415,7 +29413,7 @@
         <v>9093</v>
       </c>
       <c r="H993" s="2" t="str">
-        <f>VLOOKUP(G993,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G993,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I993" s="3" t="s">
@@ -29443,7 +29441,7 @@
         <v>9093</v>
       </c>
       <c r="H994" s="2" t="str">
-        <f>VLOOKUP(G994,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G994,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI TWIST LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I994" s="3" t="s">
@@ -29471,7 +29469,7 @@
         <v>17808</v>
       </c>
       <c r="H995" s="2" t="str">
-        <f>VLOOKUP(G995,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G995,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I995" s="3" t="s">
@@ -29499,7 +29497,7 @@
         <v>9084</v>
       </c>
       <c r="H996" s="2" t="str">
-        <f>VLOOKUP(G996,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G996,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I996" s="3" t="s">
@@ -29527,7 +29525,7 @@
         <v>12948</v>
       </c>
       <c r="H997" s="2" t="str">
-        <f>VLOOKUP(G997,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G997,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I997" s="3" t="s">
@@ -29555,7 +29553,7 @@
         <v>9320</v>
       </c>
       <c r="H998" s="2" t="str">
-        <f>VLOOKUP(G998,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G998,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I998" s="3" t="s">
@@ -29583,7 +29581,7 @@
         <v>9320</v>
       </c>
       <c r="H999" s="2" t="str">
-        <f>VLOOKUP(G999,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G999,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I999" s="3" t="s">
@@ -29611,7 +29609,7 @@
         <v>33820</v>
       </c>
       <c r="H1000" s="2" t="e">
-        <f>VLOOKUP(G1000,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1000,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1000" s="3" t="s">
@@ -29639,7 +29637,7 @@
         <v>9071</v>
       </c>
       <c r="H1001" s="2" t="str">
-        <f>VLOOKUP(G1001,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1001,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1001" s="3" t="s">
@@ -29667,7 +29665,7 @@
         <v>9067</v>
       </c>
       <c r="H1002" s="2" t="str">
-        <f>VLOOKUP(G1002,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1002,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I1002" s="3" t="s">
@@ -29695,7 +29693,7 @@
         <v>9071</v>
       </c>
       <c r="H1003" s="2" t="str">
-        <f>VLOOKUP(G1003,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1003,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1003" s="3" t="s">
@@ -29723,7 +29721,7 @@
         <v>17797</v>
       </c>
       <c r="H1004" s="2" t="str">
-        <f>VLOOKUP(G1004,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1004,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I1004" s="3" t="s">
@@ -29751,7 +29749,7 @@
         <v>12948</v>
       </c>
       <c r="H1005" s="2" t="str">
-        <f>VLOOKUP(G1005,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1005,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I1005" s="3" t="s">
@@ -29779,7 +29777,7 @@
         <v>17808</v>
       </c>
       <c r="H1006" s="2" t="str">
-        <f>VLOOKUP(G1006,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1006,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I1006" s="3" t="s">
@@ -29807,7 +29805,7 @@
         <v>21020</v>
       </c>
       <c r="H1007" s="2" t="str">
-        <f>VLOOKUP(G1007,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1007,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1007" s="3" t="s">
@@ -29835,7 +29833,7 @@
         <v>21020</v>
       </c>
       <c r="H1008" s="2" t="str">
-        <f>VLOOKUP(G1008,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1008,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1008" s="3" t="s">
@@ -29863,7 +29861,7 @@
         <v>35623</v>
       </c>
       <c r="H1009" s="2" t="e">
-        <f>VLOOKUP(G1009,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1009,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1009" s="3" t="s">
@@ -29891,7 +29889,7 @@
         <v>9069</v>
       </c>
       <c r="H1010" s="2" t="str">
-        <f>VLOOKUP(G1010,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1010,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1010" s="3" t="s">
@@ -29919,7 +29917,7 @@
         <v>9069</v>
       </c>
       <c r="H1011" s="2" t="str">
-        <f>VLOOKUP(G1011,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1011,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1011" s="3" t="s">
@@ -29947,7 +29945,7 @@
         <v>9069</v>
       </c>
       <c r="H1012" s="2" t="str">
-        <f>VLOOKUP(G1012,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1012,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1012" s="3" t="s">
@@ -29975,7 +29973,7 @@
         <v>9276</v>
       </c>
       <c r="H1013" s="2" t="str">
-        <f>VLOOKUP(G1013,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1013,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO PET 2L CX C/6</v>
       </c>
       <c r="I1013" s="3" t="s">
@@ -30003,7 +30001,7 @@
         <v>9320</v>
       </c>
       <c r="H1014" s="2" t="str">
-        <f>VLOOKUP(G1014,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1014,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1014" s="3" t="s">
@@ -30031,7 +30029,7 @@
         <v>14135</v>
       </c>
       <c r="H1015" s="2" t="str">
-        <f>VLOOKUP(G1015,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1015,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I1015" s="3" t="s">
@@ -30059,7 +30057,7 @@
         <v>21020</v>
       </c>
       <c r="H1016" s="2" t="str">
-        <f>VLOOKUP(G1016,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1016,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1016" s="3" t="s">
@@ -30087,7 +30085,7 @@
         <v>9096</v>
       </c>
       <c r="H1017" s="2" t="str">
-        <f>VLOOKUP(G1017,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1017,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1017" s="3" t="s">
@@ -30115,7 +30113,7 @@
         <v>15414</v>
       </c>
       <c r="H1018" s="2" t="str">
-        <f>VLOOKUP(G1018,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1018,Produtos!A:B,2,FALSE)</f>
         <v>AGUA M F DA ILHA S/G PET 500ML CXC12 PRE</v>
       </c>
       <c r="I1018" s="3" t="s">
@@ -30143,7 +30141,7 @@
         <v>9096</v>
       </c>
       <c r="H1019" s="2" t="str">
-        <f>VLOOKUP(G1019,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1019,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1019" s="3" t="s">
@@ -30171,7 +30169,7 @@
         <v>19310</v>
       </c>
       <c r="H1020" s="2" t="str">
-        <f>VLOOKUP(G1020,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1020,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I1020" s="3" t="s">
@@ -30199,7 +30197,7 @@
         <v>9071</v>
       </c>
       <c r="H1021" s="2" t="str">
-        <f>VLOOKUP(G1021,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1021,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1021" s="3" t="s">
@@ -30227,7 +30225,7 @@
         <v>33820</v>
       </c>
       <c r="H1022" s="2" t="e">
-        <f>VLOOKUP(G1022,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1022,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1022" s="3" t="s">
@@ -30255,7 +30253,7 @@
         <v>19729</v>
       </c>
       <c r="H1023" s="2" t="str">
-        <f>VLOOKUP(G1023,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1023,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS LT SLEEK 350ML C 8 CX CART</v>
       </c>
       <c r="I1023" s="3" t="s">
@@ -30283,7 +30281,7 @@
         <v>14135</v>
       </c>
       <c r="H1024" s="2" t="str">
-        <f>VLOOKUP(G1024,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1024,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I1024" s="3" t="s">
@@ -30311,7 +30309,7 @@
         <v>14135</v>
       </c>
       <c r="H1025" s="2" t="str">
-        <f>VLOOKUP(G1025,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1025,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I1025" s="3" t="s">
@@ -30339,7 +30337,7 @@
         <v>12948</v>
       </c>
       <c r="H1026" s="2" t="str">
-        <f>VLOOKUP(G1026,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1026,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I1026" s="3" t="s">
@@ -30367,7 +30365,7 @@
         <v>17808</v>
       </c>
       <c r="H1027" s="2" t="str">
-        <f>VLOOKUP(G1027,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1027,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER OW 330ML CX C 24</v>
       </c>
       <c r="I1027" s="3" t="s">
@@ -30395,7 +30393,7 @@
         <v>21020</v>
       </c>
       <c r="H1028" s="2" t="str">
-        <f>VLOOKUP(G1028,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1028,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1028" s="3" t="s">
@@ -30423,7 +30421,7 @@
         <v>9069</v>
       </c>
       <c r="H1029" s="2" t="str">
-        <f>VLOOKUP(G1029,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1029,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1029" s="3" t="s">
@@ -30451,7 +30449,7 @@
         <v>9071</v>
       </c>
       <c r="H1030" s="2" t="str">
-        <f>VLOOKUP(G1030,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1030,Produtos!A:B,2,FALSE)</f>
         <v>CARACU LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1030" s="3" t="s">
@@ -30479,7 +30477,7 @@
         <v>9092</v>
       </c>
       <c r="H1031" s="2" t="str">
-        <f>VLOOKUP(G1031,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1031,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I1031" s="3" t="s">
@@ -30507,7 +30505,7 @@
         <v>35319</v>
       </c>
       <c r="H1032" s="2" t="e">
-        <f>VLOOKUP(G1032,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1032,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1032" s="3" t="s">
@@ -30535,7 +30533,7 @@
         <v>9096</v>
       </c>
       <c r="H1033" s="2" t="str">
-        <f>VLOOKUP(G1033,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1033,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1033" s="3" t="s">
@@ -30563,7 +30561,7 @@
         <v>33818</v>
       </c>
       <c r="H1034" s="2" t="str">
-        <f>VLOOKUP(G1034,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1034,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I1034" s="3" t="s">
@@ -30591,7 +30589,7 @@
         <v>29580</v>
       </c>
       <c r="H1035" s="2" t="str">
-        <f>VLOOKUP(G1035,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1035,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I1035" s="3" t="s">
@@ -30619,7 +30617,7 @@
         <v>35113</v>
       </c>
       <c r="H1036" s="2" t="e">
-        <f>VLOOKUP(G1036,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1036,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1036" s="3" t="s">
@@ -30647,7 +30645,7 @@
         <v>22180</v>
       </c>
       <c r="H1037" s="2" t="str">
-        <f>VLOOKUP(G1037,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1037,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
       </c>
       <c r="I1037" s="3" t="s">
@@ -30675,7 +30673,7 @@
         <v>22180</v>
       </c>
       <c r="H1038" s="2" t="str">
-        <f>VLOOKUP(G1038,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1038,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
       </c>
       <c r="I1038" s="3" t="s">
@@ -30703,7 +30701,7 @@
         <v>9092</v>
       </c>
       <c r="H1039" s="2" t="str">
-        <f>VLOOKUP(G1039,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1039,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I1039" s="3" t="s">
@@ -30731,7 +30729,7 @@
         <v>19310</v>
       </c>
       <c r="H1040" s="2" t="str">
-        <f>VLOOKUP(G1040,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1040,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I1040" s="3" t="s">
@@ -30759,7 +30757,7 @@
         <v>33818</v>
       </c>
       <c r="H1041" s="2" t="str">
-        <f>VLOOKUP(G1041,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1041,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I1041" s="3" t="s">
@@ -30787,7 +30785,7 @@
         <v>9067</v>
       </c>
       <c r="H1042" s="2" t="str">
-        <f>VLOOKUP(G1042,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1042,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I1042" s="3" t="s">
@@ -30815,7 +30813,7 @@
         <v>9087</v>
       </c>
       <c r="H1043" s="2" t="str">
-        <f>VLOOKUP(G1043,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1043,Produtos!A:B,2,FALSE)</f>
         <v>SODA LIMONADA ANTAR LT350ML SH C/12 NPAL</v>
       </c>
       <c r="I1043" s="3" t="s">
@@ -30843,7 +30841,7 @@
         <v>13566</v>
       </c>
       <c r="H1044" s="2" t="str">
-        <f>VLOOKUP(G1044,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1044,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS SENSES LATA 269ML CX C/8 FRID</v>
       </c>
       <c r="I1044" s="3" t="s">
@@ -30871,7 +30869,7 @@
         <v>9083</v>
       </c>
       <c r="H1045" s="2" t="str">
-        <f>VLOOKUP(G1045,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1045,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1045" s="3" t="s">
@@ -30899,7 +30897,7 @@
         <v>18490</v>
       </c>
       <c r="H1046" s="2" t="str">
-        <f>VLOOKUP(G1046,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1046,Produtos!A:B,2,FALSE)</f>
         <v>PATAGONIA AMB LAG NAC LATA 473ML 6PACK</v>
       </c>
       <c r="I1046" s="3" t="s">
@@ -30927,7 +30925,7 @@
         <v>33820</v>
       </c>
       <c r="H1047" s="2" t="e">
-        <f>VLOOKUP(G1047,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1047,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1047" s="3" t="s">
@@ -30955,7 +30953,7 @@
         <v>19310</v>
       </c>
       <c r="H1048" s="2" t="str">
-        <f>VLOOKUP(G1048,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1048,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I1048" s="3" t="s">
@@ -30983,7 +30981,7 @@
         <v>19310</v>
       </c>
       <c r="H1049" s="2" t="str">
-        <f>VLOOKUP(G1049,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1049,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I1049" s="3" t="s">
@@ -31011,7 +31009,7 @@
         <v>19310</v>
       </c>
       <c r="H1050" s="2" t="str">
-        <f>VLOOKUP(G1050,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1050,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I1050" s="3" t="s">
@@ -31039,7 +31037,7 @@
         <v>18836</v>
       </c>
       <c r="H1051" s="2" t="str">
-        <f>VLOOKUP(G1051,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1051,Produtos!A:B,2,FALSE)</f>
         <v>CORONA EXTRA NAC LN 330 CX C/24 NPAL</v>
       </c>
       <c r="I1051" s="3" t="s">
@@ -31067,7 +31065,7 @@
         <v>21658</v>
       </c>
       <c r="H1052" s="2" t="str">
-        <f>VLOOKUP(G1052,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1052,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1052" s="3" t="s">
@@ -31095,7 +31093,7 @@
         <v>9085</v>
       </c>
       <c r="H1053" s="2" t="str">
-        <f>VLOOKUP(G1053,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1053,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1053" s="3" t="s">
@@ -31123,7 +31121,7 @@
         <v>29580</v>
       </c>
       <c r="H1054" s="2" t="str">
-        <f>VLOOKUP(G1054,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1054,Produtos!A:B,2,FALSE)</f>
         <v>STELLA ARTOIS PURE GOLD LN 330 SXP SH C4</v>
       </c>
       <c r="I1054" s="3" t="s">
@@ -31151,7 +31149,7 @@
         <v>17797</v>
       </c>
       <c r="H1055" s="2" t="str">
-        <f>VLOOKUP(G1055,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1055,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
       </c>
       <c r="I1055" s="3" t="s">
@@ -31179,7 +31177,7 @@
         <v>9320</v>
       </c>
       <c r="H1056" s="2" t="str">
-        <f>VLOOKUP(G1056,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1056,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1056" s="3" t="s">
@@ -31207,7 +31205,7 @@
         <v>2349</v>
       </c>
       <c r="H1057" s="2" t="str">
-        <f>VLOOKUP(G1057,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1057,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I1057" s="3" t="s">
@@ -31235,7 +31233,7 @@
         <v>9067</v>
       </c>
       <c r="H1058" s="2" t="str">
-        <f>VLOOKUP(G1058,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1058,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I1058" s="3" t="s">
@@ -31263,7 +31261,7 @@
         <v>1166</v>
       </c>
       <c r="H1059" s="2" t="str">
-        <f>VLOOKUP(G1059,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1059,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I1059" s="3" t="s">
@@ -31291,7 +31289,7 @@
         <v>12948</v>
       </c>
       <c r="H1060" s="2" t="str">
-        <f>VLOOKUP(G1060,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1060,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I1060" s="3" t="s">
@@ -31319,7 +31317,7 @@
         <v>12948</v>
       </c>
       <c r="H1061" s="2" t="str">
-        <f>VLOOKUP(G1061,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1061,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I1061" s="3" t="s">
@@ -31347,7 +31345,7 @@
         <v>9068</v>
       </c>
       <c r="H1062" s="2" t="str">
-        <f>VLOOKUP(G1062,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1062,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1062" s="3" t="s">
@@ -31373,7 +31371,7 @@
       <c r="F1063" s="3"/>
       <c r="G1063" s="3"/>
       <c r="H1063" s="3" t="e">
-        <f>VLOOKUP(G1063,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1063,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1063" s="3"/>
@@ -31399,7 +31397,7 @@
         <v>9068</v>
       </c>
       <c r="H1064" s="2" t="str">
-        <f>VLOOKUP(G1064,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1064,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1064" s="3" t="s">
@@ -31427,7 +31425,7 @@
         <v>30942</v>
       </c>
       <c r="H1065" s="2" t="str">
-        <f>VLOOKUP(G1065,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1065,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LONG NECK 330ML SIX-PACK SH C4</v>
       </c>
       <c r="I1065" s="3" t="s">
@@ -31455,7 +31453,7 @@
         <v>13566</v>
       </c>
       <c r="H1066" s="2" t="str">
-        <f>VLOOKUP(G1066,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1066,Produtos!A:B,2,FALSE)</f>
         <v>SKOL BEATS SENSES LATA 269ML CX C/8 FRID</v>
       </c>
       <c r="I1066" s="3" t="s">
@@ -31483,7 +31481,7 @@
         <v>9085</v>
       </c>
       <c r="H1067" s="2" t="str">
-        <f>VLOOKUP(G1067,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1067,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1067" s="3" t="s">
@@ -31511,7 +31509,7 @@
         <v>22180</v>
       </c>
       <c r="H1068" s="2" t="str">
-        <f>VLOOKUP(G1068,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1068,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
       </c>
       <c r="I1068" s="3" t="s">
@@ -31539,7 +31537,7 @@
         <v>34608</v>
       </c>
       <c r="H1069" s="2" t="str">
-        <f>VLOOKUP(G1069,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1069,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 MULTIPAK</v>
       </c>
       <c r="I1069" s="3" t="s">
@@ -31567,7 +31565,7 @@
         <v>1166</v>
       </c>
       <c r="H1070" s="2" t="str">
-        <f>VLOOKUP(G1070,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1070,Produtos!A:B,2,FALSE)</f>
         <v>SUKITA UVA PET 2L CAIXA C/6</v>
       </c>
       <c r="I1070" s="3" t="s">
@@ -31595,7 +31593,7 @@
         <v>21658</v>
       </c>
       <c r="H1071" s="2" t="str">
-        <f>VLOOKUP(G1071,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1071,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1071" s="3" t="s">
@@ -31623,7 +31621,7 @@
         <v>21658</v>
       </c>
       <c r="H1072" s="2" t="str">
-        <f>VLOOKUP(G1072,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1072,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1072" s="3" t="s">
@@ -31651,7 +31649,7 @@
         <v>9068</v>
       </c>
       <c r="H1073" s="2" t="str">
-        <f>VLOOKUP(G1073,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1073,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1073" s="3" t="s">
@@ -31679,7 +31677,7 @@
         <v>9092</v>
       </c>
       <c r="H1074" s="2" t="str">
-        <f>VLOOKUP(G1074,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1074,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I1074" s="3" t="s">
@@ -31707,7 +31705,7 @@
         <v>9085</v>
       </c>
       <c r="H1075" s="2" t="str">
-        <f>VLOOKUP(G1075,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1075,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1075" s="3" t="s">
@@ -31735,7 +31733,7 @@
         <v>19310</v>
       </c>
       <c r="H1076" s="2" t="str">
-        <f>VLOOKUP(G1076,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1076,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LATA 350ML CX CARTAO C/12 NPAL</v>
       </c>
       <c r="I1076" s="3" t="s">
@@ -31763,7 +31761,7 @@
         <v>9274</v>
       </c>
       <c r="H1077" s="2" t="str">
-        <f>VLOOKUP(G1077,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1077,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1077" s="3" t="s">
@@ -31791,7 +31789,7 @@
         <v>9320</v>
       </c>
       <c r="H1078" s="2" t="str">
-        <f>VLOOKUP(G1078,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1078,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1078" s="3" t="s">
@@ -31819,7 +31817,7 @@
         <v>9092</v>
       </c>
       <c r="H1079" s="2" t="str">
-        <f>VLOOKUP(G1079,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1079,Produtos!A:B,2,FALSE)</f>
         <v>TONICA ANTARCTICA DIET LT350MLSHC/12 PAL</v>
       </c>
       <c r="I1079" s="3" t="s">
@@ -31847,7 +31845,7 @@
         <v>9320</v>
       </c>
       <c r="H1080" s="2" t="str">
-        <f>VLOOKUP(G1080,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1080,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1080" s="3" t="s">
@@ -31875,7 +31873,7 @@
         <v>14135</v>
       </c>
       <c r="H1081" s="2" t="str">
-        <f>VLOOKUP(G1081,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1081,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT 473ML SIX-PACK SH C/2 NPAL</v>
       </c>
       <c r="I1081" s="3" t="s">
@@ -31903,7 +31901,7 @@
         <v>21658</v>
       </c>
       <c r="H1082" s="2" t="str">
-        <f>VLOOKUP(G1082,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1082,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1082" s="3" t="s">
@@ -31931,7 +31929,7 @@
         <v>9096</v>
       </c>
       <c r="H1083" s="2" t="str">
-        <f>VLOOKUP(G1083,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1083,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1083" s="3" t="s">
@@ -31959,7 +31957,7 @@
         <v>25837</v>
       </c>
       <c r="H1084" s="2" t="str">
-        <f>VLOOKUP(G1084,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1084,Produtos!A:B,2,FALSE)</f>
         <v>SPATEN LT 473ML CX CARTAO C/12</v>
       </c>
       <c r="I1084" s="3" t="s">
@@ -31987,7 +31985,7 @@
         <v>9085</v>
       </c>
       <c r="H1085" s="2" t="str">
-        <f>VLOOKUP(G1085,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1085,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1085" s="3" t="s">
@@ -32015,7 +32013,7 @@
         <v>9085</v>
       </c>
       <c r="H1086" s="2" t="str">
-        <f>VLOOKUP(G1086,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1086,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1086" s="3" t="s">
@@ -32043,7 +32041,7 @@
         <v>33818</v>
       </c>
       <c r="H1087" s="2" t="str">
-        <f>VLOOKUP(G1087,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1087,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I1087" s="3" t="s">
@@ -32071,7 +32069,7 @@
         <v>9083</v>
       </c>
       <c r="H1088" s="2" t="str">
-        <f>VLOOKUP(G1088,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1088,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1088" s="3" t="s">
@@ -32099,7 +32097,7 @@
         <v>20498</v>
       </c>
       <c r="H1089" s="2" t="str">
-        <f>VLOOKUP(G1089,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1089,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA DUPLO MALTE LT SLEEK 350ML SH C12</v>
       </c>
       <c r="I1089" s="3" t="s">
@@ -32127,7 +32125,7 @@
         <v>9069</v>
       </c>
       <c r="H1090" s="2" t="str">
-        <f>VLOOKUP(G1090,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1090,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1090" s="3" t="s">
@@ -32155,7 +32153,7 @@
         <v>9067</v>
       </c>
       <c r="H1091" s="2" t="str">
-        <f>VLOOKUP(G1091,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1091,Produtos!A:B,2,FALSE)</f>
         <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
       </c>
       <c r="I1091" s="3" t="s">
@@ -32181,7 +32179,7 @@
       <c r="F1092" s="3"/>
       <c r="G1092" s="3"/>
       <c r="H1092" s="3" t="e">
-        <f>VLOOKUP(G1092,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1092,Produtos!A:B,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="I1092" s="3" t="s">
@@ -32211,7 +32209,7 @@
         <v>9069</v>
       </c>
       <c r="H1093" s="6" t="str">
-        <f>VLOOKUP(G1093,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1093,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1093" s="3" t="s">
@@ -32241,7 +32239,7 @@
         <v>21020</v>
       </c>
       <c r="H1094" s="6" t="str">
-        <f>VLOOKUP(G1094,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1094,Produtos!A:B,2,FALSE)</f>
         <v>BUDWEISER LT SLEEK 350ML CX CART C12</v>
       </c>
       <c r="I1094" s="3" t="s">
@@ -32271,7 +32269,7 @@
         <v>9096</v>
       </c>
       <c r="H1095" s="6" t="str">
-        <f>VLOOKUP(G1095,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1095,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1095" s="3" t="s">
@@ -32301,7 +32299,7 @@
         <v>9083</v>
       </c>
       <c r="H1096" s="6" t="str">
-        <f>VLOOKUP(G1096,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1096,Produtos!A:B,2,FALSE)</f>
         <v>SKOL LT 473ML SH C/12 NPAL</v>
       </c>
       <c r="I1096" s="3" t="s">
@@ -32331,7 +32329,7 @@
         <v>9274</v>
       </c>
       <c r="H1097" s="6" t="str">
-        <f>VLOOKUP(G1097,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1097,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1097" s="3" t="s">
@@ -32361,7 +32359,7 @@
         <v>9085</v>
       </c>
       <c r="H1098" s="6" t="str">
-        <f>VLOOKUP(G1098,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1098,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1098" s="3" t="s">
@@ -32391,7 +32389,7 @@
         <v>9085</v>
       </c>
       <c r="H1099" s="6" t="str">
-        <f>VLOOKUP(G1099,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1099,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCT DIET LT350ML SHC/12</v>
       </c>
       <c r="I1099" s="3" t="s">
@@ -32421,7 +32419,7 @@
         <v>33818</v>
       </c>
       <c r="H1100" s="6" t="str">
-        <f>VLOOKUP(G1100,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1100,Produtos!A:B,2,FALSE)</f>
         <v>ORIGINAL LT 350ML SH C/12 NP MULTIPACK</v>
       </c>
       <c r="I1100" s="3" t="s">
@@ -32451,7 +32449,7 @@
         <v>12948</v>
       </c>
       <c r="H1101" s="6" t="str">
-        <f>VLOOKUP(G1101,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1101,Produtos!A:B,2,FALSE)</f>
         <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
       </c>
       <c r="I1101" s="3" t="s">
@@ -32481,7 +32479,7 @@
         <v>9274</v>
       </c>
       <c r="H1102" s="6" t="str">
-        <f>VLOOKUP(G1102,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1102,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1102" s="3" t="s">
@@ -32511,7 +32509,7 @@
         <v>9274</v>
       </c>
       <c r="H1103" s="6" t="str">
-        <f>VLOOKUP(G1103,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1103,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1103" s="3" t="s">
@@ -32541,7 +32539,7 @@
         <v>9274</v>
       </c>
       <c r="H1104" s="6" t="str">
-        <f>VLOOKUP(G1104,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1104,Produtos!A:B,2,FALSE)</f>
         <v>PEPSI ZERO LATA 350ML SH C/12 NPAL</v>
       </c>
       <c r="I1104" s="3" t="s">
@@ -32571,7 +32569,7 @@
         <v>2349</v>
       </c>
       <c r="H1105" s="6" t="str">
-        <f>VLOOKUP(G1105,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1105,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
       </c>
       <c r="I1105" s="3" t="s">
@@ -32601,7 +32599,7 @@
         <v>2353</v>
       </c>
       <c r="H1106" s="6" t="str">
-        <f>VLOOKUP(G1106,'Sheet1 (2)'!A:B,2,FALSE)</f>
+        <f>VLOOKUP(G1106,Produtos!A:B,2,FALSE)</f>
         <v>GUARANA CHP ANTARCTICA DIET PET 2L CXC/6</v>
       </c>
       <c r="I1106" s="3" t="s">

--- a/Dados BI PTL.xlsx
+++ b/Dados BI PTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acswpj2\CW_R\AV_PRSPI\GOF CW\2025\CDD Curitiba\02. Equipe\09. Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807D6DB7-2F1B-43E2-B314-1322DDD1EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0052C1-1CEA-4D7E-82F8-619C609043C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="512">
   <si>
     <t>ID</t>
   </si>
@@ -1568,6 +1568,12 @@
   </si>
   <si>
     <t>Fora do padrão de empilhamento</t>
+  </si>
+  <si>
+    <t>Gabriel Troll</t>
+  </si>
+  <si>
+    <t>Produto ruim horroso</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1715,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I1106" totalsRowShown="0">
-  <autoFilter ref="A1:I1106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I1107" totalsRowShown="0">
+  <autoFilter ref="A1:I1107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="7"/>
@@ -2025,9 +2031,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1106"/>
+  <dimension ref="A1:I1107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G1093" workbookViewId="0">
+      <selection activeCell="H1107" sqref="H1107"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -32604,6 +32612,36 @@
       </c>
       <c r="I1106" s="3" t="s">
         <v>493</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1107" s="3">
+        <v>9999</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>46007.386018518497</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>46007.386307870402</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1107" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1107" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1107" s="2">
+        <v>2353</v>
+      </c>
+      <c r="H1107" s="6" t="str">
+        <f>VLOOKUP(G1107,Produtos!A:B,2,FALSE)</f>
+        <v>GUARANA CHP ANTARCTICA DIET PET 2L CXC/6</v>
+      </c>
+      <c r="I1107" s="3" t="s">
+        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Dados BI PTL.xlsx
+++ b/Dados BI PTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acswpj2\CW_R\AV_PRSPI\GOF CW\2025\CDD Curitiba\02. Equipe\09. Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0052C1-1CEA-4D7E-82F8-619C609043C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3D569-9472-40F5-8F7E-4CCFBFEE1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3703" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="510">
   <si>
     <t>ID</t>
   </si>
@@ -1568,12 +1568,6 @@
   </si>
   <si>
     <t>Fora do padrão de empilhamento</t>
-  </si>
-  <si>
-    <t>Gabriel Troll</t>
-  </si>
-  <si>
-    <t>Produto ruim horroso</t>
   </si>
 </sst>
 </file>
@@ -1715,8 +1709,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I1107" totalsRowShown="0">
-  <autoFilter ref="A1:I1107" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I1106" totalsRowShown="0">
+  <autoFilter ref="A1:I1106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="7"/>
@@ -2031,10 +2025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1107"/>
+  <dimension ref="A1:I1106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1093" workbookViewId="0">
-      <selection activeCell="H1107" sqref="H1107"/>
+    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
+      <selection activeCell="C1108" sqref="C1108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32612,36 +32606,6 @@
       </c>
       <c r="I1106" s="3" t="s">
         <v>493</v>
-      </c>
-    </row>
-    <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1107" s="3">
-        <v>9999</v>
-      </c>
-      <c r="B1107" s="1">
-        <v>46007.386018518497</v>
-      </c>
-      <c r="C1107" s="1">
-        <v>46007.386307870402</v>
-      </c>
-      <c r="D1107" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="E1107" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F1107" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1107" s="2">
-        <v>2353</v>
-      </c>
-      <c r="H1107" s="6" t="str">
-        <f>VLOOKUP(G1107,Produtos!A:B,2,FALSE)</f>
-        <v>GUARANA CHP ANTARCTICA DIET PET 2L CXC/6</v>
-      </c>
-      <c r="I1107" s="3" t="s">
-        <v>511</v>
       </c>
     </row>
   </sheetData>

--- a/Dados BI PTL.xlsx
+++ b/Dados BI PTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acswpj2\CW_R\AV_PRSPI\GOF CW\2025\CDD Curitiba\02. Equipe\09. Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3D569-9472-40F5-8F7E-4CCFBFEE1EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{336390BE-F263-4966-8E17-4BA7D1E8A3FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Gestao" sheetId="1" r:id="rId1"/>
     <sheet name="Produtos" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Produtos!$A$1:$B$424</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3699" uniqueCount="510">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3838" uniqueCount="524">
   <si>
     <t>ID</t>
   </si>
@@ -1568,6 +1571,48 @@
   </si>
   <si>
     <t>Fora do padrão de empilhamento</t>
+  </si>
+  <si>
+    <t>IN21</t>
+  </si>
+  <si>
+    <t>IN25</t>
+  </si>
+  <si>
+    <t>AG70</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>AG35</t>
+  </si>
+  <si>
+    <t>AG33</t>
+  </si>
+  <si>
+    <t>Ag28</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>BG17</t>
+  </si>
+  <si>
+    <t>Bg08</t>
+  </si>
+  <si>
+    <t>Bg03</t>
+  </si>
+  <si>
+    <t>Revisão Geral,Limpeza do lote</t>
+  </si>
+  <si>
+    <t>Filme rasgado ,NRI (incorreta / ausente)</t>
   </si>
 </sst>
 </file>
@@ -1709,8 +1754,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I1106" totalsRowShown="0">
-  <autoFilter ref="A1:I1106" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:I1146" totalsRowShown="0">
+  <autoFilter ref="A1:I1146" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="7"/>
@@ -2025,10 +2070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I1106"/>
+  <dimension ref="A1:I1146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1093" workbookViewId="0">
-      <selection activeCell="C1108" sqref="C1108"/>
+    <sheetView tabSelected="1" topLeftCell="D1135" workbookViewId="0">
+      <selection activeCell="H1141" sqref="H1141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32608,6 +32653,1162 @@
         <v>493</v>
       </c>
     </row>
+    <row r="1107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1107" s="3">
+        <v>1106</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>46008.634710648097</v>
+      </c>
+      <c r="C1107" s="1">
+        <v>46008.635416666701</v>
+      </c>
+      <c r="D1107" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1107" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1107" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="G1107" s="3">
+        <v>6911</v>
+      </c>
+      <c r="H1107" s="3" t="str">
+        <f>VLOOKUP(G1107,Produtos!A:B,2,FALSE)</f>
+        <v>AGUA M F DA ILHA S/G COPO 200ML CAIXA C/</v>
+      </c>
+      <c r="I1107" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1108" s="3">
+        <v>1107</v>
+      </c>
+      <c r="B1108" s="1">
+        <v>46008.636006944398</v>
+      </c>
+      <c r="C1108" s="1">
+        <v>46008.636516203696</v>
+      </c>
+      <c r="D1108" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1108" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1108" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1108" s="3">
+        <v>7977</v>
+      </c>
+      <c r="H1108" s="3" t="str">
+        <f>VLOOKUP(G1108,Produtos!A:B,2,FALSE)</f>
+        <v>GATORADE UVA PET 500ML SIX PACK</v>
+      </c>
+      <c r="I1108" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1109" s="3">
+        <v>1108</v>
+      </c>
+      <c r="B1109" s="1">
+        <v>46008.636018518497</v>
+      </c>
+      <c r="C1109" s="1">
+        <v>46008.636527777802</v>
+      </c>
+      <c r="D1109" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1109" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1109" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="G1109" s="3">
+        <v>7977</v>
+      </c>
+      <c r="H1109" s="3" t="str">
+        <f>VLOOKUP(G1109,Produtos!A:B,2,FALSE)</f>
+        <v>GATORADE UVA PET 500ML SIX PACK</v>
+      </c>
+      <c r="I1109" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1110" s="3">
+        <v>1109</v>
+      </c>
+      <c r="B1110" s="1">
+        <v>46008.636990740699</v>
+      </c>
+      <c r="C1110" s="1">
+        <v>46008.637847222199</v>
+      </c>
+      <c r="D1110" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1110" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1110" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1110" s="3">
+        <v>504</v>
+      </c>
+      <c r="H1110" s="3" t="str">
+        <f>VLOOKUP(G1110,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1110" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1111" s="3">
+        <v>1110</v>
+      </c>
+      <c r="B1111" s="1">
+        <v>46008.6378819444</v>
+      </c>
+      <c r="C1111" s="1">
+        <v>46008.638414351903</v>
+      </c>
+      <c r="D1111" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1111" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1111" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1111" s="3">
+        <v>504</v>
+      </c>
+      <c r="H1111" s="3" t="str">
+        <f>VLOOKUP(G1111,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1111" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1112" s="3">
+        <v>1111</v>
+      </c>
+      <c r="B1112" s="1">
+        <v>46008.638449074097</v>
+      </c>
+      <c r="C1112" s="1">
+        <v>46008.638888888898</v>
+      </c>
+      <c r="D1112" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1112" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1112" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="G1112" s="3">
+        <v>504</v>
+      </c>
+      <c r="H1112" s="3" t="str">
+        <f>VLOOKUP(G1112,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1112" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1113" s="3">
+        <v>1112</v>
+      </c>
+      <c r="B1113" s="1">
+        <v>46008.639826388899</v>
+      </c>
+      <c r="C1113" s="1">
+        <v>46008.640462962998</v>
+      </c>
+      <c r="D1113" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1113" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1113" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1113" s="3">
+        <v>2349</v>
+      </c>
+      <c r="H1113" s="3" t="str">
+        <f>VLOOKUP(G1113,Produtos!A:B,2,FALSE)</f>
+        <v>GUARANA CHP ANTARCTICA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1113" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1114" s="3">
+        <v>1113</v>
+      </c>
+      <c r="B1114" s="1">
+        <v>46008.642141203702</v>
+      </c>
+      <c r="C1114" s="1">
+        <v>46008.642638888901</v>
+      </c>
+      <c r="D1114" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1114" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1114" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1114" s="3">
+        <v>2353</v>
+      </c>
+      <c r="H1114" s="3" t="str">
+        <f>VLOOKUP(G1114,Produtos!A:B,2,FALSE)</f>
+        <v>GUARANA CHP ANTARCTICA DIET PET 2L CXC/6</v>
+      </c>
+      <c r="I1114" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1115" s="3">
+        <v>1114</v>
+      </c>
+      <c r="B1115" s="1">
+        <v>46008.644120370402</v>
+      </c>
+      <c r="C1115" s="1">
+        <v>46008.644710648099</v>
+      </c>
+      <c r="D1115" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1115" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1115" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="G1115" s="3">
+        <v>17797</v>
+      </c>
+      <c r="H1115" s="3" t="str">
+        <f>VLOOKUP(G1115,Produtos!A:B,2,FALSE)</f>
+        <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
+      </c>
+      <c r="I1115" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1116" s="3">
+        <v>1115</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>46008.645115740699</v>
+      </c>
+      <c r="C1116" s="1">
+        <v>46008.645624999997</v>
+      </c>
+      <c r="D1116" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1116" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1116" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1116" s="3">
+        <v>9276</v>
+      </c>
+      <c r="H1116" s="3" t="str">
+        <f>VLOOKUP(G1116,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI ZERO PET 2L CX C/6</v>
+      </c>
+      <c r="I1116" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1117" s="3">
+        <v>1116</v>
+      </c>
+      <c r="B1117" s="1">
+        <v>46008.645706018498</v>
+      </c>
+      <c r="C1117" s="1">
+        <v>46008.6461921296</v>
+      </c>
+      <c r="D1117" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1117" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1117" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="G1117" s="3">
+        <v>9276</v>
+      </c>
+      <c r="H1117" s="3" t="str">
+        <f>VLOOKUP(G1117,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI ZERO PET 2L CX C/6</v>
+      </c>
+      <c r="I1117" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1118" s="3">
+        <v>1117</v>
+      </c>
+      <c r="B1118" s="1">
+        <v>46008.648310185199</v>
+      </c>
+      <c r="C1118" s="1">
+        <v>46008.648738425902</v>
+      </c>
+      <c r="D1118" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1118" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1118" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1118" s="3">
+        <v>12948</v>
+      </c>
+      <c r="H1118" s="3" t="str">
+        <f>VLOOKUP(G1118,Produtos!A:B,2,FALSE)</f>
+        <v>BRAHMA CHOPP ZERO LATA 350 SH CX C12 NPA</v>
+      </c>
+      <c r="I1118" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1119" s="3">
+        <v>1118</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>46008.650381944397</v>
+      </c>
+      <c r="C1119" s="1">
+        <v>46008.650787036997</v>
+      </c>
+      <c r="D1119" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1119" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1119" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="G1119" s="3">
+        <v>18341</v>
+      </c>
+      <c r="H1119" s="3" t="str">
+        <f>VLOOKUP(G1119,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 3000 ML C/04 SH LISO.</v>
+      </c>
+      <c r="I1119" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1120" s="3">
+        <v>1119</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>46008.651828703703</v>
+      </c>
+      <c r="C1120" s="1">
+        <v>46008.652395833298</v>
+      </c>
+      <c r="D1120" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1120" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1120" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="G1120" s="3">
+        <v>23269</v>
+      </c>
+      <c r="H1120" s="3" t="str">
+        <f>VLOOKUP(G1120,Produtos!A:B,2,FALSE)</f>
+        <v>SKOL BEATS GT LN 269ML SIX-PACK SH C/4</v>
+      </c>
+      <c r="I1120" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1121" s="3">
+        <v>1120</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>46008.653657407398</v>
+      </c>
+      <c r="C1121" s="1">
+        <v>46008.654201388897</v>
+      </c>
+      <c r="D1121" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1121" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1121" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="G1121" s="3">
+        <v>18341</v>
+      </c>
+      <c r="H1121" s="3" t="str">
+        <f>VLOOKUP(G1121,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 3000 ML C/04 SH LISO.</v>
+      </c>
+      <c r="I1121" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1122" s="3">
+        <v>1121</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>46008.655231481498</v>
+      </c>
+      <c r="C1122" s="1">
+        <v>46008.655590277798</v>
+      </c>
+      <c r="D1122" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1122" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1122" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1122" s="3">
+        <v>11556</v>
+      </c>
+      <c r="H1122" s="3" t="e">
+        <f>VLOOKUP(G1122,Produtos!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I1122" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1123" s="3">
+        <v>1122</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>46010.4163078704</v>
+      </c>
+      <c r="C1123" s="1">
+        <v>46010.416643518503</v>
+      </c>
+      <c r="D1123" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1123" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1123" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="G1123" s="3">
+        <v>9071</v>
+      </c>
+      <c r="H1123" s="3" t="str">
+        <f>VLOOKUP(G1123,Produtos!A:B,2,FALSE)</f>
+        <v>CARACU LATA 350ML SH C/12 NPAL</v>
+      </c>
+      <c r="I1123" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1124" s="3">
+        <v>1123</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>46010.418310185203</v>
+      </c>
+      <c r="C1124" s="1">
+        <v>46010.418587963002</v>
+      </c>
+      <c r="D1124" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1124" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1124" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1124" s="3">
+        <v>9096</v>
+      </c>
+      <c r="H1124" s="3" t="str">
+        <f>VLOOKUP(G1124,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA LATA 350ML SH C/12 NPAL</v>
+      </c>
+      <c r="I1124" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1125" s="3">
+        <v>1124</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>46010.419224537</v>
+      </c>
+      <c r="C1125" s="1">
+        <v>46010.419675925899</v>
+      </c>
+      <c r="D1125" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1125" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1125" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="G1125" s="3">
+        <v>20651</v>
+      </c>
+      <c r="H1125" s="3" t="str">
+        <f>VLOOKUP(G1125,Produtos!A:B,2,FALSE)</f>
+        <v>CORONA N LT SLEEK 350ML CX 8</v>
+      </c>
+      <c r="I1125" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1126" s="3">
+        <v>1125</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>46013.424907407403</v>
+      </c>
+      <c r="C1126" s="1">
+        <v>46013.425625000003</v>
+      </c>
+      <c r="D1126" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1126" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1126" s="3"/>
+      <c r="G1126" s="3"/>
+      <c r="H1126" s="3" t="e">
+        <f>VLOOKUP(G1126,Produtos!A:B,2,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="I1126" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1127" s="3">
+        <v>1126</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>46024.458356481497</v>
+      </c>
+      <c r="C1127" s="1">
+        <v>46024.459328703699</v>
+      </c>
+      <c r="D1127" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1127" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1127" s="3"/>
+      <c r="G1127" s="3">
+        <v>32969</v>
+      </c>
+      <c r="H1127" s="3" t="str">
+        <f>VLOOKUP(G1127,Produtos!A:B,2,FALSE)</f>
+        <v>RED BULL S MOR E PESSEGO LT 250ML FOUR P</v>
+      </c>
+      <c r="I1127" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1128" s="3">
+        <v>1127</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>46024.470115740703</v>
+      </c>
+      <c r="C1128" s="1">
+        <v>46024.470694444397</v>
+      </c>
+      <c r="D1128" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1128" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1128" s="3"/>
+      <c r="G1128" s="3">
+        <v>7979</v>
+      </c>
+      <c r="H1128" s="3" t="str">
+        <f>VLOOKUP(G1128,Produtos!A:B,2,FALSE)</f>
+        <v>GATORADE FRUTAS CITR PET 500ML SIX PACK</v>
+      </c>
+      <c r="I1128" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1129" s="3">
+        <v>1128</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>46024.470752314803</v>
+      </c>
+      <c r="C1129" s="1">
+        <v>46024.471192129597</v>
+      </c>
+      <c r="D1129" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1129" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1129" s="3"/>
+      <c r="G1129" s="3">
+        <v>504</v>
+      </c>
+      <c r="H1129" s="3" t="str">
+        <f>VLOOKUP(G1129,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1129" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1130" s="3">
+        <v>1129</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>46024.471215277801</v>
+      </c>
+      <c r="C1130" s="1">
+        <v>46024.471574074101</v>
+      </c>
+      <c r="D1130" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1130" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1130" s="3"/>
+      <c r="G1130" s="3">
+        <v>504</v>
+      </c>
+      <c r="H1130" s="3" t="str">
+        <f>VLOOKUP(G1130,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1130" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1131" s="3">
+        <v>1130</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>46024.471631944398</v>
+      </c>
+      <c r="C1131" s="1">
+        <v>46024.471967592603</v>
+      </c>
+      <c r="D1131" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1131" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1131" s="3"/>
+      <c r="G1131" s="3">
+        <v>9069</v>
+      </c>
+      <c r="H1131" s="3" t="str">
+        <f>VLOOKUP(G1131,Produtos!A:B,2,FALSE)</f>
+        <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
+      </c>
+      <c r="I1131" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1132" s="3">
+        <v>1131</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>46024.471990740698</v>
+      </c>
+      <c r="C1132" s="1">
+        <v>46024.472395833298</v>
+      </c>
+      <c r="D1132" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1132" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1132" s="3"/>
+      <c r="G1132" s="3">
+        <v>7983</v>
+      </c>
+      <c r="H1132" s="3" t="str">
+        <f>VLOOKUP(G1132,Produtos!A:B,2,FALSE)</f>
+        <v>GATORADE MORANGO MARACUJA PET500ML SIXPA</v>
+      </c>
+      <c r="I1132" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1133" s="3">
+        <v>1132</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>46024.472407407397</v>
+      </c>
+      <c r="C1133" s="1">
+        <v>46024.473113425898</v>
+      </c>
+      <c r="D1133" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1133" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1133" s="3"/>
+      <c r="G1133" s="3">
+        <v>18341</v>
+      </c>
+      <c r="H1133" s="3" t="str">
+        <f>VLOOKUP(G1133,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 3000 ML C/04 SH LISO.</v>
+      </c>
+      <c r="I1133" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1134" s="3">
+        <v>1133</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>46024.473124999997</v>
+      </c>
+      <c r="C1134" s="1">
+        <v>46024.473645833299</v>
+      </c>
+      <c r="D1134" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1134" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1134" s="3"/>
+      <c r="G1134" s="3">
+        <v>503</v>
+      </c>
+      <c r="H1134" s="3" t="str">
+        <f>VLOOKUP(G1134,Produtos!A:B,2,FALSE)</f>
+        <v>SUKITA PET 2L CAIXA C/6</v>
+      </c>
+      <c r="I1134" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1135" s="3">
+        <v>1134</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>46024.473692129599</v>
+      </c>
+      <c r="C1135" s="1">
+        <v>46024.4741319444</v>
+      </c>
+      <c r="D1135" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1135" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1135" s="3"/>
+      <c r="G1135" s="3">
+        <v>2350</v>
+      </c>
+      <c r="H1135" s="3" t="str">
+        <f>VLOOKUP(G1135,Produtos!A:B,2,FALSE)</f>
+        <v>SODA LIMONADA ANTARCTICA PET 2L CX C/6</v>
+      </c>
+      <c r="I1135" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1136" s="3">
+        <v>1135</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>46024.474189814799</v>
+      </c>
+      <c r="C1136" s="1">
+        <v>46024.474618055603</v>
+      </c>
+      <c r="D1136" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1136" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1136" s="3"/>
+      <c r="G1136" s="3">
+        <v>2350</v>
+      </c>
+      <c r="H1136" s="3" t="str">
+        <f>VLOOKUP(G1136,Produtos!A:B,2,FALSE)</f>
+        <v>SODA LIMONADA ANTARCTICA PET 2L CX C/6</v>
+      </c>
+      <c r="I1136" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1137" s="3">
+        <v>1136</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>46025.264166666697</v>
+      </c>
+      <c r="C1137" s="1">
+        <v>46025.264629629601</v>
+      </c>
+      <c r="D1137" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1137" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1137" s="3"/>
+      <c r="G1137" s="3">
+        <v>9089</v>
+      </c>
+      <c r="H1137" s="3" t="str">
+        <f>VLOOKUP(G1137,Produtos!A:B,2,FALSE)</f>
+        <v>SUKITA LATA 350ML SH C/12 NPAL</v>
+      </c>
+      <c r="I1137" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3">
+        <v>1137</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>46025.268831018497</v>
+      </c>
+      <c r="C1138" s="1">
+        <v>46025.269293981502</v>
+      </c>
+      <c r="D1138" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1138" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1138" s="3"/>
+      <c r="G1138" s="3">
+        <v>9069</v>
+      </c>
+      <c r="H1138" s="3" t="str">
+        <f>VLOOKUP(G1138,Produtos!A:B,2,FALSE)</f>
+        <v>BRAHMA CHOPP LATA 350ML SH C/12 NPAL</v>
+      </c>
+      <c r="I1138" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1139" s="3">
+        <v>1138</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>46025.269930555602</v>
+      </c>
+      <c r="C1139" s="1">
+        <v>46025.270231481503</v>
+      </c>
+      <c r="D1139" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1139" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1139" s="3"/>
+      <c r="G1139" s="3">
+        <v>9067</v>
+      </c>
+      <c r="H1139" s="3" t="str">
+        <f>VLOOKUP(G1139,Produtos!A:B,2,FALSE)</f>
+        <v>ANTARCTICA PILSEN LATA 350ML SH C/12 NPA</v>
+      </c>
+      <c r="I1139" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3">
+        <v>1139</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>46025.272233796299</v>
+      </c>
+      <c r="C1140" s="1">
+        <v>46025.272604166697</v>
+      </c>
+      <c r="D1140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1140" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1140" s="3"/>
+      <c r="G1140" s="3">
+        <v>13566</v>
+      </c>
+      <c r="H1140" s="3" t="str">
+        <f>VLOOKUP(G1140,Produtos!A:B,2,FALSE)</f>
+        <v>SKOL BEATS SENSES LATA 269ML CX C/8 FRID</v>
+      </c>
+      <c r="I1140" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3">
+        <v>1140</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>46025.272685185198</v>
+      </c>
+      <c r="C1141" s="1">
+        <v>46025.2729861111</v>
+      </c>
+      <c r="D1141" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1141" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1141" s="3"/>
+      <c r="G1141" s="3">
+        <v>13566</v>
+      </c>
+      <c r="H1141" s="3" t="str">
+        <f>VLOOKUP(G1141,Produtos!A:B,2,FALSE)</f>
+        <v>SKOL BEATS SENSES LATA 269ML CX C/8 FRID</v>
+      </c>
+      <c r="I1141" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1142" s="3">
+        <v>1141</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>46025.2742476852</v>
+      </c>
+      <c r="C1142" s="1">
+        <v>46025.274583333303</v>
+      </c>
+      <c r="D1142" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1142" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1142" s="3"/>
+      <c r="G1142" s="3">
+        <v>13839</v>
+      </c>
+      <c r="H1142" s="3" t="str">
+        <f>VLOOKUP(G1142,Produtos!A:B,2,FALSE)</f>
+        <v>BUDWEISER LATA 269ML CX C/8 FRIDGE PACK</v>
+      </c>
+      <c r="I1142" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1143" s="3">
+        <v>1142</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>46025.275243055599</v>
+      </c>
+      <c r="C1143" s="1">
+        <v>46025.275613425903</v>
+      </c>
+      <c r="D1143" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1143" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1143" s="3"/>
+      <c r="G1143" s="3">
+        <v>21119</v>
+      </c>
+      <c r="H1143" s="3" t="str">
+        <f>VLOOKUP(G1143,Produtos!A:B,2,FALSE)</f>
+        <v>SKOL BEATS GT LT 269ML CX CAR C/8</v>
+      </c>
+      <c r="I1143" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1144" s="3">
+        <v>1143</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>46025.277280092603</v>
+      </c>
+      <c r="C1144" s="1">
+        <v>46025.277592592603</v>
+      </c>
+      <c r="D1144" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1144" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1144" s="3"/>
+      <c r="G1144" s="3">
+        <v>11191</v>
+      </c>
+      <c r="H1144" s="3" t="str">
+        <f>VLOOKUP(G1144,Produtos!A:B,2,FALSE)</f>
+        <v>LIPTON PESSEGO PET 1,5 SHRINK C/6 HF</v>
+      </c>
+      <c r="I1144" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1145" s="3">
+        <v>1144</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>46025.278159722198</v>
+      </c>
+      <c r="C1145" s="1">
+        <v>46025.278483796297</v>
+      </c>
+      <c r="D1145" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1145" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1145" s="3"/>
+      <c r="G1145" s="3">
+        <v>21658</v>
+      </c>
+      <c r="H1145" s="3" t="str">
+        <f>VLOOKUP(G1145,Produtos!A:B,2,FALSE)</f>
+        <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
+      </c>
+      <c r="I1145" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1146" s="3">
+        <v>1145</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>46027.356018518498</v>
+      </c>
+      <c r="C1146" s="1">
+        <v>46027.356377314798</v>
+      </c>
+      <c r="D1146" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1146" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1146" s="3"/>
+      <c r="G1146" s="3">
+        <v>22180</v>
+      </c>
+      <c r="H1146" s="3" t="str">
+        <f>VLOOKUP(G1146,Produtos!A:B,2,FALSE)</f>
+        <v>BUDWEISER ZERO LN 330ML SIX-PACK SH C/4</v>
+      </c>
+      <c r="I1146" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -32621,7 +33822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA0FA71-EFCE-444C-AF89-6CF5C7FF5A50}">
   <dimension ref="A1:B424"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -36022,6 +37225,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B424" xr:uid="{BCA0FA71-EFCE-444C-AF89-6CF5C7FF5A50}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Dados BI PTL.xlsx
+++ b/Dados BI PTL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acswpj2\CW_R\AV_PRSPI\GOF CW\2025\CDD Curitiba\02. Equipe\09. Gabriel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67680C89-6E46-4CD4-A043-85D52FC2916A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EC63801-6BEE-4B9E-B8ED-463529664826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3839" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3866" uniqueCount="525">
   <si>
     <t>ID</t>
   </si>
@@ -1760,8 +1760,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J1146" totalsRowShown="0">
-  <autoFilter ref="A1:J1146" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:J1155" totalsRowShown="0">
+  <autoFilter ref="A1:J1155" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Hora de início" dataDxfId="8"/>
@@ -2079,10 +2079,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J1146"/>
+  <dimension ref="A1:J1155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A910" workbookViewId="0">
-      <selection activeCell="M921" sqref="M921"/>
+    <sheetView tabSelected="1" topLeftCell="A1135" workbookViewId="0">
+      <selection activeCell="I1156" sqref="I1156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38397,6 +38397,294 @@
         <v>493</v>
       </c>
       <c r="J1146" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1147" s="3">
+        <v>1146</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>46031.728344907402</v>
+      </c>
+      <c r="C1147" s="1">
+        <v>46031.730208333298</v>
+      </c>
+      <c r="D1147" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1147" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1147" s="3"/>
+      <c r="G1147" s="2">
+        <v>14340</v>
+      </c>
+      <c r="H1147" s="3" t="str">
+        <f>VLOOKUP(G1147,Produtos!A:B,2,FALSE)</f>
+        <v>ORIGINAL ONE WAY 300ML CX PAPELAO C/12</v>
+      </c>
+      <c r="I1147" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1147" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1148" s="3">
+        <v>1147</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>46031.730254629598</v>
+      </c>
+      <c r="C1148" s="1">
+        <v>46031.731400463003</v>
+      </c>
+      <c r="D1148" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1148" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1148" s="3"/>
+      <c r="G1148" s="2">
+        <v>21119</v>
+      </c>
+      <c r="H1148" s="3" t="str">
+        <f>VLOOKUP(G1148,Produtos!A:B,2,FALSE)</f>
+        <v>SKOL BEATS GT LT 269ML CX CAR C/8</v>
+      </c>
+      <c r="I1148" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J1148" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1149" s="3">
+        <v>1148</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>46031.737743055601</v>
+      </c>
+      <c r="C1149" s="1">
+        <v>46031.738738425898</v>
+      </c>
+      <c r="D1149" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1149" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1149" s="3"/>
+      <c r="G1149" s="2">
+        <v>20651</v>
+      </c>
+      <c r="H1149" s="3" t="str">
+        <f>VLOOKUP(G1149,Produtos!A:B,2,FALSE)</f>
+        <v>CORONA N LT SLEEK 350ML CX 8</v>
+      </c>
+      <c r="I1149" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="J1149" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1150" s="3">
+        <v>1149</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>46031.738761574103</v>
+      </c>
+      <c r="C1150" s="1">
+        <v>46031.739560185197</v>
+      </c>
+      <c r="D1150" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1150" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1150" s="3"/>
+      <c r="G1150" s="2">
+        <v>20651</v>
+      </c>
+      <c r="H1150" s="3" t="str">
+        <f>VLOOKUP(G1150,Produtos!A:B,2,FALSE)</f>
+        <v>CORONA N LT SLEEK 350ML CX 8</v>
+      </c>
+      <c r="I1150" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1150" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1151" s="3">
+        <v>1150</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>46032.347916666702</v>
+      </c>
+      <c r="C1151" s="1">
+        <v>46032.349004629599</v>
+      </c>
+      <c r="D1151" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1151" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1151" s="3"/>
+      <c r="G1151" s="2">
+        <v>18341</v>
+      </c>
+      <c r="H1151" s="3" t="str">
+        <f>VLOOKUP(G1151,Produtos!A:B,2,FALSE)</f>
+        <v>PEPSI COLA PET 3000 ML C/04 SH LISO.</v>
+      </c>
+      <c r="I1151" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1151" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1152" s="3">
+        <v>1151</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>46031.739641203698</v>
+      </c>
+      <c r="C1152" s="1">
+        <v>46032.462696759299</v>
+      </c>
+      <c r="D1152" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1152" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1152" s="3"/>
+      <c r="G1152" s="2">
+        <v>17797</v>
+      </c>
+      <c r="H1152" s="3" t="str">
+        <f>VLOOKUP(G1152,Produtos!A:B,2,FALSE)</f>
+        <v>BRAHMA CHOPP LATA 350ML SH 18 MULTIPACK</v>
+      </c>
+      <c r="I1152" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="J1152" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1153" s="3">
+        <v>1152</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>46032.4628240741</v>
+      </c>
+      <c r="C1153" s="1">
+        <v>46032.463900463001</v>
+      </c>
+      <c r="D1153" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1153" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1153" s="3"/>
+      <c r="G1153" s="2">
+        <v>21658</v>
+      </c>
+      <c r="H1153" s="3" t="str">
+        <f>VLOOKUP(G1153,Produtos!A:B,2,FALSE)</f>
+        <v>SPATEN N LT SLEEK 350ML CX CART C12</v>
+      </c>
+      <c r="I1153" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="J1153" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1154" s="3">
+        <v>1153</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>46032.463969907403</v>
+      </c>
+      <c r="C1154" s="1">
+        <v>46032.464988425898</v>
+      </c>
+      <c r="D1154" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1154" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1154" s="3"/>
+      <c r="G1154" s="2">
+        <v>21668</v>
+      </c>
+      <c r="H1154" s="3" t="str">
+        <f>VLOOKUP(G1154,Produtos!A:B,2,FALSE)</f>
+        <v>SPATEN N ONE WAY 600ML CX C/12 NP ARTE</v>
+      </c>
+      <c r="I1154" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1154" s="1" t="str">
+        <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
+        <v>2026/01</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1155" s="3">
+        <v>1154</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>46032.463981481502</v>
+      </c>
+      <c r="C1155" s="1">
+        <v>46032.464999999997</v>
+      </c>
+      <c r="D1155" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1155" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1155" s="3"/>
+      <c r="G1155" s="2">
+        <v>21668</v>
+      </c>
+      <c r="H1155" s="3" t="str">
+        <f>VLOOKUP(G1155,Produtos!A:B,2,FALSE)</f>
+        <v>SPATEN N ONE WAY 600ML CX C/12 NP ARTE</v>
+      </c>
+      <c r="I1155" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="J1155" s="1" t="str">
         <f>YEAR(Table1[[#This Row],[Hora de início]])&amp;"/"&amp;IF(MONTH(Table1[[#This Row],[Hora de início]])&lt;10,"0"&amp;MONTH(Table1[[#This Row],[Hora de início]]),MONTH(Table1[[#This Row],[Hora de início]]))</f>
         <v>2026/01</v>
       </c>
